--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Dropbox\Projects\Toshe's Underwater Adventures\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="7"/>
+    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="2" r:id="rId1"/>
@@ -21,12 +26,12 @@
     <sheet name="Coliseum" sheetId="14" r:id="rId12"/>
     <sheet name="Coliseum Text" sheetId="16" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="1277">
   <si>
     <t>Club</t>
   </si>
@@ -3848,6 +3853,15 @@
   </si>
   <si>
     <t>{'Frostburn': 15, 'Hailstorm': 10, 'Icebreath': 5, 'Blizzard': 3, 'Mist': 1, 'Dive': 1}</t>
+  </si>
+  <si>
+    <t>Lava Spirit</t>
+  </si>
+  <si>
+    <t>{'Flame Guard': 10, 'Glowing Barrier': 5, 'Luminescent Barrier': 5}</t>
+  </si>
+  <si>
+    <t>{'Hot Coals': 20, 'Melting Touch': 15, 'Scorch': 40, 'Healing Ray': 15, 'Firestorm': 10}</t>
   </si>
 </sst>
 </file>
@@ -4635,7 +4649,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5033,13 +5047,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159747456"/>
-        <c:axId val="159749248"/>
+        <c:axId val="126971056"/>
+        <c:axId val="126005824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159747456"/>
+        <c:axId val="126971056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,7 +5062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159749248"/>
+        <c:crossAx val="126005824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5057,7 +5070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159749248"/>
+        <c:axId val="126005824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -5069,7 +5082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159747456"/>
+        <c:crossAx val="126971056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5094,7 +5107,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5760,13 +5773,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159995392"/>
-        <c:axId val="159997312"/>
+        <c:axId val="124895992"/>
+        <c:axId val="124896384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159995392"/>
+        <c:axId val="124895992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5795,7 +5807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159997312"/>
+        <c:crossAx val="124896384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5805,7 +5817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159997312"/>
+        <c:axId val="124896384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5816,7 +5828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159995392"/>
+        <c:crossAx val="124895992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5951,7 +5963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5986,7 +5998,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6200,9 +6212,7 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -10966,7 +10976,7 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -12671,8 +12681,8 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13657,7 +13667,7 @@
         <v>20</v>
       </c>
       <c r="F49">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -13677,7 +13687,7 @@
         <v>20</v>
       </c>
       <c r="F50">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -13697,7 +13707,7 @@
         <v>20</v>
       </c>
       <c r="F51">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -13715,7 +13725,7 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -14635,9 +14645,7 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14930,11 +14938,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:Y224"/>
+  <dimension ref="A1:Y225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q224" sqref="Q224"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="R200" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:Y225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30656,7 +30666,7 @@
         <v>800</v>
       </c>
       <c r="T204" s="31">
-        <f>-X2040</f>
+        <f>-X2041</f>
         <v>0</v>
       </c>
       <c r="U204" s="38">
@@ -31909,28 +31919,28 @@
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
-        <v>1183</v>
+        <v>1274</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>1183</v>
+        <v>1274</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>1183</v>
+        <v>1274</v>
       </c>
       <c r="D221" s="23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E221" s="33">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="F221" s="35">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="G221" s="41">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H221" s="25">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I221" s="24">
         <v>0.1</v>
@@ -31942,31 +31952,31 @@
         <v>0</v>
       </c>
       <c r="L221" s="27">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M221" s="17">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N221" s="3">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="O221" s="29">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="P221" s="18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q221" s="2" t="s">
-        <v>1224</v>
+        <v>1276</v>
       </c>
       <c r="R221" t="s">
-        <v>1207</v>
+        <v>1275</v>
       </c>
       <c r="S221" s="20">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T221" s="31">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U221" s="38">
         <v>1</v>
@@ -31981,36 +31991,36 @@
         <v>0</v>
       </c>
       <c r="Y221" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>1203</v>
+        <v>1183</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1203</v>
+        <v>1183</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1203</v>
+        <v>1183</v>
       </c>
       <c r="D222" s="23">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E222" s="33">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="F222" s="35">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="G222" s="41">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H222" s="25">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I222" s="24">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J222" s="34">
         <v>200</v>
@@ -32019,69 +32029,69 @@
         <v>0</v>
       </c>
       <c r="L222" s="27">
-        <v>2000</v>
+        <v>450</v>
       </c>
       <c r="M222" s="17">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N222" s="3">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="O222" s="29">
+        <v>200</v>
+      </c>
+      <c r="P222" s="18">
         <v>50</v>
       </c>
-      <c r="P222" s="18">
-        <v>0</v>
-      </c>
       <c r="Q222" s="2" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="R222" t="s">
-        <v>1253</v>
+        <v>1207</v>
       </c>
       <c r="S222" s="20">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="T222" s="31">
         <v>0</v>
       </c>
       <c r="U222" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V222" s="36">
         <v>0</v>
       </c>
       <c r="W222" s="47" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X222" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y222" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D223" s="23">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E223" s="33">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="F223" s="35">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="G223" s="41">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H223" s="25">
         <v>90</v>
@@ -32096,28 +32106,28 @@
         <v>0</v>
       </c>
       <c r="L223" s="27">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M223" s="17">
+        <v>100</v>
+      </c>
+      <c r="N223" s="3">
+        <v>0</v>
+      </c>
+      <c r="O223" s="29">
         <v>50</v>
       </c>
-      <c r="N223" s="3">
-        <v>100</v>
-      </c>
-      <c r="O223" s="29">
-        <v>0</v>
-      </c>
       <c r="P223" s="18">
         <v>0</v>
       </c>
       <c r="Q223" s="2" t="s">
-        <v>1273</v>
+        <v>1232</v>
       </c>
       <c r="R223" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="S223" s="20">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="T223" s="31">
         <v>0</v>
@@ -32140,25 +32150,25 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D224" s="23">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E224" s="33">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="F224" s="35">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="G224" s="41">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H224" s="25">
         <v>90</v>
@@ -32173,28 +32183,28 @@
         <v>0</v>
       </c>
       <c r="L224" s="27">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M224" s="17">
+        <v>50</v>
+      </c>
+      <c r="N224" s="3">
         <v>100</v>
       </c>
-      <c r="N224" s="3">
-        <v>75</v>
-      </c>
       <c r="O224" s="29">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P224" s="18">
         <v>0</v>
       </c>
       <c r="Q224" s="2" t="s">
-        <v>1251</v>
+        <v>1273</v>
       </c>
       <c r="R224" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="S224" s="20">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="T224" s="31">
         <v>0</v>
@@ -32212,6 +32222,83 @@
         <v>1</v>
       </c>
       <c r="Y224" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A225" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D225" s="23">
+        <v>45</v>
+      </c>
+      <c r="E225" s="33">
+        <v>800000</v>
+      </c>
+      <c r="F225" s="35">
+        <v>800000</v>
+      </c>
+      <c r="G225" s="41">
+        <v>200</v>
+      </c>
+      <c r="H225" s="25">
+        <v>90</v>
+      </c>
+      <c r="I225" s="24">
+        <v>10</v>
+      </c>
+      <c r="J225" s="34">
+        <v>200</v>
+      </c>
+      <c r="K225" s="26">
+        <v>0</v>
+      </c>
+      <c r="L225" s="27">
+        <v>2000</v>
+      </c>
+      <c r="M225" s="17">
+        <v>100</v>
+      </c>
+      <c r="N225" s="3">
+        <v>75</v>
+      </c>
+      <c r="O225" s="29">
+        <v>75</v>
+      </c>
+      <c r="P225" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="R225" t="s">
+        <v>1255</v>
+      </c>
+      <c r="S225" s="20">
+        <v>300000</v>
+      </c>
+      <c r="T225" s="31">
+        <v>0</v>
+      </c>
+      <c r="U225" s="38">
+        <v>0</v>
+      </c>
+      <c r="V225" s="36">
+        <v>0</v>
+      </c>
+      <c r="W225" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="X225" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y225" s="43">
         <v>0</v>
       </c>
     </row>
@@ -32234,8 +32321,8 @@
   </sheetPr>
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Dropbox\Projects\Toshe's Underwater Adventures\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621"/>
+    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="2" r:id="rId1"/>
@@ -26,12 +21,12 @@
     <sheet name="Coliseum" sheetId="14" r:id="rId12"/>
     <sheet name="Coliseum Text" sheetId="16" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="1286">
   <si>
     <t>Club</t>
   </si>
@@ -3862,6 +3857,33 @@
   </si>
   <si>
     <t>{'Hot Coals': 20, 'Melting Touch': 15, 'Scorch': 40, 'Healing Ray': 15, 'Firestorm': 10}</t>
+  </si>
+  <si>
+    <t>Animated Magma</t>
+  </si>
+  <si>
+    <t>Tectonic Beast</t>
+  </si>
+  <si>
+    <t>{'Molten Rocks': 5, 'Hot Coals': 15, 'Scorch': 10, 'Immolation': 20, 'Strong Attack': 50}</t>
+  </si>
+  <si>
+    <t>{'Rock Shield': 10, 'Glowing Barrier': 5}</t>
+  </si>
+  <si>
+    <t>{'Fireball': 30, 'Avalanche': 14, 'Fumarole': 6, 'Strong Attack': 30, 'Immolation': 20}</t>
+  </si>
+  <si>
+    <t>{'Rock Shield': 5, 'Flame Guard': 35, 'Flametongue': 60}</t>
+  </si>
+  <si>
+    <t>Duner</t>
+  </si>
+  <si>
+    <t>{'Quicksand': 4, 'Duststorm': 2, 'Battery Cage': 6}</t>
+  </si>
+  <si>
+    <t>Game Over Theme</t>
   </si>
 </sst>
 </file>
@@ -4676,7 +4698,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5047,12 +5068,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126971056"/>
-        <c:axId val="126005824"/>
+        <c:axId val="89037440"/>
+        <c:axId val="89039232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126971056"/>
+        <c:axId val="89037440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5062,7 +5084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126005824"/>
+        <c:crossAx val="89039232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5070,7 +5092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126005824"/>
+        <c:axId val="89039232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -5082,14 +5104,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126971056"/>
+        <c:crossAx val="89037440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5119,7 +5140,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5773,12 +5793,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124895992"/>
-        <c:axId val="124896384"/>
+        <c:axId val="105145088"/>
+        <c:axId val="105147008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124895992"/>
+        <c:axId val="105145088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5800,14 +5821,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124896384"/>
+        <c:crossAx val="105147008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5817,7 +5837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124896384"/>
+        <c:axId val="105147008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5828,14 +5848,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124895992"/>
+        <c:crossAx val="105145088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5963,7 +5982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5998,7 +6017,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6212,7 +6231,7 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12682,7 +12701,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:F51"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13725,8 +13744,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14938,13 +14957,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:Y225"/>
+  <dimension ref="A1:Y228"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="R200" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:Y225"/>
+      <selection pane="bottomRight" activeCell="W228" sqref="W228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31842,31 +31861,31 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>1182</v>
+        <v>1277</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>1182</v>
+        <v>1277</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>1182</v>
+        <v>1277</v>
       </c>
       <c r="D220" s="23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E220" s="33">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="F220" s="35">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="G220" s="41">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H220" s="25">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I220" s="24">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J220" s="34">
         <v>200</v>
@@ -31875,28 +31894,28 @@
         <v>0</v>
       </c>
       <c r="L220" s="27">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M220" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N220" s="3">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="O220" s="29">
         <v>100</v>
       </c>
       <c r="P220" s="18">
-        <v>25</v>
-      </c>
-      <c r="Q220" s="2" t="s">
-        <v>1225</v>
+        <v>50</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>1279</v>
       </c>
       <c r="R220" t="s">
-        <v>1206</v>
+        <v>1280</v>
       </c>
       <c r="S220" s="20">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="T220" s="31">
         <v>0</v>
@@ -31908,39 +31927,39 @@
         <v>0</v>
       </c>
       <c r="W220" s="47" t="s">
-        <v>666</v>
+        <v>155</v>
       </c>
       <c r="X220" s="57">
         <v>0</v>
       </c>
       <c r="Y220" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
-        <v>1274</v>
+        <v>1182</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>1274</v>
+        <v>1182</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>1274</v>
+        <v>1182</v>
       </c>
       <c r="D221" s="23">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E221" s="33">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F221" s="35">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G221" s="41">
         <v>25</v>
       </c>
       <c r="H221" s="25">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I221" s="24">
         <v>0.1</v>
@@ -31955,28 +31974,28 @@
         <v>300</v>
       </c>
       <c r="M221" s="17">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N221" s="3">
-        <v>-17</v>
+        <v>-50</v>
       </c>
       <c r="O221" s="29">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P221" s="18">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="Q221" s="2" t="s">
-        <v>1276</v>
+        <v>1225</v>
       </c>
       <c r="R221" t="s">
-        <v>1275</v>
+        <v>1206</v>
       </c>
       <c r="S221" s="20">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T221" s="31">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U221" s="38">
         <v>1</v>
@@ -31991,33 +32010,33 @@
         <v>0</v>
       </c>
       <c r="Y221" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>1183</v>
+        <v>1274</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1183</v>
+        <v>1274</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1183</v>
+        <v>1274</v>
       </c>
       <c r="D222" s="23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E222" s="33">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="F222" s="35">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="G222" s="41">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H222" s="25">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I222" s="24">
         <v>0.1</v>
@@ -32029,31 +32048,31 @@
         <v>0</v>
       </c>
       <c r="L222" s="27">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M222" s="17">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N222" s="3">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="O222" s="29">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="P222" s="18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q222" s="2" t="s">
-        <v>1224</v>
+        <v>1276</v>
       </c>
       <c r="R222" t="s">
-        <v>1207</v>
+        <v>1275</v>
       </c>
       <c r="S222" s="20">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T222" s="31">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U222" s="38">
         <v>1</v>
@@ -32068,36 +32087,36 @@
         <v>0</v>
       </c>
       <c r="Y222" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
-        <v>1203</v>
+        <v>1183</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>1203</v>
+        <v>1183</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>1203</v>
+        <v>1183</v>
       </c>
       <c r="D223" s="23">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E223" s="33">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="F223" s="35">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="G223" s="41">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H223" s="25">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I223" s="24">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J223" s="34">
         <v>200</v>
@@ -32106,69 +32125,69 @@
         <v>0</v>
       </c>
       <c r="L223" s="27">
-        <v>2000</v>
+        <v>450</v>
       </c>
       <c r="M223" s="17">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N223" s="3">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="O223" s="29">
+        <v>200</v>
+      </c>
+      <c r="P223" s="18">
         <v>50</v>
       </c>
-      <c r="P223" s="18">
-        <v>0</v>
-      </c>
       <c r="Q223" s="2" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="R223" t="s">
-        <v>1253</v>
+        <v>1207</v>
       </c>
       <c r="S223" s="20">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="T223" s="31">
         <v>0</v>
       </c>
       <c r="U223" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V223" s="36">
         <v>0</v>
       </c>
       <c r="W223" s="47" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X223" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y223" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
-        <v>1204</v>
+        <v>1278</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>1204</v>
+        <v>1278</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1204</v>
+        <v>1278</v>
       </c>
       <c r="D224" s="23">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E224" s="33">
-        <v>400000</v>
+        <v>50000</v>
       </c>
       <c r="F224" s="35">
-        <v>400000</v>
+        <v>50000</v>
       </c>
       <c r="G224" s="41">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="H224" s="25">
         <v>90</v>
@@ -32183,40 +32202,40 @@
         <v>0</v>
       </c>
       <c r="L224" s="27">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M224" s="17">
         <v>50</v>
       </c>
       <c r="N224" s="3">
+        <v>-50</v>
+      </c>
+      <c r="O224" s="29">
         <v>100</v>
       </c>
-      <c r="O224" s="29">
-        <v>0</v>
-      </c>
       <c r="P224" s="18">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q224" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="R224" t="s">
-        <v>1254</v>
+        <v>1281</v>
+      </c>
+      <c r="R224" s="2" t="s">
+        <v>1282</v>
       </c>
       <c r="S224" s="20">
-        <v>200000</v>
+        <v>9000</v>
       </c>
       <c r="T224" s="31">
         <v>0</v>
       </c>
       <c r="U224" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V224" s="36">
         <v>0</v>
       </c>
       <c r="W224" s="47" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X224" s="57">
         <v>1</v>
@@ -32227,25 +32246,25 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D225" s="23">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E225" s="33">
-        <v>800000</v>
+        <v>200000</v>
       </c>
       <c r="F225" s="35">
-        <v>800000</v>
+        <v>200000</v>
       </c>
       <c r="G225" s="41">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H225" s="25">
         <v>90</v>
@@ -32266,22 +32285,22 @@
         <v>100</v>
       </c>
       <c r="N225" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="O225" s="29">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P225" s="18">
         <v>0</v>
       </c>
       <c r="Q225" s="2" t="s">
-        <v>1251</v>
+        <v>1232</v>
       </c>
       <c r="R225" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="S225" s="20">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="T225" s="31">
         <v>0</v>
@@ -32300,6 +32319,237 @@
       </c>
       <c r="Y225" s="43">
         <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A226" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D226" s="23">
+        <v>40</v>
+      </c>
+      <c r="E226" s="33">
+        <v>400000</v>
+      </c>
+      <c r="F226" s="35">
+        <v>400000</v>
+      </c>
+      <c r="G226" s="41">
+        <v>150</v>
+      </c>
+      <c r="H226" s="25">
+        <v>90</v>
+      </c>
+      <c r="I226" s="24">
+        <v>10</v>
+      </c>
+      <c r="J226" s="34">
+        <v>200</v>
+      </c>
+      <c r="K226" s="26">
+        <v>0</v>
+      </c>
+      <c r="L226" s="27">
+        <v>1000</v>
+      </c>
+      <c r="M226" s="17">
+        <v>50</v>
+      </c>
+      <c r="N226" s="3">
+        <v>100</v>
+      </c>
+      <c r="O226" s="29">
+        <v>0</v>
+      </c>
+      <c r="P226" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q226" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R226" t="s">
+        <v>1254</v>
+      </c>
+      <c r="S226" s="20">
+        <v>200000</v>
+      </c>
+      <c r="T226" s="31">
+        <v>0</v>
+      </c>
+      <c r="U226" s="38">
+        <v>0</v>
+      </c>
+      <c r="V226" s="36">
+        <v>0</v>
+      </c>
+      <c r="W226" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="X226" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y226" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A227" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D227" s="23">
+        <v>45</v>
+      </c>
+      <c r="E227" s="33">
+        <v>800000</v>
+      </c>
+      <c r="F227" s="35">
+        <v>800000</v>
+      </c>
+      <c r="G227" s="41">
+        <v>200</v>
+      </c>
+      <c r="H227" s="25">
+        <v>90</v>
+      </c>
+      <c r="I227" s="24">
+        <v>10</v>
+      </c>
+      <c r="J227" s="34">
+        <v>200</v>
+      </c>
+      <c r="K227" s="26">
+        <v>0</v>
+      </c>
+      <c r="L227" s="27">
+        <v>2000</v>
+      </c>
+      <c r="M227" s="17">
+        <v>100</v>
+      </c>
+      <c r="N227" s="3">
+        <v>75</v>
+      </c>
+      <c r="O227" s="29">
+        <v>75</v>
+      </c>
+      <c r="P227" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q227" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="R227" t="s">
+        <v>1255</v>
+      </c>
+      <c r="S227" s="20">
+        <v>300000</v>
+      </c>
+      <c r="T227" s="31">
+        <v>0</v>
+      </c>
+      <c r="U227" s="38">
+        <v>0</v>
+      </c>
+      <c r="V227" s="36">
+        <v>0</v>
+      </c>
+      <c r="W227" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="X227" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y227" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A228" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D228" s="23">
+        <v>60</v>
+      </c>
+      <c r="E228" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="F228" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="G228" s="41">
+        <v>400</v>
+      </c>
+      <c r="H228" s="25">
+        <v>70</v>
+      </c>
+      <c r="I228" s="24">
+        <v>1</v>
+      </c>
+      <c r="J228" s="34">
+        <v>200</v>
+      </c>
+      <c r="K228" s="26">
+        <v>25</v>
+      </c>
+      <c r="L228" s="27">
+        <v>5000</v>
+      </c>
+      <c r="M228" s="17">
+        <v>99</v>
+      </c>
+      <c r="N228" s="3">
+        <v>90</v>
+      </c>
+      <c r="O228" s="29">
+        <v>95</v>
+      </c>
+      <c r="P228" s="18">
+        <v>98</v>
+      </c>
+      <c r="Q228" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="R228" t="s">
+        <v>146</v>
+      </c>
+      <c r="S228" s="20">
+        <v>-1</v>
+      </c>
+      <c r="T228" s="31">
+        <v>0</v>
+      </c>
+      <c r="U228" s="38">
+        <v>1</v>
+      </c>
+      <c r="V228" s="36">
+        <v>0</v>
+      </c>
+      <c r="W228" s="47" t="s">
+        <v>1285</v>
+      </c>
+      <c r="X228" s="57">
+        <v>0</v>
+      </c>
+      <c r="Y228" s="43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -32321,8 +32571,8 @@
   </sheetPr>
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J154"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="1290">
   <si>
     <t>Club</t>
   </si>
@@ -3884,6 +3884,18 @@
   </si>
   <si>
     <t>Game Over Theme</t>
+  </si>
+  <si>
+    <t>{'Beast Hide': 100}</t>
+  </si>
+  <si>
+    <t>Final Pespozeor</t>
+  </si>
+  <si>
+    <t>{'Bite': 8, 'Crush': 3, 'Fire Claw': 10, 'Scorch': 10, 'Firestorm': 5, 'Eruption': 5}</t>
+  </si>
+  <si>
+    <t>Beast Hide</t>
   </si>
 </sst>
 </file>
@@ -5070,11 +5082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89037440"/>
-        <c:axId val="89039232"/>
+        <c:axId val="128881024"/>
+        <c:axId val="128882560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89037440"/>
+        <c:axId val="128881024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5084,7 +5096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89039232"/>
+        <c:crossAx val="128882560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5092,7 +5104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89039232"/>
+        <c:axId val="128882560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -5104,7 +5116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89037440"/>
+        <c:crossAx val="128881024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5795,11 +5807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105145088"/>
-        <c:axId val="105147008"/>
+        <c:axId val="128895232"/>
+        <c:axId val="132645248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105145088"/>
+        <c:axId val="128895232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5827,7 +5839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105147008"/>
+        <c:crossAx val="132645248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5837,7 +5849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105147008"/>
+        <c:axId val="132645248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,7 +5860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105145088"/>
+        <c:crossAx val="128895232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10995,8 +11007,8 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L56" sqref="K56:L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12546,7 +12558,7 @@
         <v>988</v>
       </c>
       <c r="B54" s="43">
-        <v>70000</v>
+        <v>7000</v>
       </c>
       <c r="C54" t="s">
         <v>124</v>
@@ -12698,10 +12710,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13727,6 +13739,26 @@
       </c>
       <c r="F51">
         <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B52" s="43">
+        <v>8000</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52" s="27">
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -14957,13 +14989,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:Y228"/>
+  <dimension ref="A1:Y229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W228" sqref="W228"/>
+      <selection pane="bottomRight" activeCell="P228" sqref="P228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14971,8 +15003,8 @@
     <col min="1" max="1" width="18.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="8" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="41" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" style="25" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" style="24" customWidth="1"/>
@@ -25170,13 +25202,13 @@
         <v>430</v>
       </c>
       <c r="D133" s="23">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E133" s="33">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F133" s="35">
-        <v>3000</v>
+        <v>1600000</v>
       </c>
       <c r="G133" s="41">
         <v>25</v>
@@ -25224,7 +25256,7 @@
         <v>0</v>
       </c>
       <c r="V133" s="37">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="W133" s="47" t="s">
         <v>668</v>
@@ -32433,7 +32465,7 @@
         <v>0</v>
       </c>
       <c r="L227" s="27">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M227" s="17">
         <v>100</v>
@@ -32476,79 +32508,156 @@
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A228" s="13" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B228" s="13" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>1283</v>
+      <c r="A228" s="12" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B228" t="s">
+        <v>430</v>
+      </c>
+      <c r="C228" t="s">
+        <v>430</v>
       </c>
       <c r="D228" s="23">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E228" s="33">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="F228" s="35">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="G228" s="41">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="H228" s="25">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I228" s="24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J228" s="34">
         <v>200</v>
       </c>
       <c r="K228" s="26">
+        <v>0</v>
+      </c>
+      <c r="L228" s="27">
+        <v>3000</v>
+      </c>
+      <c r="M228" s="17">
+        <v>50</v>
+      </c>
+      <c r="N228" s="3">
+        <v>0</v>
+      </c>
+      <c r="O228" s="29">
+        <v>100</v>
+      </c>
+      <c r="P228" s="18">
         <v>25</v>
       </c>
-      <c r="L228" s="27">
+      <c r="Q228" t="s">
+        <v>1288</v>
+      </c>
+      <c r="R228" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="S228" s="21">
+        <v>500000</v>
+      </c>
+      <c r="T228" s="32">
+        <v>0</v>
+      </c>
+      <c r="U228" s="39">
+        <v>0</v>
+      </c>
+      <c r="V228" s="37">
+        <v>0</v>
+      </c>
+      <c r="W228" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="X228" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y228" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A229" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D229" s="23">
+        <v>60</v>
+      </c>
+      <c r="E229" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="F229" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="G229" s="41">
+        <v>400</v>
+      </c>
+      <c r="H229" s="25">
+        <v>70</v>
+      </c>
+      <c r="I229" s="24">
+        <v>1</v>
+      </c>
+      <c r="J229" s="34">
+        <v>200</v>
+      </c>
+      <c r="K229" s="26">
+        <v>25</v>
+      </c>
+      <c r="L229" s="27">
         <v>5000</v>
       </c>
-      <c r="M228" s="17">
+      <c r="M229" s="17">
         <v>99</v>
       </c>
-      <c r="N228" s="3">
+      <c r="N229" s="3">
         <v>90</v>
       </c>
-      <c r="O228" s="29">
+      <c r="O229" s="29">
         <v>95</v>
       </c>
-      <c r="P228" s="18">
+      <c r="P229" s="18">
         <v>98</v>
       </c>
-      <c r="Q228" s="2" t="s">
+      <c r="Q229" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="R228" t="s">
+      <c r="R229" t="s">
         <v>146</v>
       </c>
-      <c r="S228" s="20">
+      <c r="S229" s="20">
         <v>-1</v>
       </c>
-      <c r="T228" s="31">
-        <v>0</v>
-      </c>
-      <c r="U228" s="38">
-        <v>1</v>
-      </c>
-      <c r="V228" s="36">
-        <v>0</v>
-      </c>
-      <c r="W228" s="47" t="s">
+      <c r="T229" s="31">
+        <v>0</v>
+      </c>
+      <c r="U229" s="38">
+        <v>1</v>
+      </c>
+      <c r="V229" s="36">
+        <v>0</v>
+      </c>
+      <c r="W229" s="47" t="s">
         <v>1285</v>
       </c>
-      <c r="X228" s="57">
-        <v>0</v>
-      </c>
-      <c r="Y228" s="43">
+      <c r="X229" s="57">
+        <v>0</v>
+      </c>
+      <c r="Y229" s="43">
         <v>1</v>
       </c>
     </row>
@@ -32571,8 +32680,8 @@
   </sheetPr>
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="7"/>
+    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1293">
   <si>
     <t>Club</t>
   </si>
@@ -3896,6 +3896,15 @@
   </si>
   <si>
     <t>Beast Hide</t>
+  </si>
+  <si>
+    <t>Ominous Orb</t>
+  </si>
+  <si>
+    <t>This orb can be fused with its*user to combine potentials.</t>
+  </si>
+  <si>
+    <t>Ugly Disguise</t>
   </si>
 </sst>
 </file>
@@ -5082,11 +5091,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128881024"/>
-        <c:axId val="128882560"/>
+        <c:axId val="113945216"/>
+        <c:axId val="113947008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128881024"/>
+        <c:axId val="113945216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5096,7 +5105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128882560"/>
+        <c:crossAx val="113947008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5104,7 +5113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128882560"/>
+        <c:axId val="113947008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -5116,7 +5125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128881024"/>
+        <c:crossAx val="113945216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5807,11 +5816,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128895232"/>
-        <c:axId val="132645248"/>
+        <c:axId val="115041024"/>
+        <c:axId val="115042944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128895232"/>
+        <c:axId val="115041024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5839,7 +5848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132645248"/>
+        <c:crossAx val="115042944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5849,7 +5858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132645248"/>
+        <c:axId val="115042944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5860,7 +5869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128895232"/>
+        <c:crossAx val="115041024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12710,11 +12719,9 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13759,6 +13766,26 @@
       </c>
       <c r="F52">
         <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B53" s="43">
+        <v>1225</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+      <c r="E53" s="27">
+        <v>25</v>
+      </c>
+      <c r="F53">
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
@@ -14694,9 +14721,11 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14977,6 +15006,17 @@
       </c>
       <c r="C21" s="13" t="s">
         <v>1264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B22" s="43">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>1291</v>
       </c>
     </row>
   </sheetData>
@@ -14991,7 +15031,7 @@
   </sheetPr>
   <dimension ref="A1:Y229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="4"/>
+    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="1306">
   <si>
     <t>Club</t>
   </si>
@@ -3905,6 +3905,45 @@
   </si>
   <si>
     <t>Ugly Disguise</t>
+  </si>
+  <si>
+    <t>Undead Magus</t>
+  </si>
+  <si>
+    <t>Death Magus</t>
+  </si>
+  <si>
+    <t>Time Wizard</t>
+  </si>
+  <si>
+    <t>Henchman</t>
+  </si>
+  <si>
+    <t>Conjurer</t>
+  </si>
+  <si>
+    <t>Death Warrior</t>
+  </si>
+  <si>
+    <t>Fire Zealot</t>
+  </si>
+  <si>
+    <t>Abomination</t>
+  </si>
+  <si>
+    <t>Conjured Demon</t>
+  </si>
+  <si>
+    <t>Wonnen Daztinque</t>
+  </si>
+  <si>
+    <t>Touin DePenk</t>
+  </si>
+  <si>
+    <t>Arcane Sorcerer</t>
+  </si>
+  <si>
+    <t>Magus Wraith</t>
   </si>
 </sst>
 </file>
@@ -5091,11 +5130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113945216"/>
-        <c:axId val="113947008"/>
+        <c:axId val="115518080"/>
+        <c:axId val="115519872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113945216"/>
+        <c:axId val="115518080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5105,7 +5144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113947008"/>
+        <c:crossAx val="115519872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5113,7 +5152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113947008"/>
+        <c:axId val="115519872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -5125,7 +5164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113945216"/>
+        <c:crossAx val="115518080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5816,11 +5855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115041024"/>
-        <c:axId val="115042944"/>
+        <c:axId val="115565312"/>
+        <c:axId val="115567232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115041024"/>
+        <c:axId val="115565312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,7 +5887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115042944"/>
+        <c:crossAx val="115567232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5858,7 +5897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115042944"/>
+        <c:axId val="115567232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5869,7 +5908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115041024"/>
+        <c:crossAx val="115565312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12721,7 +12760,7 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15029,13 +15068,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:Y229"/>
+  <dimension ref="A1:Y242"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E186" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P228" sqref="P228"/>
+      <selection pane="bottomRight" activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32698,6 +32737,1007 @@
         <v>0</v>
       </c>
       <c r="Y229" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A230" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D230" s="23">
+        <v>0</v>
+      </c>
+      <c r="E230" s="33">
+        <v>0</v>
+      </c>
+      <c r="F230" s="35">
+        <v>0</v>
+      </c>
+      <c r="G230" s="41">
+        <v>0</v>
+      </c>
+      <c r="H230" s="25">
+        <v>0</v>
+      </c>
+      <c r="I230" s="24">
+        <v>0</v>
+      </c>
+      <c r="J230" s="34">
+        <v>0</v>
+      </c>
+      <c r="K230" s="26">
+        <v>0</v>
+      </c>
+      <c r="L230" s="27">
+        <v>0</v>
+      </c>
+      <c r="M230" s="17">
+        <v>0</v>
+      </c>
+      <c r="N230" s="3">
+        <v>0</v>
+      </c>
+      <c r="O230" s="29">
+        <v>0</v>
+      </c>
+      <c r="P230" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q230" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R230" t="s">
+        <v>146</v>
+      </c>
+      <c r="S230" s="20">
+        <v>0</v>
+      </c>
+      <c r="T230" s="31">
+        <v>0</v>
+      </c>
+      <c r="U230" s="38">
+        <v>1</v>
+      </c>
+      <c r="V230" s="36">
+        <v>0</v>
+      </c>
+      <c r="W230" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X230" s="57">
+        <v>0</v>
+      </c>
+      <c r="Y230" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A231" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D231" s="23">
+        <v>0</v>
+      </c>
+      <c r="E231" s="33">
+        <v>0</v>
+      </c>
+      <c r="F231" s="35">
+        <v>0</v>
+      </c>
+      <c r="G231" s="41">
+        <v>0</v>
+      </c>
+      <c r="H231" s="25">
+        <v>0</v>
+      </c>
+      <c r="I231" s="24">
+        <v>0</v>
+      </c>
+      <c r="J231" s="34">
+        <v>0</v>
+      </c>
+      <c r="K231" s="26">
+        <v>0</v>
+      </c>
+      <c r="L231" s="27">
+        <v>0</v>
+      </c>
+      <c r="M231" s="17">
+        <v>0</v>
+      </c>
+      <c r="N231" s="3">
+        <v>0</v>
+      </c>
+      <c r="O231" s="29">
+        <v>0</v>
+      </c>
+      <c r="P231" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q231" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R231" t="s">
+        <v>146</v>
+      </c>
+      <c r="S231" s="20">
+        <v>0</v>
+      </c>
+      <c r="T231" s="31">
+        <v>0</v>
+      </c>
+      <c r="U231" s="38">
+        <v>1</v>
+      </c>
+      <c r="V231" s="36">
+        <v>0</v>
+      </c>
+      <c r="W231" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X231" s="57">
+        <v>0</v>
+      </c>
+      <c r="Y231" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A232" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D232" s="23">
+        <v>0</v>
+      </c>
+      <c r="E232" s="33">
+        <v>0</v>
+      </c>
+      <c r="F232" s="35">
+        <v>0</v>
+      </c>
+      <c r="G232" s="41">
+        <v>0</v>
+      </c>
+      <c r="H232" s="25">
+        <v>0</v>
+      </c>
+      <c r="I232" s="24">
+        <v>0</v>
+      </c>
+      <c r="J232" s="34">
+        <v>0</v>
+      </c>
+      <c r="K232" s="26">
+        <v>0</v>
+      </c>
+      <c r="L232" s="27">
+        <v>0</v>
+      </c>
+      <c r="M232" s="17">
+        <v>0</v>
+      </c>
+      <c r="N232" s="3">
+        <v>0</v>
+      </c>
+      <c r="O232" s="29">
+        <v>0</v>
+      </c>
+      <c r="P232" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q232" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R232" t="s">
+        <v>146</v>
+      </c>
+      <c r="S232" s="20">
+        <v>0</v>
+      </c>
+      <c r="T232" s="31">
+        <v>0</v>
+      </c>
+      <c r="U232" s="38">
+        <v>1</v>
+      </c>
+      <c r="V232" s="36">
+        <v>0</v>
+      </c>
+      <c r="W232" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X232" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y232" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A233" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D233" s="23">
+        <v>0</v>
+      </c>
+      <c r="E233" s="33">
+        <v>0</v>
+      </c>
+      <c r="F233" s="35">
+        <v>0</v>
+      </c>
+      <c r="G233" s="41">
+        <v>0</v>
+      </c>
+      <c r="H233" s="25">
+        <v>0</v>
+      </c>
+      <c r="I233" s="24">
+        <v>0</v>
+      </c>
+      <c r="J233" s="34">
+        <v>0</v>
+      </c>
+      <c r="K233" s="26">
+        <v>0</v>
+      </c>
+      <c r="L233" s="27">
+        <v>0</v>
+      </c>
+      <c r="M233" s="17">
+        <v>0</v>
+      </c>
+      <c r="N233" s="3">
+        <v>0</v>
+      </c>
+      <c r="O233" s="29">
+        <v>0</v>
+      </c>
+      <c r="P233" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R233" t="s">
+        <v>146</v>
+      </c>
+      <c r="S233" s="20">
+        <v>0</v>
+      </c>
+      <c r="T233" s="31">
+        <v>0</v>
+      </c>
+      <c r="U233" s="38">
+        <v>1</v>
+      </c>
+      <c r="V233" s="36">
+        <v>0</v>
+      </c>
+      <c r="W233" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X233" s="57">
+        <v>2</v>
+      </c>
+      <c r="Y233" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A234" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D234" s="23">
+        <v>0</v>
+      </c>
+      <c r="E234" s="33">
+        <v>0</v>
+      </c>
+      <c r="F234" s="35">
+        <v>0</v>
+      </c>
+      <c r="G234" s="41">
+        <v>0</v>
+      </c>
+      <c r="H234" s="25">
+        <v>0</v>
+      </c>
+      <c r="I234" s="24">
+        <v>0</v>
+      </c>
+      <c r="J234" s="34">
+        <v>0</v>
+      </c>
+      <c r="K234" s="26">
+        <v>0</v>
+      </c>
+      <c r="L234" s="27">
+        <v>0</v>
+      </c>
+      <c r="M234" s="17">
+        <v>0</v>
+      </c>
+      <c r="N234" s="3">
+        <v>0</v>
+      </c>
+      <c r="O234" s="29">
+        <v>0</v>
+      </c>
+      <c r="P234" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q234" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R234" t="s">
+        <v>146</v>
+      </c>
+      <c r="S234" s="20">
+        <v>0</v>
+      </c>
+      <c r="T234" s="31">
+        <v>0</v>
+      </c>
+      <c r="U234" s="38">
+        <v>1</v>
+      </c>
+      <c r="V234" s="36">
+        <v>0</v>
+      </c>
+      <c r="W234" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X234" s="57">
+        <v>3</v>
+      </c>
+      <c r="Y234" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A235" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D235" s="23">
+        <v>0</v>
+      </c>
+      <c r="E235" s="33">
+        <v>0</v>
+      </c>
+      <c r="F235" s="35">
+        <v>0</v>
+      </c>
+      <c r="G235" s="41">
+        <v>0</v>
+      </c>
+      <c r="H235" s="25">
+        <v>0</v>
+      </c>
+      <c r="I235" s="24">
+        <v>0</v>
+      </c>
+      <c r="J235" s="34">
+        <v>0</v>
+      </c>
+      <c r="K235" s="26">
+        <v>0</v>
+      </c>
+      <c r="L235" s="27">
+        <v>0</v>
+      </c>
+      <c r="M235" s="17">
+        <v>0</v>
+      </c>
+      <c r="N235" s="3">
+        <v>0</v>
+      </c>
+      <c r="O235" s="29">
+        <v>0</v>
+      </c>
+      <c r="P235" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q235" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R235" t="s">
+        <v>146</v>
+      </c>
+      <c r="S235" s="20">
+        <v>0</v>
+      </c>
+      <c r="T235" s="31">
+        <v>0</v>
+      </c>
+      <c r="U235" s="38">
+        <v>1</v>
+      </c>
+      <c r="V235" s="36">
+        <v>0</v>
+      </c>
+      <c r="W235" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X235" s="57">
+        <v>4</v>
+      </c>
+      <c r="Y235" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A236" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D236" s="23">
+        <v>0</v>
+      </c>
+      <c r="E236" s="33">
+        <v>0</v>
+      </c>
+      <c r="F236" s="35">
+        <v>0</v>
+      </c>
+      <c r="G236" s="41">
+        <v>0</v>
+      </c>
+      <c r="H236" s="25">
+        <v>0</v>
+      </c>
+      <c r="I236" s="24">
+        <v>0</v>
+      </c>
+      <c r="J236" s="34">
+        <v>0</v>
+      </c>
+      <c r="K236" s="26">
+        <v>0</v>
+      </c>
+      <c r="L236" s="27">
+        <v>0</v>
+      </c>
+      <c r="M236" s="17">
+        <v>0</v>
+      </c>
+      <c r="N236" s="3">
+        <v>0</v>
+      </c>
+      <c r="O236" s="29">
+        <v>0</v>
+      </c>
+      <c r="P236" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q236" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R236" t="s">
+        <v>146</v>
+      </c>
+      <c r="S236" s="20">
+        <v>0</v>
+      </c>
+      <c r="T236" s="31">
+        <v>0</v>
+      </c>
+      <c r="U236" s="38">
+        <v>1</v>
+      </c>
+      <c r="V236" s="36">
+        <v>0</v>
+      </c>
+      <c r="W236" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X236" s="57">
+        <v>5</v>
+      </c>
+      <c r="Y236" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A237" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D237" s="23">
+        <v>0</v>
+      </c>
+      <c r="E237" s="33">
+        <v>0</v>
+      </c>
+      <c r="F237" s="35">
+        <v>0</v>
+      </c>
+      <c r="G237" s="41">
+        <v>0</v>
+      </c>
+      <c r="H237" s="25">
+        <v>0</v>
+      </c>
+      <c r="I237" s="24">
+        <v>0</v>
+      </c>
+      <c r="J237" s="34">
+        <v>0</v>
+      </c>
+      <c r="K237" s="26">
+        <v>0</v>
+      </c>
+      <c r="L237" s="27">
+        <v>0</v>
+      </c>
+      <c r="M237" s="17">
+        <v>0</v>
+      </c>
+      <c r="N237" s="3">
+        <v>0</v>
+      </c>
+      <c r="O237" s="29">
+        <v>0</v>
+      </c>
+      <c r="P237" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q237" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R237" t="s">
+        <v>146</v>
+      </c>
+      <c r="S237" s="20">
+        <v>0</v>
+      </c>
+      <c r="T237" s="31">
+        <v>0</v>
+      </c>
+      <c r="U237" s="38">
+        <v>1</v>
+      </c>
+      <c r="V237" s="36">
+        <v>0</v>
+      </c>
+      <c r="W237" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X237" s="57">
+        <v>6</v>
+      </c>
+      <c r="Y237" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A238" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D238" s="23">
+        <v>0</v>
+      </c>
+      <c r="E238" s="33">
+        <v>0</v>
+      </c>
+      <c r="F238" s="35">
+        <v>0</v>
+      </c>
+      <c r="G238" s="41">
+        <v>0</v>
+      </c>
+      <c r="H238" s="25">
+        <v>0</v>
+      </c>
+      <c r="I238" s="24">
+        <v>0</v>
+      </c>
+      <c r="J238" s="34">
+        <v>0</v>
+      </c>
+      <c r="K238" s="26">
+        <v>0</v>
+      </c>
+      <c r="L238" s="27">
+        <v>0</v>
+      </c>
+      <c r="M238" s="17">
+        <v>0</v>
+      </c>
+      <c r="N238" s="3">
+        <v>0</v>
+      </c>
+      <c r="O238" s="29">
+        <v>0</v>
+      </c>
+      <c r="P238" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q238" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R238" t="s">
+        <v>146</v>
+      </c>
+      <c r="S238" s="20">
+        <v>0</v>
+      </c>
+      <c r="T238" s="31">
+        <v>0</v>
+      </c>
+      <c r="U238" s="38">
+        <v>1</v>
+      </c>
+      <c r="V238" s="36">
+        <v>0</v>
+      </c>
+      <c r="W238" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X238" s="57">
+        <v>7</v>
+      </c>
+      <c r="Y238" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A239" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D239" s="23">
+        <v>0</v>
+      </c>
+      <c r="E239" s="33">
+        <v>0</v>
+      </c>
+      <c r="F239" s="35">
+        <v>0</v>
+      </c>
+      <c r="G239" s="41">
+        <v>0</v>
+      </c>
+      <c r="H239" s="25">
+        <v>0</v>
+      </c>
+      <c r="I239" s="24">
+        <v>0</v>
+      </c>
+      <c r="J239" s="34">
+        <v>0</v>
+      </c>
+      <c r="K239" s="26">
+        <v>0</v>
+      </c>
+      <c r="L239" s="27">
+        <v>0</v>
+      </c>
+      <c r="M239" s="17">
+        <v>0</v>
+      </c>
+      <c r="N239" s="3">
+        <v>0</v>
+      </c>
+      <c r="O239" s="29">
+        <v>0</v>
+      </c>
+      <c r="P239" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q239" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R239" t="s">
+        <v>146</v>
+      </c>
+      <c r="S239" s="20">
+        <v>0</v>
+      </c>
+      <c r="T239" s="31">
+        <v>0</v>
+      </c>
+      <c r="U239" s="38">
+        <v>1</v>
+      </c>
+      <c r="V239" s="36">
+        <v>0</v>
+      </c>
+      <c r="W239" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X239" s="57">
+        <v>8</v>
+      </c>
+      <c r="Y239" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A240" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D240" s="23">
+        <v>0</v>
+      </c>
+      <c r="E240" s="33">
+        <v>0</v>
+      </c>
+      <c r="F240" s="35">
+        <v>0</v>
+      </c>
+      <c r="G240" s="41">
+        <v>0</v>
+      </c>
+      <c r="H240" s="25">
+        <v>0</v>
+      </c>
+      <c r="I240" s="24">
+        <v>0</v>
+      </c>
+      <c r="J240" s="34">
+        <v>0</v>
+      </c>
+      <c r="K240" s="26">
+        <v>0</v>
+      </c>
+      <c r="L240" s="27">
+        <v>0</v>
+      </c>
+      <c r="M240" s="17">
+        <v>0</v>
+      </c>
+      <c r="N240" s="3">
+        <v>0</v>
+      </c>
+      <c r="O240" s="29">
+        <v>0</v>
+      </c>
+      <c r="P240" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q240" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R240" t="s">
+        <v>146</v>
+      </c>
+      <c r="S240" s="20">
+        <v>0</v>
+      </c>
+      <c r="T240" s="31">
+        <v>0</v>
+      </c>
+      <c r="U240" s="38">
+        <v>1</v>
+      </c>
+      <c r="V240" s="36">
+        <v>0</v>
+      </c>
+      <c r="W240" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X240" s="57">
+        <v>9</v>
+      </c>
+      <c r="Y240" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A241" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D241" s="23">
+        <v>0</v>
+      </c>
+      <c r="E241" s="33">
+        <v>0</v>
+      </c>
+      <c r="F241" s="35">
+        <v>0</v>
+      </c>
+      <c r="G241" s="41">
+        <v>0</v>
+      </c>
+      <c r="H241" s="25">
+        <v>0</v>
+      </c>
+      <c r="I241" s="24">
+        <v>0</v>
+      </c>
+      <c r="J241" s="34">
+        <v>0</v>
+      </c>
+      <c r="K241" s="26">
+        <v>0</v>
+      </c>
+      <c r="L241" s="27">
+        <v>0</v>
+      </c>
+      <c r="M241" s="17">
+        <v>0</v>
+      </c>
+      <c r="N241" s="3">
+        <v>0</v>
+      </c>
+      <c r="O241" s="29">
+        <v>0</v>
+      </c>
+      <c r="P241" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R241" t="s">
+        <v>146</v>
+      </c>
+      <c r="S241" s="20">
+        <v>0</v>
+      </c>
+      <c r="T241" s="31">
+        <v>0</v>
+      </c>
+      <c r="U241" s="38">
+        <v>1</v>
+      </c>
+      <c r="V241" s="36">
+        <v>2</v>
+      </c>
+      <c r="W241" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="X241" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y241" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A242" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D242" s="23">
+        <v>0</v>
+      </c>
+      <c r="E242" s="33">
+        <v>0</v>
+      </c>
+      <c r="F242" s="35">
+        <v>0</v>
+      </c>
+      <c r="G242" s="41">
+        <v>0</v>
+      </c>
+      <c r="H242" s="25">
+        <v>0</v>
+      </c>
+      <c r="I242" s="24">
+        <v>0</v>
+      </c>
+      <c r="J242" s="34">
+        <v>0</v>
+      </c>
+      <c r="K242" s="26">
+        <v>0</v>
+      </c>
+      <c r="L242" s="27">
+        <v>0</v>
+      </c>
+      <c r="M242" s="17">
+        <v>0</v>
+      </c>
+      <c r="N242" s="3">
+        <v>0</v>
+      </c>
+      <c r="O242" s="29">
+        <v>0</v>
+      </c>
+      <c r="P242" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q242" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R242" t="s">
+        <v>146</v>
+      </c>
+      <c r="S242" s="20">
+        <v>0</v>
+      </c>
+      <c r="T242" s="31">
+        <v>0</v>
+      </c>
+      <c r="U242" s="38">
+        <v>1</v>
+      </c>
+      <c r="V242" s="36">
+        <v>1</v>
+      </c>
+      <c r="W242" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="X242" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y242" s="43">
         <v>1</v>
       </c>
     </row>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="4"/>
+    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3484" uniqueCount="1450">
   <si>
     <t>Club</t>
   </si>
@@ -3701,9 +3701,6 @@
     <t>{'Fireball': 30, 'Fire Claw': 20, 'Firestorm': 30, 'Immolation': 20}</t>
   </si>
   <si>
-    <t>{'Icicles': 40, 'Hailstorm': 30, 'Dive': 20, 'Strong Attack': 10}</t>
-  </si>
-  <si>
     <t>{'Firestorm': 10, 'Fireball': 30, 'Burning Mind': 10}</t>
   </si>
   <si>
@@ -3977,9 +3974,6 @@
     <t>{'Freezing Arrow': 9, 'Mist': 6, 'Swoop': 7}</t>
   </si>
   <si>
-    <t>{'Luminescent Barrier': 1, 'Ash Bow': 4}</t>
-  </si>
-  <si>
     <t>Pespozeor2</t>
   </si>
   <si>
@@ -4148,21 +4142,12 @@
     <t>Daniel Quest 3 Complete</t>
   </si>
   <si>
-    <t>Kill 2 Rumadan men for Bartender Daniel in Herceg Novi.</t>
-  </si>
-  <si>
     <t>Manhunt</t>
   </si>
   <si>
-    <t>Kill 1 Kotor Crab for Bartender Daniel in Herceg Novi.</t>
-  </si>
-  <si>
     <t>Feeling Crabby</t>
   </si>
   <si>
-    <t>Kill Dr. Grabh for Bartender Daniel in Herceg Novi.</t>
-  </si>
-  <si>
     <t>I Need a Doctor!</t>
   </si>
   <si>
@@ -4200,6 +4185,198 @@
   </si>
   <si>
     <t>Hopalong Boots</t>
+  </si>
+  <si>
+    <t>Kill 1 Orc for Bartender Adam in Mojkovac Valley.</t>
+  </si>
+  <si>
+    <t>Kill 5 Goblins for Bartender Adam in Mojkovac Valley.</t>
+  </si>
+  <si>
+    <t>Ice Elemental</t>
+  </si>
+  <si>
+    <t>Frozen Guardian</t>
+  </si>
+  <si>
+    <t>{'Icicles': 50, 'Hailstorm': 10, 'Dive': 20, 'Strong Attack': 10}</t>
+  </si>
+  <si>
+    <t>{'Icicles': 40, 'Hailstorm': 30, 'Healing Glow': 20, 'Rock Shot': 10}</t>
+  </si>
+  <si>
+    <t>{'Luminescent Barrier': 1, 'Ash Bow': 5}</t>
+  </si>
+  <si>
+    <t>{'Radiant Barrier': 15}</t>
+  </si>
+  <si>
+    <t>{'Wildcard Kills': (('Goblin', 'Mountain Goblin', 'Goblin Ranger', 'Goblin Thug'), 5, "Goblin")}</t>
+  </si>
+  <si>
+    <t>{'Kills': ('Orc', 1)}</t>
+  </si>
+  <si>
+    <t>Kill 5 Giant Seals for Bartender Adam in Mojkovac Valley.</t>
+  </si>
+  <si>
+    <t>Adam Quest 2</t>
+  </si>
+  <si>
+    <t>Adam Quest 1</t>
+  </si>
+  <si>
+    <t>Adam Quest 3</t>
+  </si>
+  <si>
+    <t>Adam Quest 1 Complete</t>
+  </si>
+  <si>
+    <t>Adam Quest 2 Complete</t>
+  </si>
+  <si>
+    <t>Adam Quest 3 Complete</t>
+  </si>
+  <si>
+    <t>Sealing the Deal</t>
+  </si>
+  <si>
+    <t>A Cute Goblinhide Coat</t>
+  </si>
+  <si>
+    <t>A Lovely Orcskin Jacket</t>
+  </si>
+  <si>
+    <t>Rescue Dragan's father from inside The Watchmaking Facility.</t>
+  </si>
+  <si>
+    <t>Father Time</t>
+  </si>
+  <si>
+    <t>The Watchmaking Facility Complete</t>
+  </si>
+  <si>
+    <t>Ghost of Tomas Conclusion</t>
+  </si>
+  <si>
+    <t>Grave Matters</t>
+  </si>
+  <si>
+    <t>Bury Dragan's father in the cemetery.</t>
+  </si>
+  <si>
+    <t>Bartender Igor Quest 1</t>
+  </si>
+  <si>
+    <t>Bartender Igor Quest 2</t>
+  </si>
+  <si>
+    <t>Bartender Igor Quest 3</t>
+  </si>
+  <si>
+    <t>Bartender Igor Quest 1 Complete</t>
+  </si>
+  <si>
+    <t>Bartender Igor Quest 2 Complete</t>
+  </si>
+  <si>
+    <t>Bartender Igor Quest 3 Complete</t>
+  </si>
+  <si>
+    <t>Fresh or Fowl?</t>
+  </si>
+  <si>
+    <t>{'Kills': ('Unholy Crow', 1)}</t>
+  </si>
+  <si>
+    <t>{'Kills': ('Toxic Jellyfish', 3)}</t>
+  </si>
+  <si>
+    <t>Kill 1 crow for Bartender Igor in Pec.</t>
+  </si>
+  <si>
+    <t>Kill 3 jellyfish for Bartender Igor in Pec.</t>
+  </si>
+  <si>
+    <t>Kill 3 octopi for Bartender Igor in Pec.</t>
+  </si>
+  <si>
+    <t>{'Kills': ('Mystical Octopus', 3)}</t>
+  </si>
+  <si>
+    <t>"Ate" Legged</t>
+  </si>
+  <si>
+    <t>A Shocking Choice</t>
+  </si>
+  <si>
+    <t>Bartender Zhang Quest 1</t>
+  </si>
+  <si>
+    <t>Bartender Zhang Quest 1 Complete</t>
+  </si>
+  <si>
+    <t>Bartender Zhang Quest 2</t>
+  </si>
+  <si>
+    <t>Bartender Zhang Quest 2 Complete</t>
+  </si>
+  <si>
+    <t>Bartender Zhang Quest 3</t>
+  </si>
+  <si>
+    <t>Bartender Zhang Quest 3 Complete</t>
+  </si>
+  <si>
+    <t>{'Kills': ('Border Guard', 5)}</t>
+  </si>
+  <si>
+    <t>Kill 5 Border Guards for Bartender Zhang in Pristina.</t>
+  </si>
+  <si>
+    <t>Business as Usual</t>
+  </si>
+  <si>
+    <t>{'Kills': ('Black Knight', 10)}</t>
+  </si>
+  <si>
+    <t>Kill 10 Black Knights for Bartender Zhang in Pristina.</t>
+  </si>
+  <si>
+    <t>{'Kills': ('General Octavius', 1)}</t>
+  </si>
+  <si>
+    <t>Continue your journey north through Black Mountain to reach Mojkovac.</t>
+  </si>
+  <si>
+    <t>Mojkovac Summit</t>
+  </si>
+  <si>
+    <t>Homeland Bound</t>
+  </si>
+  <si>
+    <t>Kill General Octavius for Bartender Zhang in Pristina. He can be found in a corner of Kosovo.</t>
+  </si>
+  <si>
+    <t>Kill 2 Rumadan men for Bartender Daniel in Herceg Novi. They can be found in the Frolicking Fields nearby.</t>
+  </si>
+  <si>
+    <t>Kill 1 Kotor Crab for Bartender Daniel in Herceg Novi. They can be found in the Bay of Kotor to the south.</t>
+  </si>
+  <si>
+    <t>Find and kill Dr. Grabh for Bartender Daniel in Herceg Novi.</t>
+  </si>
+  <si>
+    <t>Honey Rod</t>
+  </si>
+  <si>
+    <t>{'Kills': ('Giant Seal1', 5)}</t>
+  </si>
+  <si>
+    <t>General Information</t>
+  </si>
+  <si>
+    <t>Getting Medieval</t>
   </si>
 </sst>
 </file>
@@ -5386,11 +5563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127036416"/>
-        <c:axId val="127992576"/>
+        <c:axId val="127630336"/>
+        <c:axId val="127660800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127036416"/>
+        <c:axId val="127630336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5400,7 +5577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127992576"/>
+        <c:crossAx val="127660800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5408,7 +5585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127992576"/>
+        <c:axId val="127660800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -5420,7 +5597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127036416"/>
+        <c:crossAx val="127630336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7432,8 +7609,8 @@
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8952,7 +9129,7 @@
     </row>
     <row r="48" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B48" s="64" t="s">
         <v>171</v>
@@ -12208,7 +12385,7 @@
         <v>146</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>155</v>
@@ -12240,7 +12417,7 @@
         <v>146</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>155</v>
@@ -12272,7 +12449,7 @@
         <v>146</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>155</v>
@@ -12280,7 +12457,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B152" t="s">
         <v>249</v>
@@ -12304,15 +12481,15 @@
         <v>146</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B153" t="s">
         <v>157</v>
@@ -12327,7 +12504,7 @@
         <v>200</v>
       </c>
       <c r="F153" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>146</v>
@@ -12336,7 +12513,7 @@
         <v>146</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>155</v>
@@ -12344,7 +12521,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B154" t="s">
         <v>176</v>
@@ -12359,7 +12536,7 @@
         <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G154" t="s">
         <v>146</v>
@@ -12368,7 +12545,7 @@
         <v>640</v>
       </c>
       <c r="I154" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="J154" t="s">
         <v>155</v>
@@ -12376,10 +12553,10 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B155" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C155" t="s">
         <v>159</v>
@@ -12400,7 +12577,7 @@
         <v>146</v>
       </c>
       <c r="I155" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J155" t="s">
         <v>155</v>
@@ -16296,11 +16473,11 @@
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="A1:I61"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16745,28 +16922,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>1446</v>
       </c>
       <c r="B16" s="43">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="C16" t="s">
         <v>124</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E16" s="46">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="I16">
         <v>200</v>
@@ -16774,28 +16951,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="43">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="C17" t="s">
         <v>124</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E17" s="46">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>200</v>
@@ -16803,28 +16980,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="43">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="C18" t="s">
         <v>124</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E18" s="46">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>200</v>
@@ -16832,28 +17009,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="43">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C19" t="s">
         <v>124</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E19" s="46">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="I19">
         <v>200</v>
@@ -16861,25 +17038,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B20" s="43">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="C20" t="s">
         <v>124</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E20" s="46">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>8</v>
@@ -16890,28 +17067,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B21" s="43">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="C21" t="s">
         <v>124</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E21" s="46">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H21">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>200</v>
@@ -16919,28 +17096,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="43">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="C22" t="s">
         <v>124</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E22" s="46">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="I22">
         <v>200</v>
@@ -16948,28 +17125,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="43">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
         <v>124</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E23" s="46">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>200</v>
@@ -16977,10 +17154,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="43">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="C24" t="s">
         <v>124</v>
@@ -16989,16 +17166,16 @@
         <v>50</v>
       </c>
       <c r="E24" s="46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I24">
         <v>200</v>
@@ -17006,28 +17183,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="43">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E25" s="46">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>200</v>
@@ -17035,28 +17212,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="43">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E26" s="46">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="I26">
         <v>200</v>
@@ -17064,28 +17241,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="43">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C27" t="s">
         <v>124</v>
       </c>
       <c r="D27">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E27" s="46">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
         <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <v>200</v>
@@ -17093,28 +17270,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="43">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="C28" t="s">
         <v>124</v>
       </c>
       <c r="D28">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E28" s="46">
         <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H28">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <v>200</v>
@@ -17122,86 +17299,86 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="43">
-        <v>4000</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1236</v>
+        <v>2000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E29" s="46">
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="I29">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="43">
-        <v>7777</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
+        <v>4000</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1235</v>
       </c>
       <c r="D30">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E30" s="46">
         <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="43">
-        <v>1500</v>
+        <v>7777</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E31" s="46">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G31" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>200</v>
@@ -17209,28 +17386,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="43">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E32" s="46">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
         <v>125</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I32">
         <v>200</v>
@@ -17238,28 +17415,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="43">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="C33" t="s">
         <v>124</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E33" s="46">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>125</v>
       </c>
       <c r="G33" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I33">
         <v>200</v>
@@ -17267,28 +17444,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>677</v>
+        <v>37</v>
       </c>
       <c r="B34" s="43">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="C34" t="s">
         <v>124</v>
       </c>
       <c r="D34">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E34" s="46">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
         <v>125</v>
       </c>
       <c r="G34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>200</v>
@@ -17296,28 +17473,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>677</v>
       </c>
       <c r="B35" s="43">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E35" s="46">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
         <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I35">
         <v>200</v>
@@ -17325,28 +17502,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1174</v>
+        <v>38</v>
       </c>
       <c r="B36" s="43">
-        <v>4699</v>
+        <v>3600</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E36" s="46">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H36">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="I36">
         <v>200</v>
@@ -17354,10 +17531,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>1174</v>
       </c>
       <c r="B37" s="43">
-        <v>4000</v>
+        <v>4699</v>
       </c>
       <c r="C37" t="s">
         <v>124</v>
@@ -17366,7 +17543,7 @@
         <v>80</v>
       </c>
       <c r="E37" s="46">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
         <v>126</v>
@@ -17383,28 +17560,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="43">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="C38" t="s">
         <v>124</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E38" s="46">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="I38">
         <v>200</v>
@@ -17412,28 +17589,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1172</v>
+        <v>41</v>
       </c>
       <c r="B39" s="43">
-        <v>4699</v>
+        <v>5000</v>
       </c>
       <c r="C39" t="s">
         <v>124</v>
       </c>
       <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39" s="46">
         <v>65</v>
-      </c>
-      <c r="E39" s="46">
-        <v>58</v>
       </c>
       <c r="F39" t="s">
         <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>200</v>
@@ -17441,10 +17618,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>1172</v>
       </c>
       <c r="B40" s="43">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="C40" t="s">
         <v>124</v>
@@ -17453,7 +17630,7 @@
         <v>65</v>
       </c>
       <c r="E40" s="46">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
         <v>125</v>
@@ -17470,28 +17647,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1173</v>
+        <v>42</v>
       </c>
       <c r="B41" s="43">
-        <v>4699</v>
+        <v>4700</v>
       </c>
       <c r="C41" t="s">
         <v>124</v>
       </c>
       <c r="D41">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E41" s="46">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="I41">
         <v>200</v>
@@ -17499,10 +17676,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>717</v>
+        <v>1173</v>
       </c>
       <c r="B42" s="43">
-        <v>4800</v>
+        <v>4699</v>
       </c>
       <c r="C42" t="s">
         <v>124</v>
@@ -17511,7 +17688,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="46">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
         <v>127</v>
@@ -17528,28 +17705,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>717</v>
       </c>
       <c r="B43" s="43">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="C43" t="s">
         <v>124</v>
       </c>
       <c r="D43">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E43" s="46">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="I43">
         <v>200</v>
@@ -17557,25 +17734,25 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="43">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="C44" t="s">
         <v>124</v>
       </c>
       <c r="D44">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E44" s="46">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
         <v>125</v>
       </c>
       <c r="G44" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H44">
         <v>8</v>
@@ -17586,86 +17763,86 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="43">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D45">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E45" s="46">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
         <v>125</v>
       </c>
       <c r="G45" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H45">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I45">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>1265</v>
+      <c r="A46" t="s">
+        <v>45</v>
       </c>
       <c r="B46" s="43">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E46" s="46">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>0.1</v>
+        <v>30</v>
       </c>
       <c r="I46">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>477</v>
+      <c r="A47" s="2" t="s">
+        <v>1264</v>
       </c>
       <c r="B47" s="43">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="C47" t="s">
         <v>124</v>
       </c>
       <c r="D47">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E47" s="46">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I47">
         <v>200</v>
@@ -17673,28 +17850,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1213</v>
+        <v>477</v>
       </c>
       <c r="B48" s="43">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="C48" t="s">
         <v>124</v>
       </c>
       <c r="D48">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E48" s="46">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s">
         <v>125</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I48">
         <v>200</v>
@@ -17702,25 +17879,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>1213</v>
       </c>
       <c r="B49" s="43">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="C49" t="s">
         <v>124</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E49" s="46">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H49">
         <v>8</v>
@@ -17731,28 +17908,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="43">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E50" s="46">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G50" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I50">
         <v>200</v>
@@ -17760,28 +17937,28 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="43">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E51" s="46">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
         <v>125</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>200</v>
@@ -17789,7 +17966,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="43">
         <v>7000</v>
@@ -17801,16 +17978,16 @@
         <v>100</v>
       </c>
       <c r="E52" s="46">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
         <v>125</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I52">
         <v>200</v>
@@ -17818,7 +17995,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="43">
         <v>7000</v>
@@ -17830,16 +18007,16 @@
         <v>100</v>
       </c>
       <c r="E53" s="46">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F53" t="s">
         <v>125</v>
       </c>
       <c r="G53" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I53">
         <v>200</v>
@@ -17847,7 +18024,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>986</v>
+        <v>50</v>
       </c>
       <c r="B54" s="43">
         <v>7000</v>
@@ -17859,16 +18036,16 @@
         <v>100</v>
       </c>
       <c r="E54" s="46">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="I54">
         <v>200</v>
@@ -17876,7 +18053,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>803</v>
+        <v>986</v>
       </c>
       <c r="B55" s="43">
         <v>7000</v>
@@ -17888,16 +18065,16 @@
         <v>100</v>
       </c>
       <c r="E55" s="46">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H55">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="I55">
         <v>200</v>
@@ -17905,7 +18082,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>803</v>
       </c>
       <c r="B56" s="43">
         <v>7000</v>
@@ -17917,16 +18094,16 @@
         <v>100</v>
       </c>
       <c r="E56" s="46">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G56" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I56">
         <v>200</v>
@@ -17934,19 +18111,19 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1243</v>
+        <v>51</v>
       </c>
       <c r="B57" s="43">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="C57" t="s">
         <v>124</v>
       </c>
       <c r="D57">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E57" s="46">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s">
         <v>125</v>
@@ -17955,65 +18132,65 @@
         <v>3</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>279</v>
+        <v>1242</v>
       </c>
       <c r="B58" s="43">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="C58" t="s">
         <v>124</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E58" s="46">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F58" t="s">
         <v>125</v>
       </c>
       <c r="G58" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I58">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1323</v>
+        <v>279</v>
       </c>
       <c r="B59" s="43">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
         <v>124</v>
       </c>
       <c r="D59">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E59" s="46">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>200</v>
@@ -18021,28 +18198,28 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="B60" s="43">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="C60" t="s">
         <v>124</v>
       </c>
       <c r="D60">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E60" s="46">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G60" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="I60">
         <v>200</v>
@@ -18050,7 +18227,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B61" s="43">
         <v>7500</v>
@@ -18059,21 +18236,50 @@
         <v>124</v>
       </c>
       <c r="D61">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E61" s="46">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" t="s">
         <v>125</v>
       </c>
       <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+      <c r="I61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B62" s="43">
+        <v>7500</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62">
+        <v>111</v>
+      </c>
+      <c r="E62" s="46">
+        <v>81</v>
+      </c>
+      <c r="F62" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" t="s">
         <v>3</v>
       </c>
-      <c r="H61">
+      <c r="H62">
         <v>4</v>
       </c>
-      <c r="I61">
+      <c r="I62">
         <v>200</v>
       </c>
     </row>
@@ -18091,7 +18297,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18860,7 +19066,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B39" s="43">
         <v>8000</v>
@@ -19060,7 +19266,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B49" s="43">
         <v>5000</v>
@@ -19080,7 +19286,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B50" s="43">
         <v>5000</v>
@@ -19100,7 +19306,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B51" s="43">
         <v>5000</v>
@@ -19120,7 +19326,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B52" s="43">
         <v>8000</v>
@@ -19140,7 +19346,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B53" s="43">
         <v>1225</v>
@@ -19160,7 +19366,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B54" s="43">
         <v>8000</v>
@@ -19180,7 +19386,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B55" s="43">
         <v>8000</v>
@@ -19200,7 +19406,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="B56" s="43">
         <v>1225</v>
@@ -19234,7 +19440,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:G40"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19681,7 +19887,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B20" s="43">
         <v>3500</v>
@@ -19911,7 +20117,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B30" s="43">
         <v>8000</v>
@@ -20141,7 +20347,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B40" s="43">
         <v>7000</v>
@@ -20335,7 +20541,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -20445,29 +20651,29 @@
         <v>0</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B21" s="43">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>1260</v>
-      </c>
-      <c r="B21" s="43">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B22" s="43">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1287</v>
-      </c>
-      <c r="B22" s="43">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1288</v>
       </c>
     </row>
   </sheetData>
@@ -20480,17 +20686,17 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
@@ -20498,104 +20704,308 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C1" t="s">
         <v>1362</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1363</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1364</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1374</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>1373</v>
+        <v>1383</v>
       </c>
       <c r="C2" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="D2" t="s">
-        <v>1367</v>
+        <v>697</v>
       </c>
       <c r="E2" t="s">
-        <v>1368</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="B3" t="s">
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="C3" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="D3" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="E3" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="B4" t="s">
-        <v>1377</v>
+        <v>1444</v>
       </c>
       <c r="C4" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="D4" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1386</v>
+        <v>1373</v>
       </c>
       <c r="B5" t="s">
-        <v>1385</v>
+        <v>1445</v>
       </c>
       <c r="C5" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="D5" t="s">
-        <v>1383</v>
+        <v>1368</v>
       </c>
       <c r="E5" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>1381</v>
       </c>
       <c r="B6" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="C6" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="D6" t="s">
-        <v>697</v>
+        <v>1378</v>
       </c>
       <c r="E6" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B8" t="s">
         <v>1387</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1409</v>
       </c>
     </row>
   </sheetData>
@@ -20608,13 +21018,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:Y246"/>
+  <dimension ref="A1:Y247"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="R209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" sqref="A1:Y247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21777,7 +22187,7 @@
         <v>729</v>
       </c>
       <c r="R15" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="S15" s="20">
         <v>50</v>
@@ -21851,10 +22261,10 @@
         <v>80</v>
       </c>
       <c r="Q16" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="R16" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="S16" s="20">
         <v>3700</v>
@@ -22162,7 +22572,7 @@
         <v>362</v>
       </c>
       <c r="R20" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="S20" s="20">
         <v>75</v>
@@ -22316,7 +22726,7 @@
         <v>366</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="S22" s="20">
         <v>75</v>
@@ -22855,7 +23265,7 @@
         <v>998</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="S29" s="21">
         <v>150</v>
@@ -23083,7 +23493,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R32" t="s">
         <v>620</v>
@@ -23471,7 +23881,7 @@
         <v>487</v>
       </c>
       <c r="R37" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="S37" s="20">
         <v>230</v>
@@ -23933,7 +24343,7 @@
         <v>1001</v>
       </c>
       <c r="R43" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="S43" s="21">
         <v>280</v>
@@ -24164,7 +24574,7 @@
         <v>488</v>
       </c>
       <c r="R46" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="S46" s="20">
         <v>310</v>
@@ -24315,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="R48" t="s">
         <v>485</v>
@@ -24472,7 +24882,7 @@
         <v>608</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="S50" s="21">
         <v>360</v>
@@ -26859,7 +27269,7 @@
         <v>564</v>
       </c>
       <c r="R81" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="S81" s="20">
         <v>730</v>
@@ -27629,7 +28039,7 @@
         <v>808</v>
       </c>
       <c r="R91" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="S91" s="20">
         <v>900</v>
@@ -28165,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R98" t="s">
         <v>849</v>
@@ -28704,7 +29114,7 @@
         <v>10</v>
       </c>
       <c r="Q105" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R105" s="2" t="s">
         <v>1211</v>
@@ -29015,7 +29425,7 @@
         <v>995</v>
       </c>
       <c r="R109" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="S109" s="20">
         <v>1500</v>
@@ -29859,7 +30269,7 @@
         <v>0</v>
       </c>
       <c r="Q120" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R120" t="s">
         <v>146</v>
@@ -34713,7 +35123,7 @@
         <v>1103</v>
       </c>
       <c r="R183" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="S183" s="20">
         <v>9000</v>
@@ -34790,7 +35200,7 @@
         <v>1119</v>
       </c>
       <c r="R184" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="S184" s="20">
         <v>9000</v>
@@ -34867,7 +35277,7 @@
         <v>1097</v>
       </c>
       <c r="R185" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="S185" s="20">
         <v>9000</v>
@@ -34944,7 +35354,7 @@
         <v>1088</v>
       </c>
       <c r="R186" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="S186" s="20">
         <v>8000</v>
@@ -35021,7 +35431,7 @@
         <v>1074</v>
       </c>
       <c r="R187" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="S187" s="20">
         <v>8000</v>
@@ -35098,7 +35508,7 @@
         <v>1159</v>
       </c>
       <c r="R188" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="S188" s="20">
         <v>8000</v>
@@ -35175,7 +35585,7 @@
         <v>1070</v>
       </c>
       <c r="R189" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="S189" s="20">
         <v>7000</v>
@@ -35252,7 +35662,7 @@
         <v>1068</v>
       </c>
       <c r="R190" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="S190" s="20">
         <v>7000</v>
@@ -35329,7 +35739,7 @@
         <v>1092</v>
       </c>
       <c r="R191" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="S191" s="20">
         <v>7000</v>
@@ -35406,7 +35816,7 @@
         <v>1158</v>
       </c>
       <c r="R192" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="S192" s="20">
         <v>6000</v>
@@ -35483,7 +35893,7 @@
         <v>1069</v>
       </c>
       <c r="R193" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="S193" s="20">
         <v>6000</v>
@@ -35560,7 +35970,7 @@
         <v>1059</v>
       </c>
       <c r="R194" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="S194" s="20">
         <v>6000</v>
@@ -35637,7 +36047,7 @@
         <v>1052</v>
       </c>
       <c r="R195" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="S195" s="20">
         <v>5000</v>
@@ -35714,7 +36124,7 @@
         <v>1051</v>
       </c>
       <c r="R196" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="S196" s="20">
         <v>5000</v>
@@ -35791,7 +36201,7 @@
         <v>1047</v>
       </c>
       <c r="R197" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="S197" s="20">
         <v>5000</v>
@@ -36022,7 +36432,7 @@
         <v>1149</v>
       </c>
       <c r="R200" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="S200" s="20">
         <v>30000</v>
@@ -36099,7 +36509,7 @@
         <v>1150</v>
       </c>
       <c r="R201" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="S201" s="20">
         <v>30000</v>
@@ -36279,13 +36689,13 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D204" s="23">
         <v>20</v>
@@ -36357,13 +36767,13 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D205" s="23">
         <v>4</v>
@@ -36434,13 +36844,13 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>1255</v>
+        <v>1389</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D206" s="23">
         <v>30</v>
@@ -36482,7 +36892,7 @@
         <v>50</v>
       </c>
       <c r="Q206" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="R206" t="s">
         <v>1007</v>
@@ -36559,7 +36969,7 @@
         <v>100</v>
       </c>
       <c r="Q207" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="R207" t="s">
         <v>1193</v>
@@ -36636,7 +37046,7 @@
         <v>100</v>
       </c>
       <c r="Q208" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="R208" t="s">
         <v>1194</v>
@@ -36713,7 +37123,7 @@
         <v>100</v>
       </c>
       <c r="Q209" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="R209" t="s">
         <v>1195</v>
@@ -37098,7 +37508,7 @@
         <v>25</v>
       </c>
       <c r="Q214" t="s">
-        <v>1224</v>
+        <v>1390</v>
       </c>
       <c r="R214" t="s">
         <v>1209</v>
@@ -37204,13 +37614,13 @@
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D216" s="23">
         <v>25</v>
@@ -37252,7 +37662,7 @@
         <v>0</v>
       </c>
       <c r="Q216" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="R216" t="s">
         <v>146</v>
@@ -37329,7 +37739,7 @@
         <v>0</v>
       </c>
       <c r="Q217" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R217" t="s">
         <v>1220</v>
@@ -37483,10 +37893,10 @@
         <v>0</v>
       </c>
       <c r="Q219" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R219" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="S219" s="20">
         <v>1300</v>
@@ -37512,13 +37922,13 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D220" s="23">
         <v>30</v>
@@ -37560,10 +37970,10 @@
         <v>50</v>
       </c>
       <c r="Q220" t="s">
+        <v>1275</v>
+      </c>
+      <c r="R220" t="s">
         <v>1276</v>
-      </c>
-      <c r="R220" t="s">
-        <v>1277</v>
       </c>
       <c r="S220" s="20">
         <v>1700</v>
@@ -37666,13 +38076,13 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D222" s="23">
         <v>30</v>
@@ -37714,10 +38124,10 @@
         <v>100</v>
       </c>
       <c r="Q222" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="R222" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="S222" s="20">
         <v>4000</v>
@@ -37820,13 +38230,13 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D224" s="23">
         <v>35</v>
@@ -37868,10 +38278,10 @@
         <v>99</v>
       </c>
       <c r="Q224" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="R224" s="2" t="s">
         <v>1278</v>
-      </c>
-      <c r="R224" s="2" t="s">
-        <v>1279</v>
       </c>
       <c r="S224" s="20">
         <v>9000</v>
@@ -37945,10 +38355,10 @@
         <v>0</v>
       </c>
       <c r="Q225" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="R225" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="S225" s="20">
         <v>100000</v>
@@ -38022,10 +38432,10 @@
         <v>0</v>
       </c>
       <c r="Q226" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="R226" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="S226" s="20">
         <v>200000</v>
@@ -38099,10 +38509,10 @@
         <v>0</v>
       </c>
       <c r="Q227" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="R227" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="S227" s="20">
         <v>300000</v>
@@ -38128,13 +38538,13 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B228" t="s">
         <v>429</v>
       </c>
       <c r="C228" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D228" s="23">
         <v>50</v>
@@ -38176,10 +38586,10 @@
         <v>25</v>
       </c>
       <c r="Q228" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="R228" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="S228" s="21">
         <v>500000</v>
@@ -38205,13 +38615,13 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D229" s="23">
         <v>60</v>
@@ -38253,7 +38663,7 @@
         <v>98</v>
       </c>
       <c r="Q229" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="R229" t="s">
         <v>146</v>
@@ -38271,7 +38681,7 @@
         <v>0</v>
       </c>
       <c r="W229" s="47" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="X229" s="57">
         <v>0</v>
@@ -38282,13 +38692,13 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D230" s="23">
         <v>35</v>
@@ -38333,7 +38743,7 @@
         <v>146</v>
       </c>
       <c r="R230" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="S230" s="20">
         <v>0</v>
@@ -38359,13 +38769,13 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D231" s="23">
         <v>37</v>
@@ -38410,7 +38820,7 @@
         <v>146</v>
       </c>
       <c r="R231" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="S231" s="20">
         <v>0</v>
@@ -38436,13 +38846,13 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D232" s="23">
         <v>38</v>
@@ -38487,7 +38897,7 @@
         <v>146</v>
       </c>
       <c r="R232" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="S232" s="20">
         <v>0</v>
@@ -38513,13 +38923,13 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D233" s="23">
         <v>39</v>
@@ -38564,7 +38974,7 @@
         <v>146</v>
       </c>
       <c r="R233" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="S233" s="20">
         <v>0</v>
@@ -38590,13 +39000,13 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C234" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D234" s="23">
         <v>44</v>
@@ -38638,10 +39048,10 @@
         <v>0</v>
       </c>
       <c r="Q234" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="R234" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="S234" s="20">
         <v>0</v>
@@ -38667,13 +39077,13 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D235" s="23">
         <v>40</v>
@@ -38744,13 +39154,13 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D236" s="23">
         <v>41</v>
@@ -38795,7 +39205,7 @@
         <v>146</v>
       </c>
       <c r="R236" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="S236" s="20">
         <v>0</v>
@@ -38821,13 +39231,13 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D237" s="23">
         <v>42</v>
@@ -38872,7 +39282,7 @@
         <v>146</v>
       </c>
       <c r="R237" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="S237" s="20">
         <v>0</v>
@@ -38898,13 +39308,13 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D238" s="23">
         <v>43</v>
@@ -38949,7 +39359,7 @@
         <v>146</v>
       </c>
       <c r="R238" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="S238" s="20">
         <v>0</v>
@@ -38975,13 +39385,13 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D239" s="23">
         <v>44</v>
@@ -39026,7 +39436,7 @@
         <v>146</v>
       </c>
       <c r="R239" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="S239" s="20">
         <v>0</v>
@@ -39052,13 +39462,13 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D240" s="23">
         <v>45</v>
@@ -39103,7 +39513,7 @@
         <v>146</v>
       </c>
       <c r="R240" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="S240" s="20">
         <v>0</v>
@@ -39129,13 +39539,13 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D241" s="23">
         <v>45</v>
@@ -39180,7 +39590,7 @@
         <v>146</v>
       </c>
       <c r="R241" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="S241" s="20">
         <v>0</v>
@@ -39206,13 +39616,13 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D242" s="23">
         <v>45</v>
@@ -39257,7 +39667,7 @@
         <v>146</v>
       </c>
       <c r="R242" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="S242" s="20">
         <v>0</v>
@@ -39283,13 +39693,13 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D243" s="23">
         <v>46</v>
@@ -39334,7 +39744,7 @@
         <v>146</v>
       </c>
       <c r="R243" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="S243" s="20">
         <v>0</v>
@@ -39360,13 +39770,13 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D244" s="23">
         <v>72</v>
@@ -39411,7 +39821,7 @@
         <v>146</v>
       </c>
       <c r="R244" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="S244" s="20">
         <v>0</v>
@@ -39426,7 +39836,7 @@
         <v>0</v>
       </c>
       <c r="W244" s="47" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="X244" s="57">
         <v>1</v>
@@ -39437,13 +39847,13 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D245" s="23">
         <v>74</v>
@@ -39514,13 +39924,13 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B246" s="12" t="s">
         <v>1313</v>
       </c>
-      <c r="B246" s="12" t="s">
-        <v>1314</v>
-      </c>
       <c r="C246" s="12" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D246" s="23">
         <v>24</v>
@@ -39562,10 +39972,10 @@
         <v>50</v>
       </c>
       <c r="Q246" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="R246" t="s">
-        <v>1316</v>
+        <v>1392</v>
       </c>
       <c r="S246" s="20">
         <v>10</v>
@@ -39587,6 +39997,83 @@
       </c>
       <c r="Y246" s="43">
         <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A247" s="12" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D247" s="23">
+        <v>22</v>
+      </c>
+      <c r="E247" s="33">
+        <v>2100</v>
+      </c>
+      <c r="F247" s="35">
+        <v>2100</v>
+      </c>
+      <c r="G247" s="41">
+        <v>25</v>
+      </c>
+      <c r="H247" s="25">
+        <v>90</v>
+      </c>
+      <c r="I247" s="24">
+        <v>10</v>
+      </c>
+      <c r="J247" s="34">
+        <v>200</v>
+      </c>
+      <c r="K247" s="26">
+        <v>0</v>
+      </c>
+      <c r="L247" s="27">
+        <v>30</v>
+      </c>
+      <c r="M247" s="17">
+        <v>0</v>
+      </c>
+      <c r="N247" s="3">
+        <v>90</v>
+      </c>
+      <c r="O247" s="29">
+        <v>-100</v>
+      </c>
+      <c r="P247" s="18">
+        <v>25</v>
+      </c>
+      <c r="Q247" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="R247" t="s">
+        <v>1393</v>
+      </c>
+      <c r="S247" s="20">
+        <v>900</v>
+      </c>
+      <c r="T247" s="31">
+        <v>0</v>
+      </c>
+      <c r="U247" s="38">
+        <v>1</v>
+      </c>
+      <c r="V247" s="36">
+        <v>0</v>
+      </c>
+      <c r="W247" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X247" s="57">
+        <v>0</v>
+      </c>
+      <c r="Y247" s="43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3484" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1610">
   <si>
     <t>Club</t>
   </si>
@@ -2234,9 +2234,6 @@
     <t>A lightweight metal with strong*resistive properties.</t>
   </si>
   <si>
-    <t>This map leads somewhere good.*That's what you hope.</t>
-  </si>
-  <si>
     <t>Ancient Goblin</t>
   </si>
   <si>
@@ -4148,9 +4145,6 @@
     <t>Feeling Crabby</t>
   </si>
   <si>
-    <t>I Need a Doctor!</t>
-  </si>
-  <si>
     <t>{'Kills': ('Rumadan Man', 2)}</t>
   </si>
   <si>
@@ -4377,6 +4371,492 @@
   </si>
   <si>
     <t>Getting Medieval</t>
+  </si>
+  <si>
+    <t>Writings</t>
+  </si>
+  <si>
+    <t>Decrypt the anagram on Tomas Tam's tombstone and uncover what he has hidden.</t>
+  </si>
+  <si>
+    <t>Something Fishy</t>
+  </si>
+  <si>
+    <t>All Tomas Writings Found</t>
+  </si>
+  <si>
+    <t>Collect parchment from swordfish scattered throughout the Adriatic Sea.</t>
+  </si>
+  <si>
+    <t>{'Items': {'Mysterious Parchment': 1}}</t>
+  </si>
+  <si>
+    <t>Paper Trail</t>
+  </si>
+  <si>
+    <t>Secret Lab Unlocked</t>
+  </si>
+  <si>
+    <t>Decrypt the Mysterious Parchment and use it to discover a secret in Western Kosovo.</t>
+  </si>
+  <si>
+    <t>Top Secret</t>
+  </si>
+  <si>
+    <t>Secret Lab Lever</t>
+  </si>
+  <si>
+    <t>Secret Lab Entrance</t>
+  </si>
+  <si>
+    <t>Find what Tomas Tam has hidden in The Secret Laboratory.</t>
+  </si>
+  <si>
+    <t>Codebreaker</t>
+  </si>
+  <si>
+    <t>Radoman</t>
+  </si>
+  <si>
+    <t>Radoman Information 1</t>
+  </si>
+  <si>
+    <t>{'Kills': ('Maximilian', 1)}</t>
+  </si>
+  <si>
+    <t>The Mastermind</t>
+  </si>
+  <si>
+    <t>Find Niplin's headquarters.</t>
+  </si>
+  <si>
+    <t>Mystery of the Mages</t>
+  </si>
+  <si>
+    <t>Lair Entrance</t>
+  </si>
+  <si>
+    <t>Explore the Lair of the Magi and find the archmages.</t>
+  </si>
+  <si>
+    <t>Lair Tower</t>
+  </si>
+  <si>
+    <t>Internal Investigation</t>
+  </si>
+  <si>
+    <t>Gather information about the disappearance of the archmages for Mayor Radoman in Igalo.</t>
+  </si>
+  <si>
+    <t>Tipsy Tuesday</t>
+  </si>
+  <si>
+    <t>{'Items': {'Letter from the Mayor': 1}}</t>
+  </si>
+  <si>
+    <t>Get a letter bearing the signature of Mayor Mirko in Herceg Novi for the guards in Pristina.</t>
+  </si>
+  <si>
+    <t>Unguarded Gate</t>
+  </si>
+  <si>
+    <t>Gated Content</t>
+  </si>
+  <si>
+    <t>Finding President</t>
+  </si>
+  <si>
+    <t>{'Items': {'Presidential Map': 1}}</t>
+  </si>
+  <si>
+    <t>Speak to the President of Macedonia.</t>
+  </si>
+  <si>
+    <t>The President</t>
+  </si>
+  <si>
+    <t>Old Ruins Complete</t>
+  </si>
+  <si>
+    <t>The Key to Macedonia?</t>
+  </si>
+  <si>
+    <t>Took Map</t>
+  </si>
+  <si>
+    <t>Follow the Presidential Map to see where it leads.</t>
+  </si>
+  <si>
+    <t>{'Items': {'Macedonian Protector': 1}}</t>
+  </si>
+  <si>
+    <t>Old Ruins</t>
+  </si>
+  <si>
+    <t>Explore the Old Ruins.</t>
+  </si>
+  <si>
+    <t>The Quest for Truth</t>
+  </si>
+  <si>
+    <t>Brummo Mint</t>
+  </si>
+  <si>
+    <t>This herb can have surprising effects*at an unexpected time.</t>
+  </si>
+  <si>
+    <t>This map indicates an X,*two paces west of Pristina.</t>
+  </si>
+  <si>
+    <t>Greek Wall</t>
+  </si>
+  <si>
+    <t>Blueprint</t>
+  </si>
+  <si>
+    <t>Find a way beyond the Greek border.</t>
+  </si>
+  <si>
+    <t>{'Items': {'Greek Wall Blueprint': 1}}</t>
+  </si>
+  <si>
+    <t>Greek Wall Hole</t>
+  </si>
+  <si>
+    <t>Silvio Coward 1</t>
+  </si>
+  <si>
+    <t>The Italian Job</t>
+  </si>
+  <si>
+    <t>{'Kills': ('Silvio Berlusconi3', 1)}</t>
+  </si>
+  <si>
+    <t>Animal Powers</t>
+  </si>
+  <si>
+    <t>Coliseum Complete</t>
+  </si>
+  <si>
+    <t>Not Disguised</t>
+  </si>
+  <si>
+    <t>Coliseum</t>
+  </si>
+  <si>
+    <t>{'Items': {'Greek Armour': 1, 'Greek Robe': 1}}</t>
+  </si>
+  <si>
+    <t>Sneak into the Coliseum.</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>A rifle that shoots</t>
+  </si>
+  <si>
+    <t>Ryfil the Kid</t>
+  </si>
+  <si>
+    <t>{'Cower': 100}</t>
+  </si>
+  <si>
+    <t>{'Cotton Shirt': 100}</t>
+  </si>
+  <si>
+    <t>Cower</t>
+  </si>
+  <si>
+    <t>cowers in fear</t>
+  </si>
+  <si>
+    <t>{"Bow", "Gun"}</t>
+  </si>
+  <si>
+    <t>{"Gun"}</t>
+  </si>
+  <si>
+    <t>shoots</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Win the coliseum.</t>
+  </si>
+  <si>
+    <t>I want to be the very best</t>
+  </si>
+  <si>
+    <t>Act like you belong</t>
+  </si>
+  <si>
+    <t>I need a doctor!</t>
+  </si>
+  <si>
+    <t>Greek Fortress</t>
+  </si>
+  <si>
+    <t>Follow your escort to the Greek Fortress west of Athens.</t>
+  </si>
+  <si>
+    <t>Got Key Mold</t>
+  </si>
+  <si>
+    <t>Search the Greek Fortress for clues about Macedonia.</t>
+  </si>
+  <si>
+    <t>Delve Into Darkness</t>
+  </si>
+  <si>
+    <t>Liberation</t>
+  </si>
+  <si>
+    <t>Steps to Justice</t>
+  </si>
+  <si>
+    <t>Save Macedonia.</t>
+  </si>
+  <si>
+    <t>Key Hunting</t>
+  </si>
+  <si>
+    <t>{'Items': {'Key Mold': 1, 'Gold Bar': 1}}</t>
+  </si>
+  <si>
+    <t>Macedonian Gate Opened</t>
+  </si>
+  <si>
+    <t>Thessaloniki</t>
+  </si>
+  <si>
+    <t>{'Items': {'The Key to Macedonia': 1}}</t>
+  </si>
+  <si>
+    <t>Stone Banter</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Guided Tour of the Mediterranean</t>
+  </si>
+  <si>
+    <t>Open the gate to Macedonia in the Thessalonian Highlands.</t>
+  </si>
+  <si>
+    <t>Travel to the Thessalonian Highlands from the northeastern tip of the Greek Plains.</t>
+  </si>
+  <si>
+    <t>Graveyard Shift</t>
+  </si>
+  <si>
+    <t>Skeleton Clan</t>
+  </si>
+  <si>
+    <t>Skeleton Clan Reward</t>
+  </si>
+  <si>
+    <t>Defeat the Pirates in the Scutari Peninsula and the Gryphons in Western Kosovo.</t>
+  </si>
+  <si>
+    <t>Bilge Duty</t>
+  </si>
+  <si>
+    <t>Pirate Clan</t>
+  </si>
+  <si>
+    <t>Pirate Clan Reward</t>
+  </si>
+  <si>
+    <t>Gryphon Clan Reward</t>
+  </si>
+  <si>
+    <t>Gryphon Clan</t>
+  </si>
+  <si>
+    <t>Pecking Order</t>
+  </si>
+  <si>
+    <t>Defeat the Skeletons in the Mojkovac Cemetery and the Gryphons in Western Kosovo.</t>
+  </si>
+  <si>
+    <t>Defeat the Skeletons in the Mojkovac Cemetery and the Pirates in the Scutari Peninsula.</t>
+  </si>
+  <si>
+    <t>Animal Ascension</t>
+  </si>
+  <si>
+    <t>Ascended</t>
+  </si>
+  <si>
+    <t>Fully Ascended</t>
+  </si>
+  <si>
+    <t>Animal Absorption</t>
+  </si>
+  <si>
+    <t>Find and defeat Silvio Berlusconi in his castle.</t>
+  </si>
+  <si>
+    <t>Open Thessame</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>REPEATABLE</t>
+  </si>
+  <si>
+    <t>Bring a piece of Gold Ore to Goldum in the Rumadan Hideout.</t>
+  </si>
+  <si>
+    <t>Goldum Gold</t>
+  </si>
+  <si>
+    <t>Met Goldum</t>
+  </si>
+  <si>
+    <t>{'Items': {'Gold Ore': 1}}</t>
+  </si>
+  <si>
+    <t>Precious Metal</t>
+  </si>
+  <si>
+    <t>{'Items': {'Garnet Fragment': 1, 'Aquamarine Shard': 1}}</t>
+  </si>
+  <si>
+    <t>Swordcraft</t>
+  </si>
+  <si>
+    <t>Magnificent Blade</t>
+  </si>
+  <si>
+    <t>Bring a Garnet Fragment and an Aquamarine Shard to the Sword Man in the Rumadan Village.</t>
+  </si>
+  <si>
+    <t>Diamond Defence</t>
+  </si>
+  <si>
+    <t>Big Nigel</t>
+  </si>
+  <si>
+    <t>Bring a Jade Ward, an Aquamarine Ward, and a Garnet Ward to Big Nigel in the Greek Plains.</t>
+  </si>
+  <si>
+    <t>Qendresa Story</t>
+  </si>
+  <si>
+    <t>Qendresa Espadon</t>
+  </si>
+  <si>
+    <t>Qendresa Cuirass</t>
+  </si>
+  <si>
+    <t>Qendresa Crest</t>
+  </si>
+  <si>
+    <t>{'Items': {'Espadon': 1}}</t>
+  </si>
+  <si>
+    <t>{'Items': {'Steel Cuirass': 1}}</t>
+  </si>
+  <si>
+    <t>{'Items': {'Oseku Shield': 1}}</t>
+  </si>
+  <si>
+    <t>Coat of Arms</t>
+  </si>
+  <si>
+    <t>A Sword for an Oseku</t>
+  </si>
+  <si>
+    <t>Bring an Espadon to Qendresa in Pec.</t>
+  </si>
+  <si>
+    <t>Bring a Steel Cuirass to Qendresa in Pec.</t>
+  </si>
+  <si>
+    <t>Find and return the Oseku Shield to Qendresa in Pec.</t>
+  </si>
+  <si>
+    <t>Suited in Steel</t>
+  </si>
+  <si>
+    <t>Punched to Perfection</t>
+  </si>
+  <si>
+    <t>A Blade of Ice and Fire</t>
+  </si>
+  <si>
+    <t>Moved Boulders</t>
+  </si>
+  <si>
+    <t>Rocky Road</t>
+  </si>
+  <si>
+    <t>Melted Ice</t>
+  </si>
+  <si>
+    <t>Ice Block</t>
+  </si>
+  <si>
+    <t>Plugged Geyser</t>
+  </si>
+  <si>
+    <t>Remove the boulders blocking the cave in the Billowing Bluffs.</t>
+  </si>
+  <si>
+    <t>Melt the frozen passage in the Adriatic Sea.</t>
+  </si>
+  <si>
+    <t>Stop the active geyser in the Albanian Desert.</t>
+  </si>
+  <si>
+    <t>Under Pressure</t>
+  </si>
+  <si>
+    <t>IGNORE Vismurg Entrance Found</t>
+  </si>
+  <si>
+    <t>IGNORE Aldreed Entrance Found</t>
+  </si>
+  <si>
+    <t>IGNORE Oukkar Entrance Found</t>
+  </si>
+  <si>
+    <t>Crossing The Border</t>
+  </si>
+  <si>
+    <t>Debonairiest Nowell Shirt</t>
+  </si>
+  <si>
+    <t>{'Multiple Kills': (('Pirate Captain', "Pirates"), ('Phoenix', "Gryphons"))}</t>
+  </si>
+  <si>
+    <t>{'Wildcard Kills': (('Giant Seal2', 'Giant Shark2', 'Giant Salamander2', 'Giant Scorpion2', 'Giant Scarab2'), 1, "Legendary Animal")}</t>
+  </si>
+  <si>
+    <t>Defeat every legendary Giant Animal and absorb their souls.</t>
+  </si>
+  <si>
+    <t>{'Multiple Kills': (('Skeleton Commander', "Skeletons"), ('Pirate Captain', "Pirates"))}</t>
+  </si>
+  <si>
+    <t>{'Multiple Kills': (('Skeleton Commander', "Skeletons"), ('Phoenix', "Gryphons"))}</t>
+  </si>
+  <si>
+    <t>{'Multiple Kills': (('Giant Seal2', "Frostflipper the Fierce"), ('Giant Shark2', "Tidetooth the Tough"), ('Giant Salamander2', "Meltmaw the Magical"), ('Giant Scorpion2', "Poisonpinch the Piercing"), ('Giant Scarab2', "Stoneshell the Spirited"))}</t>
+  </si>
+  <si>
+    <t>{'Items': {'Jade Ward': 1, 'Garnet Ward': 1, 'Aquamarine Ward': 1}}</t>
+  </si>
+  <si>
+    <t>Hunt for a legendary Giant Animal and absorb its power using the altar in the Hidden Passage.</t>
+  </si>
+  <si>
+    <t>{'No Criteria': True}</t>
   </si>
 </sst>
 </file>
@@ -5010,7 +5490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5129,6 +5609,7 @@
     <xf numFmtId="0" fontId="10" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6739,7 +7220,7 @@
         <v>670</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7606,11 +8087,11 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7838,7 +8319,7 @@
         <v>146</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>440</v>
@@ -8975,7 +9456,7 @@
         <v>157</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>192</v>
+        <v>1514</v>
       </c>
       <c r="D43" s="64">
         <v>10</v>
@@ -9071,7 +9552,7 @@
         <v>167</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>192</v>
+        <v>1514</v>
       </c>
       <c r="D46" s="64">
         <v>15</v>
@@ -9129,7 +9610,7 @@
     </row>
     <row r="48" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B48" s="64" t="s">
         <v>171</v>
@@ -9167,7 +9648,7 @@
         <v>157</v>
       </c>
       <c r="C49" s="64" t="s">
-        <v>192</v>
+        <v>1514</v>
       </c>
       <c r="D49" s="64">
         <v>30</v>
@@ -9231,7 +9712,7 @@
         <v>171</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>192</v>
+        <v>1514</v>
       </c>
       <c r="D51" s="64">
         <v>50</v>
@@ -9566,7 +10047,7 @@
         <v>146</v>
       </c>
       <c r="H61" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I61" s="58" t="s">
         <v>648</v>
@@ -9726,7 +10207,7 @@
         <v>146</v>
       </c>
       <c r="H66" s="58" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I66" s="58" t="s">
         <v>656</v>
@@ -10241,7 +10722,7 @@
         <v>146</v>
       </c>
       <c r="I82" s="73" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J82" s="73" t="s">
         <v>190</v>
@@ -10273,7 +10754,7 @@
         <v>146</v>
       </c>
       <c r="I83" s="73" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="J83" s="73" t="s">
         <v>190</v>
@@ -10305,7 +10786,7 @@
         <v>146</v>
       </c>
       <c r="I84" s="73" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="J84" s="73" t="s">
         <v>190</v>
@@ -10313,7 +10794,7 @@
     </row>
     <row r="85" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="96" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B85" s="96" t="s">
         <v>249</v>
@@ -10337,7 +10818,7 @@
         <v>146</v>
       </c>
       <c r="I85" s="96" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J85" s="96" t="s">
         <v>190</v>
@@ -10401,7 +10882,7 @@
         <v>146</v>
       </c>
       <c r="I87" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J87" t="s">
         <v>155</v>
@@ -10433,7 +10914,7 @@
         <v>146</v>
       </c>
       <c r="I88" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J88" t="s">
         <v>155</v>
@@ -10465,7 +10946,7 @@
         <v>146</v>
       </c>
       <c r="I89" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J89" t="s">
         <v>155</v>
@@ -10689,7 +11170,7 @@
         <v>146</v>
       </c>
       <c r="I96" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="J96" t="s">
         <v>155</v>
@@ -11140,7 +11621,7 @@
         <v>571</v>
       </c>
       <c r="J110" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -11305,7 +11786,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>157</v>
@@ -11329,7 +11810,7 @@
         <v>146</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>155</v>
@@ -11337,7 +11818,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>157</v>
@@ -11369,7 +11850,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>157</v>
@@ -11390,10 +11871,10 @@
         <v>146</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>155</v>
@@ -11401,7 +11882,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>176</v>
@@ -11422,10 +11903,10 @@
         <v>146</v>
       </c>
       <c r="H119" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>1050</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>190</v>
@@ -11433,7 +11914,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>249</v>
@@ -11451,13 +11932,13 @@
         <v>124</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>155</v>
@@ -11465,7 +11946,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>173</v>
@@ -11489,7 +11970,7 @@
         <v>146</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>155</v>
@@ -11497,7 +11978,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>169</v>
@@ -11521,7 +12002,7 @@
         <v>146</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>155</v>
@@ -11529,7 +12010,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>157</v>
@@ -11544,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>146</v>
@@ -11553,7 +12034,7 @@
         <v>146</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>155</v>
@@ -11561,7 +12042,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>249</v>
@@ -11579,21 +12060,21 @@
         <v>124</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I124" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J124" s="2" t="s">
         <v>1071</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>249</v>
@@ -11611,21 +12092,21 @@
         <v>124</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>249</v>
@@ -11643,21 +12124,21 @@
         <v>124</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>249</v>
@@ -11675,21 +12156,21 @@
         <v>124</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>249</v>
@@ -11707,13 +12188,13 @@
         <v>124</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>190</v>
@@ -11721,7 +12202,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>176</v>
@@ -11745,7 +12226,7 @@
         <v>640</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>155</v>
@@ -11753,7 +12234,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>157</v>
@@ -11771,21 +12252,21 @@
         <v>124</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>249</v>
@@ -11809,15 +12290,15 @@
         <v>146</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>249</v>
@@ -11835,21 +12316,21 @@
         <v>124</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>157</v>
@@ -11870,10 +12351,10 @@
         <v>146</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>190</v>
@@ -11881,7 +12362,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>157</v>
@@ -11896,7 +12377,7 @@
         <v>200</v>
       </c>
       <c r="F134" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>146</v>
@@ -11905,7 +12386,7 @@
         <v>146</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>155</v>
@@ -11913,7 +12394,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>169</v>
@@ -11928,16 +12409,16 @@
         <v>3000</v>
       </c>
       <c r="F135" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>155</v>
@@ -11945,7 +12426,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>157</v>
@@ -11963,13 +12444,13 @@
         <v>29</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>155</v>
@@ -11977,7 +12458,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B137" t="s">
         <v>157</v>
@@ -11995,13 +12476,13 @@
         <v>198</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>155</v>
@@ -12009,7 +12490,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B138" t="s">
         <v>157</v>
@@ -12027,13 +12508,13 @@
         <v>301</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>155</v>
@@ -12041,7 +12522,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B139" t="s">
         <v>173</v>
@@ -12065,7 +12546,7 @@
         <v>146</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>155</v>
@@ -12073,7 +12554,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B140" t="s">
         <v>176</v>
@@ -12091,13 +12572,13 @@
         <v>124</v>
       </c>
       <c r="G140" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>155</v>
@@ -12105,7 +12586,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B141" t="s">
         <v>249</v>
@@ -12129,7 +12610,7 @@
         <v>146</v>
       </c>
       <c r="I141" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>155</v>
@@ -12137,7 +12618,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B142" t="s">
         <v>249</v>
@@ -12161,7 +12642,7 @@
         <v>146</v>
       </c>
       <c r="I142" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>155</v>
@@ -12169,7 +12650,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B143" t="s">
         <v>157</v>
@@ -12193,7 +12674,7 @@
         <v>146</v>
       </c>
       <c r="I143" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>155</v>
@@ -12201,7 +12682,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B144" t="s">
         <v>173</v>
@@ -12219,13 +12700,13 @@
         <v>10</v>
       </c>
       <c r="G144" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I144" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>155</v>
@@ -12233,7 +12714,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B145" t="s">
         <v>173</v>
@@ -12257,7 +12738,7 @@
         <v>146</v>
       </c>
       <c r="I145" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>155</v>
@@ -12265,7 +12746,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B146" t="s">
         <v>171</v>
@@ -12283,13 +12764,13 @@
         <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I146" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>155</v>
@@ -12297,7 +12778,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>249</v>
@@ -12315,21 +12796,21 @@
         <v>124</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B148" t="s">
         <v>249</v>
@@ -12347,21 +12828,21 @@
         <v>124</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H148" t="s">
         <v>146</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B149" t="s">
         <v>173</v>
@@ -12379,13 +12860,13 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H149" t="s">
         <v>146</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>155</v>
@@ -12393,7 +12874,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B150" t="s">
         <v>173</v>
@@ -12411,13 +12892,13 @@
         <v>39</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H150" t="s">
         <v>146</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>155</v>
@@ -12425,7 +12906,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B151" t="s">
         <v>173</v>
@@ -12443,13 +12924,13 @@
         <v>29</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H151" t="s">
         <v>146</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>155</v>
@@ -12457,7 +12938,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B152" t="s">
         <v>249</v>
@@ -12481,15 +12962,15 @@
         <v>146</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B153" t="s">
         <v>157</v>
@@ -12504,7 +12985,7 @@
         <v>200</v>
       </c>
       <c r="F153" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>146</v>
@@ -12513,7 +12994,7 @@
         <v>146</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>155</v>
@@ -12521,7 +13002,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B154" t="s">
         <v>176</v>
@@ -12536,7 +13017,7 @@
         <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G154" t="s">
         <v>146</v>
@@ -12545,7 +13026,7 @@
         <v>640</v>
       </c>
       <c r="I154" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="J154" t="s">
         <v>155</v>
@@ -12553,10 +13034,10 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B155" t="s">
         <v>1316</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1317</v>
       </c>
       <c r="C155" t="s">
         <v>159</v>
@@ -12577,9 +13058,73 @@
         <v>146</v>
       </c>
       <c r="I155" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J155" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C156" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>124</v>
+      </c>
+      <c r="G156" t="s">
+        <v>146</v>
+      </c>
+      <c r="H156" t="s">
+        <v>146</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>100</v>
+      </c>
+      <c r="F157" t="s">
+        <v>124</v>
+      </c>
+      <c r="G157" t="s">
+        <v>146</v>
+      </c>
+      <c r="H157" t="s">
+        <v>146</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J157" t="s">
         <v>155</v>
       </c>
     </row>
@@ -12843,7 +13388,7 @@
         <v>80</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>26</v>
@@ -12985,279 +13530,279 @@
         <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B2" s="70">
         <v>1</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="71" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B3" s="71">
         <v>1</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B4" s="59">
         <v>0</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B5" s="72">
         <v>1</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B6" s="58">
         <v>0</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B7" s="58">
         <v>0</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B8" s="58">
         <v>0</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B9" s="69">
         <v>0</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B10" s="59">
         <v>0</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="67" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B11" s="67">
         <v>1</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B12" s="65">
         <v>1</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="61" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B13" s="61">
         <v>0</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B14" s="62">
         <v>0</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="58" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B15" s="58">
         <v>0</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B16" s="63">
         <v>1</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="60" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B17" s="60">
         <v>0</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B18" s="59">
         <v>0</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="64" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B19" s="64">
         <v>0</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B20" s="47">
         <v>0</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B21" s="66">
         <v>0</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B22" s="47">
         <v>0</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="68" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B23" s="68">
         <v>0</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="68" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B24" s="68">
         <v>1</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B25" s="47">
         <v>0</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -13285,196 +13830,196 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>940</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -16473,11 +17018,11 @@
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16922,7 +17467,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B16" s="43">
         <v>600</v>
@@ -17334,7 +17879,7 @@
         <v>4000</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D30">
         <v>45</v>
@@ -17531,7 +18076,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B37" s="43">
         <v>4699</v>
@@ -17618,7 +18163,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B40" s="43">
         <v>4699</v>
@@ -17676,7 +18221,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B42" s="43">
         <v>4699</v>
@@ -17821,7 +18366,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B47" s="43">
         <v>6000</v>
@@ -17879,7 +18424,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B49" s="43">
         <v>6000</v>
@@ -18053,7 +18598,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B55" s="43">
         <v>7000</v>
@@ -18082,7 +18627,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B56" s="43">
         <v>7000</v>
@@ -18140,7 +18685,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B58" s="43">
         <v>8000</v>
@@ -18198,7 +18743,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B60" s="43">
         <v>7000</v>
@@ -18227,7 +18772,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B61" s="43">
         <v>7500</v>
@@ -18256,7 +18801,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B62" s="43">
         <v>7500</v>
@@ -18281,6 +18826,35 @@
       </c>
       <c r="I62">
         <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B63" s="43">
+        <v>1225</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63" s="46">
+        <v>30</v>
+      </c>
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1507</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -18295,13 +18869,15 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -19026,7 +19602,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B37" s="43">
         <v>8000</v>
@@ -19066,7 +19642,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B39" s="43">
         <v>8000</v>
@@ -19146,7 +19722,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B43" s="43">
         <v>1</v>
@@ -19166,7 +19742,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B44" s="43">
         <v>1</v>
@@ -19226,7 +19802,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B47" s="43">
         <v>10000</v>
@@ -19246,7 +19822,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B48" s="43">
         <v>10000</v>
@@ -19266,7 +19842,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B49" s="43">
         <v>5000</v>
@@ -19286,7 +19862,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B50" s="43">
         <v>5000</v>
@@ -19306,7 +19882,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B51" s="43">
         <v>5000</v>
@@ -19326,7 +19902,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B52" s="43">
         <v>8000</v>
@@ -19346,7 +19922,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B53" s="43">
         <v>1225</v>
@@ -19366,7 +19942,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B54" s="43">
         <v>8000</v>
@@ -19386,7 +19962,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B55" s="43">
         <v>8000</v>
@@ -19406,7 +19982,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B56" s="43">
         <v>1225</v>
@@ -19422,6 +19998,26 @@
       </c>
       <c r="F56">
         <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B57" s="43">
+        <v>1225</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="27">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -19887,7 +20483,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B20" s="43">
         <v>3500</v>
@@ -20117,7 +20713,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B30" s="43">
         <v>8000</v>
@@ -20347,7 +20943,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B40" s="43">
         <v>7000</v>
@@ -20380,7 +20976,7 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20490,7 +21086,7 @@
         <v>529</v>
       </c>
       <c r="B7" s="43">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>693</v>
@@ -20503,13 +21099,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>1490</v>
       </c>
       <c r="B8" s="43">
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>692</v>
+        <v>1491</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -20519,13 +21115,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>697</v>
+        <v>530</v>
       </c>
       <c r="B9" s="43">
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -20535,145 +21131,156 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B10" s="43">
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1359</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B11" s="43">
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>713</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B12" s="43">
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>801</v>
+        <v>700</v>
       </c>
       <c r="B13" s="43">
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>802</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>837</v>
+        <v>800</v>
       </c>
       <c r="B14" s="43">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="B15" s="43">
         <v>5000</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B16" s="43">
         <v>5000</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B17" s="43">
         <v>5000</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B18" s="43">
         <v>5000</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B19" s="43">
         <v>5000</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1199</v>
+        <v>826</v>
       </c>
       <c r="B20" s="43">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1240</v>
+        <v>5000</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1259</v>
+        <v>1198</v>
       </c>
       <c r="B21" s="43">
         <v>0</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1260</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B22" s="43">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B23" s="43">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>1286</v>
-      </c>
-      <c r="B22" s="43">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1287</v>
       </c>
     </row>
   </sheetData>
@@ -20686,82 +21293,101 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:E18"/>
+      <selection pane="bottomLeft" sqref="A1:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" customWidth="1"/>
+    <col min="4" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1" t="s">
         <v>1360</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1361</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1362</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1363</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="98" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D2" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D2" t="s">
-        <v>697</v>
-      </c>
       <c r="E2" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1365</v>
+      </c>
+      <c r="F2" s="98">
+        <v>0</v>
+      </c>
+      <c r="G2" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1371</v>
       </c>
       <c r="B3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F3" s="98">
+        <v>0</v>
+      </c>
+      <c r="G3" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B4" t="s">
         <v>1443</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>1374</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1375</v>
       </c>
       <c r="D4" t="s">
         <v>1367</v>
@@ -20769,101 +21395,137 @@
       <c r="E4" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="98">
+        <v>0</v>
+      </c>
+      <c r="G4" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1373</v>
+        <v>1403</v>
       </c>
       <c r="B5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F5" s="98">
+        <v>0</v>
+      </c>
+      <c r="G5" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F6" s="98">
+        <v>0</v>
+      </c>
+      <c r="G6" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C7" t="s">
         <v>1445</v>
       </c>
-      <c r="C5" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1395</v>
-      </c>
       <c r="D7" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E7" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="98">
+        <v>0</v>
+      </c>
+      <c r="G7" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
       <c r="B8" t="s">
-        <v>1387</v>
+        <v>1419</v>
       </c>
       <c r="C8" t="s">
-        <v>1394</v>
+        <v>1417</v>
       </c>
       <c r="D8" t="s">
-        <v>1397</v>
+        <v>1410</v>
       </c>
       <c r="E8" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1413</v>
+      </c>
+      <c r="F8" s="98">
+        <v>0</v>
+      </c>
+      <c r="G8" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1403</v>
+        <v>1424</v>
       </c>
       <c r="B9" t="s">
-        <v>1396</v>
+        <v>1420</v>
       </c>
       <c r="C9" t="s">
-        <v>1447</v>
+        <v>1418</v>
       </c>
       <c r="D9" t="s">
-        <v>1399</v>
+        <v>1411</v>
       </c>
       <c r="E9" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1414</v>
+      </c>
+      <c r="F9" s="98">
+        <v>0</v>
+      </c>
+      <c r="G9" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="B10" t="s">
         <v>1421</v>
       </c>
       <c r="C10" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="D10" t="s">
         <v>1412</v>
@@ -20871,141 +21533,977 @@
       <c r="E10" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="98">
+        <v>0</v>
+      </c>
+      <c r="G10" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E11" t="s">
         <v>1426</v>
       </c>
-      <c r="B11" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="98">
+        <v>0</v>
+      </c>
+      <c r="G11" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1425</v>
+        <v>1447</v>
       </c>
       <c r="B12" t="s">
-        <v>1423</v>
+        <v>1435</v>
       </c>
       <c r="C12" t="s">
-        <v>1424</v>
+        <v>1434</v>
       </c>
       <c r="D12" t="s">
-        <v>1414</v>
+        <v>1427</v>
       </c>
       <c r="E12" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1428</v>
+      </c>
+      <c r="F12" s="98">
+        <v>0</v>
+      </c>
+      <c r="G12" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1435</v>
+        <v>1446</v>
       </c>
       <c r="B13" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="C13" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="D13" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="E13" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1430</v>
+      </c>
+      <c r="F13" s="98">
+        <v>0</v>
+      </c>
+      <c r="G13" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="B14" t="s">
         <v>1437</v>
       </c>
       <c r="C14" t="s">
-        <v>1436</v>
+        <v>1609</v>
       </c>
       <c r="D14" t="s">
-        <v>1429</v>
+        <v>1369</v>
       </c>
       <c r="E14" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1438</v>
+      </c>
+      <c r="F14" s="98">
+        <v>0</v>
+      </c>
+      <c r="G14" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F15" s="98">
+        <v>0</v>
+      </c>
+      <c r="G15" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F16" s="98">
+        <v>0</v>
+      </c>
+      <c r="G16" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F17" s="98">
+        <v>0</v>
+      </c>
+      <c r="G17" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F18" s="98">
+        <v>0</v>
+      </c>
+      <c r="G18" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F19" s="98">
+        <v>0</v>
+      </c>
+      <c r="G19" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E20" t="s">
         <v>1448</v>
       </c>
-      <c r="B15" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" t="s">
-        <v>411</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1409</v>
+      <c r="F20" s="98">
+        <v>0</v>
+      </c>
+      <c r="G20" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F21" s="98">
+        <v>0</v>
+      </c>
+      <c r="G21" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F22" s="98">
+        <v>0</v>
+      </c>
+      <c r="G22" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F23" s="98">
+        <v>0</v>
+      </c>
+      <c r="G23" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F24" s="98">
+        <v>0</v>
+      </c>
+      <c r="G24" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F25" s="98">
+        <v>0</v>
+      </c>
+      <c r="G25" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F26" s="98">
+        <v>0</v>
+      </c>
+      <c r="G26" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F27" s="98">
+        <v>0</v>
+      </c>
+      <c r="G27" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F28" s="98">
+        <v>0</v>
+      </c>
+      <c r="G28" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F29" s="98">
+        <v>0</v>
+      </c>
+      <c r="G29" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F30" s="98">
+        <v>0</v>
+      </c>
+      <c r="G30" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F31" s="98">
+        <v>0</v>
+      </c>
+      <c r="G31" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F32" s="98">
+        <v>0</v>
+      </c>
+      <c r="G32" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F33" s="98">
+        <v>0</v>
+      </c>
+      <c r="G33" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>530</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F34" s="98">
+        <v>0</v>
+      </c>
+      <c r="G34" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F35" s="98">
+        <v>0</v>
+      </c>
+      <c r="G35" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F36" s="98">
+        <v>0</v>
+      </c>
+      <c r="G36" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F37" s="98">
+        <v>0</v>
+      </c>
+      <c r="G37" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F38" s="98">
+        <v>0</v>
+      </c>
+      <c r="G38" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F39" s="98">
+        <v>0</v>
+      </c>
+      <c r="G39" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F40" s="98">
+        <v>0</v>
+      </c>
+      <c r="G40" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F41" s="98">
+        <v>1</v>
+      </c>
+      <c r="G41" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F42" s="98">
+        <v>1</v>
+      </c>
+      <c r="G42" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F43" s="98">
+        <v>1</v>
+      </c>
+      <c r="G43" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F44" s="98">
+        <v>1</v>
+      </c>
+      <c r="G44" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F45" s="98">
+        <v>1</v>
+      </c>
+      <c r="G45" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F46" s="98">
+        <v>1</v>
+      </c>
+      <c r="G46" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F47" s="98">
+        <v>0</v>
+      </c>
+      <c r="G47" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F48" s="98">
+        <v>0</v>
+      </c>
+      <c r="G48" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F49" s="98">
+        <v>0</v>
+      </c>
+      <c r="G49" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F50" s="98">
+        <v>0</v>
+      </c>
+      <c r="G50" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F51" s="98">
+        <v>0</v>
+      </c>
+      <c r="G51" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F52" s="98">
+        <v>0</v>
+      </c>
+      <c r="G52" s="98">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21018,13 +22516,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:Y247"/>
+  <dimension ref="A1:Y248"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="R209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:Y247"/>
+      <selection pane="bottomRight" activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21127,10 +22625,10 @@
         <v>664</v>
       </c>
       <c r="X1" s="57" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="Y1" s="43" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -21201,7 +22699,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="47" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X2" s="57">
         <v>0</v>
@@ -22187,7 +23685,7 @@
         <v>729</v>
       </c>
       <c r="R15" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="S15" s="20">
         <v>50</v>
@@ -22213,13 +23711,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="B16" t="s">
         <v>860</v>
       </c>
-      <c r="B16" t="s">
-        <v>861</v>
-      </c>
       <c r="C16" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D16" s="23">
         <v>40</v>
@@ -22261,10 +23759,10 @@
         <v>80</v>
       </c>
       <c r="Q16" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="R16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="S16" s="20">
         <v>3700</v>
@@ -22572,7 +24070,7 @@
         <v>362</v>
       </c>
       <c r="R20" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="S20" s="20">
         <v>75</v>
@@ -22726,7 +24224,7 @@
         <v>366</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="S22" s="20">
         <v>75</v>
@@ -23262,10 +24760,10 @@
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="S29" s="21">
         <v>150</v>
@@ -23493,7 +24991,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="R32" t="s">
         <v>620</v>
@@ -23801,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R36" t="s">
         <v>582</v>
@@ -23881,7 +25379,7 @@
         <v>487</v>
       </c>
       <c r="R37" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="S37" s="20">
         <v>230</v>
@@ -24109,10 +25607,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="S40" s="20">
         <v>260</v>
@@ -24340,10 +25838,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R43" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="S43" s="21">
         <v>280</v>
@@ -24574,7 +26072,7 @@
         <v>488</v>
       </c>
       <c r="R46" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="S46" s="20">
         <v>310</v>
@@ -24725,7 +26223,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="R48" t="s">
         <v>485</v>
@@ -24882,7 +26380,7 @@
         <v>608</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="S50" s="21">
         <v>360</v>
@@ -25296,7 +26794,7 @@
         <v>606</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>606</v>
@@ -25909,13 +27407,13 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D64" s="23">
         <v>16</v>
@@ -25957,10 +27455,10 @@
         <v>0</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="S64" s="20">
         <v>590</v>
@@ -26265,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R68" s="2" t="s">
         <v>146</v>
@@ -26345,7 +27843,7 @@
         <v>725</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S69" s="20">
         <v>630</v>
@@ -26576,7 +28074,7 @@
         <v>576</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="S72" s="20">
         <v>660</v>
@@ -26602,13 +28100,13 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D73" s="23">
         <v>18</v>
@@ -26650,10 +28148,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S73" s="20">
         <v>660</v>
@@ -26730,7 +28228,7 @@
         <v>723</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S74" s="20">
         <v>680</v>
@@ -26756,13 +28254,13 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D75" s="23">
         <v>18</v>
@@ -26804,10 +28302,10 @@
         <v>50</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S75" s="20">
         <v>690</v>
@@ -26833,13 +28331,13 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D76" s="23">
         <v>18</v>
@@ -26881,10 +28379,10 @@
         <v>10</v>
       </c>
       <c r="Q76" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="R76" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="R76" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="S76" s="20">
         <v>690</v>
@@ -27064,13 +28562,13 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="74" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B79" s="74" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C79" s="74" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D79" s="23">
         <v>18</v>
@@ -27112,10 +28610,10 @@
         <v>50</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="S79" s="20">
         <v>5000</v>
@@ -27141,13 +28639,13 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D80" s="23">
         <v>19</v>
@@ -27189,10 +28687,10 @@
         <v>0</v>
       </c>
       <c r="Q80" t="s">
+        <v>742</v>
+      </c>
+      <c r="R80" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="S80" s="20">
         <v>720</v>
@@ -27269,7 +28767,7 @@
         <v>564</v>
       </c>
       <c r="R81" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="S81" s="20">
         <v>730</v>
@@ -27372,13 +28870,13 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D83" s="23">
         <v>20</v>
@@ -27420,10 +28918,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R83" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S83" s="20">
         <v>800</v>
@@ -27500,7 +28998,7 @@
         <v>573</v>
       </c>
       <c r="R84" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S84" s="20">
         <v>820</v>
@@ -27526,13 +29024,13 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D85" s="23">
         <v>21</v>
@@ -27574,10 +29072,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="R85" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S85" s="20">
         <v>840</v>
@@ -27603,13 +29101,13 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D86" s="23">
         <v>22</v>
@@ -27651,10 +29149,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="R86" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S86" s="20">
         <v>860</v>
@@ -27680,13 +29178,13 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D87" s="23">
         <v>22</v>
@@ -27728,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R87" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S87" s="20">
         <v>860</v>
@@ -27911,13 +29409,13 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D90" s="23">
         <v>22</v>
@@ -27959,10 +29457,10 @@
         <v>10</v>
       </c>
       <c r="Q90" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="R90" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="S90" s="20">
         <v>880</v>
@@ -27988,13 +29486,13 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D91" s="23">
         <v>22</v>
@@ -28036,10 +29534,10 @@
         <v>0</v>
       </c>
       <c r="Q91" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R91" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="S91" s="20">
         <v>900</v>
@@ -28065,13 +29563,13 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D92" s="23">
         <v>23</v>
@@ -28113,10 +29611,10 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R92" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="S92" s="20">
         <v>910</v>
@@ -28142,13 +29640,13 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D93" s="23">
         <v>23</v>
@@ -28190,10 +29688,10 @@
         <v>10</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="R93" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S93" s="20">
         <v>920</v>
@@ -28296,13 +29794,13 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D95" s="23">
         <v>23</v>
@@ -28344,10 +29842,10 @@
         <v>50</v>
       </c>
       <c r="Q95" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="R95" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="R95" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="S95" s="20">
         <v>930</v>
@@ -28373,13 +29871,13 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D96" s="23">
         <v>23</v>
@@ -28421,10 +29919,10 @@
         <v>10</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R96" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="S96" s="20">
         <v>940</v>
@@ -28527,13 +30025,13 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D98" s="23">
         <v>24</v>
@@ -28575,10 +30073,10 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R98" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="S98" s="20">
         <v>1000</v>
@@ -28604,13 +30102,13 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D99" s="23">
         <v>25</v>
@@ -28652,10 +30150,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="R99" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="S99" s="20">
         <v>1100</v>
@@ -28681,13 +30179,13 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D100" s="23">
         <v>25</v>
@@ -28729,10 +30227,10 @@
         <v>0</v>
       </c>
       <c r="Q100" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="R100" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="S100" s="20">
         <v>1100</v>
@@ -28758,13 +30256,13 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D101" s="23">
         <v>25</v>
@@ -28806,10 +30304,10 @@
         <v>0</v>
       </c>
       <c r="Q101" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="R101" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="S101" s="20">
         <v>1100</v>
@@ -28835,13 +30333,13 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D102" s="23">
         <v>26</v>
@@ -28883,10 +30381,10 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R102" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="S102" s="20">
         <v>1200</v>
@@ -28912,13 +30410,13 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>843</v>
-      </c>
       <c r="C103" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D103" s="23">
         <v>27</v>
@@ -28960,7 +30458,7 @@
         <v>0</v>
       </c>
       <c r="Q103" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="R103" t="s">
         <v>146</v>
@@ -28989,13 +30487,13 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>858</v>
-      </c>
       <c r="C104" s="12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D104" s="23">
         <v>27</v>
@@ -29037,7 +30535,7 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R104" t="s">
         <v>146</v>
@@ -29066,13 +30564,13 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="76" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B105" s="76" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C105" s="76" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D105" s="95">
         <v>28</v>
@@ -29114,10 +30612,10 @@
         <v>10</v>
       </c>
       <c r="Q105" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="S105" s="89">
         <v>1400</v>
@@ -29143,13 +30641,13 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="76" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B106" s="76" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C106" s="76" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D106" s="23">
         <v>29</v>
@@ -29191,10 +30689,10 @@
         <v>20</v>
       </c>
       <c r="Q106" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="R106" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="S106" s="89">
         <v>1500</v>
@@ -29220,13 +30718,13 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="76" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B107" s="76" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C107" s="76" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D107" s="23">
         <v>29</v>
@@ -29268,10 +30766,10 @@
         <v>20</v>
       </c>
       <c r="Q107" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R107" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="S107" s="89">
         <v>1500</v>
@@ -29297,13 +30795,13 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="74" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B108" s="74" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C108" s="74" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D108" s="23">
         <v>30</v>
@@ -29345,10 +30843,10 @@
         <v>20</v>
       </c>
       <c r="Q108" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="R108" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="S108" s="20">
         <v>1700</v>
@@ -29374,13 +30872,13 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="74" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B109" s="74" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C109" s="74" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D109" s="23">
         <v>29</v>
@@ -29422,10 +30920,10 @@
         <v>25</v>
       </c>
       <c r="Q109" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R109" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="S109" s="20">
         <v>1500</v>
@@ -29451,13 +30949,13 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D110" s="23">
         <v>30</v>
@@ -29499,10 +30997,10 @@
         <v>50</v>
       </c>
       <c r="Q110" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="R110" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="S110" s="20">
         <v>1700</v>
@@ -29528,13 +31026,13 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D111" s="23">
         <v>1</v>
@@ -29576,10 +31074,10 @@
         <v>99</v>
       </c>
       <c r="Q111" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R111" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="S111" s="20">
         <v>1</v>
@@ -29825,7 +31323,7 @@
         <v>0</v>
       </c>
       <c r="W114" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X114" s="57">
         <v>0</v>
@@ -29902,7 +31400,7 @@
         <v>0</v>
       </c>
       <c r="W115" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X115" s="57">
         <v>0</v>
@@ -30056,7 +31554,7 @@
         <v>0</v>
       </c>
       <c r="W117" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X117" s="57">
         <v>0</v>
@@ -30133,7 +31631,7 @@
         <v>0</v>
       </c>
       <c r="W118" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X118" s="57">
         <v>0</v>
@@ -30210,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="W119" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X119" s="57">
         <v>0</v>
@@ -30269,7 +31767,7 @@
         <v>0</v>
       </c>
       <c r="Q120" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="R120" t="s">
         <v>146</v>
@@ -30287,7 +31785,7 @@
         <v>0</v>
       </c>
       <c r="W120" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X120" s="57">
         <v>0</v>
@@ -30423,7 +31921,7 @@
         <v>50</v>
       </c>
       <c r="Q122" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R122" t="s">
         <v>432</v>
@@ -30441,7 +31939,7 @@
         <v>0</v>
       </c>
       <c r="W122" s="75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X122" s="57">
         <v>1</v>
@@ -30518,7 +32016,7 @@
         <v>0</v>
       </c>
       <c r="W123" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X123" s="57">
         <v>0</v>
@@ -30595,7 +32093,7 @@
         <v>0</v>
       </c>
       <c r="W124" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X124" s="57">
         <v>0</v>
@@ -30654,7 +32152,7 @@
         <v>0</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="R125" s="2" t="s">
         <v>146</v>
@@ -30672,7 +32170,7 @@
         <v>0</v>
       </c>
       <c r="W125" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X125" s="57">
         <v>0</v>
@@ -30731,7 +32229,7 @@
         <v>0</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="R126" s="2" t="s">
         <v>146</v>
@@ -30749,7 +32247,7 @@
         <v>0</v>
       </c>
       <c r="W126" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X126" s="57">
         <v>0</v>
@@ -30826,7 +32324,7 @@
         <v>0</v>
       </c>
       <c r="W127" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X127" s="57">
         <v>0</v>
@@ -30885,7 +32383,7 @@
         <v>0</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="R128" s="2" t="s">
         <v>146</v>
@@ -30903,7 +32401,7 @@
         <v>0</v>
       </c>
       <c r="W128" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X128" s="57">
         <v>0</v>
@@ -31039,7 +32537,7 @@
         <v>0</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R130" s="2" t="s">
         <v>146</v>
@@ -31376,13 +32874,13 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B135" t="s">
         <v>296</v>
       </c>
       <c r="C135" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D135" s="23">
         <v>16</v>
@@ -31424,7 +32922,7 @@
         <v>90</v>
       </c>
       <c r="Q135" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R135" t="s">
         <v>146</v>
@@ -31453,13 +32951,13 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D136" s="23">
         <v>19</v>
@@ -31501,10 +32999,10 @@
         <v>90</v>
       </c>
       <c r="Q136" t="s">
+        <v>742</v>
+      </c>
+      <c r="R136" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="R136" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="S136" s="20">
         <v>5000</v>
@@ -31530,13 +33028,13 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C137" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D137" s="23">
         <v>20</v>
@@ -31578,7 +33076,7 @@
         <v>0</v>
       </c>
       <c r="Q137" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="R137" t="s">
         <v>146</v>
@@ -31607,13 +33105,13 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D138" s="23">
         <v>20</v>
@@ -31655,10 +33153,10 @@
         <v>75</v>
       </c>
       <c r="Q138" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R138" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="S138" s="20">
         <v>10000</v>
@@ -31673,7 +33171,7 @@
         <v>0</v>
       </c>
       <c r="W138" s="75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X138" s="57">
         <v>1</v>
@@ -31684,13 +33182,13 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>296</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D139" s="23">
         <v>21</v>
@@ -31732,7 +33230,7 @@
         <v>90</v>
       </c>
       <c r="Q139" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R139" s="2" t="s">
         <v>146</v>
@@ -31761,7 +33259,7 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B140" t="s">
         <v>316</v>
@@ -31827,7 +33325,7 @@
         <v>0</v>
       </c>
       <c r="W140" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X140" s="57">
         <v>0</v>
@@ -31838,7 +33336,7 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B141" t="s">
         <v>322</v>
@@ -31904,7 +33402,7 @@
         <v>0</v>
       </c>
       <c r="W141" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X141" s="57">
         <v>0</v>
@@ -31915,7 +33413,7 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B142" t="s">
         <v>500</v>
@@ -31981,7 +33479,7 @@
         <v>0</v>
       </c>
       <c r="W142" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X142" s="57">
         <v>0</v>
@@ -31992,7 +33490,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B143" t="s">
         <v>448</v>
@@ -32058,7 +33556,7 @@
         <v>0</v>
       </c>
       <c r="W143" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X143" s="57">
         <v>0</v>
@@ -32069,13 +33567,13 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D144" s="23">
         <v>16</v>
@@ -32117,10 +33615,10 @@
         <v>0</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="S144" s="20">
         <v>590</v>
@@ -32135,7 +33633,7 @@
         <v>0</v>
       </c>
       <c r="W144" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X144" s="57">
         <v>0</v>
@@ -32146,13 +33644,13 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D145" s="23">
         <v>20</v>
@@ -32194,10 +33692,10 @@
         <v>0</v>
       </c>
       <c r="Q145" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R145" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S145" s="20">
         <v>800</v>
@@ -32212,7 +33710,7 @@
         <v>0</v>
       </c>
       <c r="W145" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X145" s="57">
         <v>0</v>
@@ -32223,13 +33721,13 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D146" s="23">
         <v>21</v>
@@ -32300,13 +33798,13 @@
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B147" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D147" s="23">
         <v>22</v>
@@ -32377,13 +33875,13 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="B148" t="s">
         <v>787</v>
       </c>
-      <c r="B148" t="s">
-        <v>788</v>
-      </c>
       <c r="C148" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D148" s="23">
         <v>23</v>
@@ -32443,7 +33941,7 @@
         <v>6250</v>
       </c>
       <c r="W148" s="75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X148" s="57">
         <v>0</v>
@@ -32454,13 +33952,13 @@
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D149" s="23">
         <v>25</v>
@@ -32502,10 +34000,10 @@
         <v>0</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="R149" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S149" s="20">
         <v>7000</v>
@@ -32531,13 +34029,13 @@
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>296</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D150" s="23">
         <v>26</v>
@@ -32579,7 +34077,7 @@
         <v>90</v>
       </c>
       <c r="Q150" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R150" t="s">
         <v>146</v>
@@ -32608,13 +34106,13 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>992</v>
       </c>
-      <c r="B151" s="13" t="s">
-        <v>993</v>
-      </c>
       <c r="C151" s="12" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D151" s="23">
         <v>30</v>
@@ -32656,10 +34154,10 @@
         <v>25</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R151" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="S151" s="20">
         <v>20000</v>
@@ -32674,7 +34172,7 @@
         <v>50</v>
       </c>
       <c r="W151" s="75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X151" s="57">
         <v>1</v>
@@ -32685,13 +34183,13 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D152" s="23">
         <v>30</v>
@@ -32733,7 +34231,7 @@
         <v>10</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R152" t="s">
         <v>146</v>
@@ -32762,13 +34260,13 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D153" s="23">
         <v>30</v>
@@ -32810,7 +34308,7 @@
         <v>0</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R153" t="s">
         <v>146</v>
@@ -32839,13 +34337,13 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D154" s="23">
         <v>30</v>
@@ -32887,7 +34385,7 @@
         <v>0</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R154" t="s">
         <v>146</v>
@@ -32916,13 +34414,13 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D155" s="23">
         <v>30</v>
@@ -32964,7 +34462,7 @@
         <v>0</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R155" t="s">
         <v>146</v>
@@ -32993,13 +34491,13 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D156" s="23">
         <v>30</v>
@@ -33041,7 +34539,7 @@
         <v>0</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R156" t="s">
         <v>146</v>
@@ -33070,13 +34568,13 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D157" s="23">
         <v>30</v>
@@ -33118,7 +34616,7 @@
         <v>0</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R157" t="s">
         <v>146</v>
@@ -33147,13 +34645,13 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D158" s="23">
         <v>30</v>
@@ -33195,7 +34693,7 @@
         <v>0</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R158" t="s">
         <v>146</v>
@@ -33224,13 +34722,13 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D159" s="23">
         <v>30</v>
@@ -33272,7 +34770,7 @@
         <v>0</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R159" t="s">
         <v>146</v>
@@ -33301,13 +34799,13 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D160" s="23">
         <v>30</v>
@@ -33349,7 +34847,7 @@
         <v>0</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R160" t="s">
         <v>146</v>
@@ -33378,10 +34876,10 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>607</v>
@@ -33444,7 +34942,7 @@
         <v>100</v>
       </c>
       <c r="W161" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X161" s="57">
         <v>0</v>
@@ -33455,13 +34953,13 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D162" s="23">
         <v>27</v>
@@ -33503,7 +35001,7 @@
         <v>0</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="R162" s="2" t="s">
         <v>146</v>
@@ -33521,7 +35019,7 @@
         <v>100</v>
       </c>
       <c r="W162" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X162" s="57">
         <v>0</v>
@@ -33532,13 +35030,13 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D163" s="23">
         <v>27</v>
@@ -33580,7 +35078,7 @@
         <v>0</v>
       </c>
       <c r="Q163" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="R163" s="2" t="s">
         <v>146</v>
@@ -33598,7 +35096,7 @@
         <v>100</v>
       </c>
       <c r="W163" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X163" s="57">
         <v>0</v>
@@ -33609,10 +35107,10 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>577</v>
@@ -33675,7 +35173,7 @@
         <v>100</v>
       </c>
       <c r="W164" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X164" s="57">
         <v>0</v>
@@ -33686,13 +35184,13 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D165" s="23">
         <v>28</v>
@@ -33734,7 +35232,7 @@
         <v>10</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="R165" s="2" t="s">
         <v>146</v>
@@ -33752,7 +35250,7 @@
         <v>100</v>
       </c>
       <c r="W165" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X165" s="57">
         <v>0</v>
@@ -33763,13 +35261,13 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D166" s="23">
         <v>33</v>
@@ -33811,7 +35309,7 @@
         <v>10</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="R166" s="2" t="s">
         <v>146</v>
@@ -33829,7 +35327,7 @@
         <v>100</v>
       </c>
       <c r="W166" s="75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X166" s="57">
         <v>0</v>
@@ -33840,13 +35338,13 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D167" s="23">
         <v>33</v>
@@ -33888,7 +35386,7 @@
         <v>10</v>
       </c>
       <c r="Q167" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R167" s="2" t="s">
         <v>146</v>
@@ -33906,7 +35404,7 @@
         <v>100</v>
       </c>
       <c r="W167" s="75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X167" s="57">
         <v>0</v>
@@ -33917,13 +35415,13 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D168" s="23">
         <v>33</v>
@@ -33965,7 +35463,7 @@
         <v>10</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="R168" s="2" t="s">
         <v>146</v>
@@ -33983,7 +35481,7 @@
         <v>100</v>
       </c>
       <c r="W168" s="75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X168" s="57">
         <v>0</v>
@@ -33994,13 +35492,13 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D169" s="23">
         <v>33</v>
@@ -34042,7 +35540,7 @@
         <v>10</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="R169" s="2" t="s">
         <v>146</v>
@@ -34060,7 +35558,7 @@
         <v>100</v>
       </c>
       <c r="W169" s="75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X169" s="57">
         <v>0</v>
@@ -34071,7 +35569,7 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B170" t="s">
         <v>342</v>
@@ -34137,7 +35635,7 @@
         <v>0</v>
       </c>
       <c r="W170" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X170" s="57">
         <v>0</v>
@@ -34148,7 +35646,7 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B171" t="s">
         <v>312</v>
@@ -34214,7 +35712,7 @@
         <v>0</v>
       </c>
       <c r="W171" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X171" s="57">
         <v>0</v>
@@ -34225,7 +35723,7 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B172" t="s">
         <v>367</v>
@@ -34291,7 +35789,7 @@
         <v>0</v>
       </c>
       <c r="W172" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X172" s="57">
         <v>0</v>
@@ -34302,7 +35800,7 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B173" t="s">
         <v>306</v>
@@ -34368,7 +35866,7 @@
         <v>0</v>
       </c>
       <c r="W173" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X173" s="57">
         <v>0</v>
@@ -34379,7 +35877,7 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B174" t="s">
         <v>512</v>
@@ -34445,7 +35943,7 @@
         <v>0</v>
       </c>
       <c r="W174" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X174" s="57">
         <v>0</v>
@@ -34456,7 +35954,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B175" t="s">
         <v>542</v>
@@ -34522,7 +36020,7 @@
         <v>0</v>
       </c>
       <c r="W175" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X175" s="57">
         <v>0</v>
@@ -34533,7 +36031,7 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B176" s="12" t="s">
         <v>578</v>
@@ -34581,7 +36079,7 @@
         <v>0</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R176" s="2" t="s">
         <v>146</v>
@@ -34599,7 +36097,7 @@
         <v>0</v>
       </c>
       <c r="W176" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X176" s="57">
         <v>0</v>
@@ -34610,13 +36108,13 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D177" s="23">
         <v>22</v>
@@ -34658,7 +36156,7 @@
         <v>0</v>
       </c>
       <c r="Q177" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R177" t="s">
         <v>146</v>
@@ -34676,7 +36174,7 @@
         <v>0</v>
       </c>
       <c r="W177" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X177" s="57">
         <v>0</v>
@@ -34687,7 +36185,7 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B178" s="12" t="s">
         <v>574</v>
@@ -34753,7 +36251,7 @@
         <v>0</v>
       </c>
       <c r="W178" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X178" s="57">
         <v>0</v>
@@ -34764,13 +36262,13 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D179" s="23">
         <v>18</v>
@@ -34812,10 +36310,10 @@
         <v>0</v>
       </c>
       <c r="Q179" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R179" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S179" s="20">
         <v>660</v>
@@ -34830,7 +36328,7 @@
         <v>0</v>
       </c>
       <c r="W179" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X179" s="57">
         <v>0</v>
@@ -34841,13 +36339,13 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D180" s="23">
         <v>23</v>
@@ -34889,10 +36387,10 @@
         <v>0</v>
       </c>
       <c r="Q180" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R180" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="S180" s="20">
         <v>910</v>
@@ -34907,7 +36405,7 @@
         <v>0</v>
       </c>
       <c r="W180" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X180" s="57">
         <v>0</v>
@@ -34984,7 +36482,7 @@
         <v>0</v>
       </c>
       <c r="W181" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X181" s="57">
         <v>0</v>
@@ -34995,13 +36493,13 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D182" s="23">
         <v>27</v>
@@ -35043,10 +36541,10 @@
         <v>25</v>
       </c>
       <c r="Q182" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="S182" s="20">
         <v>1300</v>
@@ -35072,13 +36570,13 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D183" s="23">
         <v>35</v>
@@ -35120,10 +36618,10 @@
         <v>0</v>
       </c>
       <c r="Q183" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="R183" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="S183" s="20">
         <v>9000</v>
@@ -35149,13 +36647,13 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D184" s="23">
         <v>35</v>
@@ -35197,10 +36695,10 @@
         <v>50</v>
       </c>
       <c r="Q184" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="R184" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="S184" s="20">
         <v>9000</v>
@@ -35226,13 +36724,13 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D185" s="23">
         <v>35</v>
@@ -35274,10 +36772,10 @@
         <v>50</v>
       </c>
       <c r="Q185" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R185" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="S185" s="20">
         <v>9000</v>
@@ -35303,13 +36801,13 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D186" s="23">
         <v>34</v>
@@ -35351,10 +36849,10 @@
         <v>50</v>
       </c>
       <c r="Q186" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R186" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="S186" s="20">
         <v>8000</v>
@@ -35380,13 +36878,13 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D187" s="23">
         <v>34</v>
@@ -35428,10 +36926,10 @@
         <v>25</v>
       </c>
       <c r="Q187" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="R187" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="S187" s="20">
         <v>8000</v>
@@ -35457,13 +36955,13 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D188" s="23">
         <v>34</v>
@@ -35505,10 +37003,10 @@
         <v>25</v>
       </c>
       <c r="Q188" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R188" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="S188" s="20">
         <v>8000</v>
@@ -35534,13 +37032,13 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D189" s="23">
         <v>33</v>
@@ -35582,10 +37080,10 @@
         <v>50</v>
       </c>
       <c r="Q189" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="R189" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="S189" s="20">
         <v>7000</v>
@@ -35611,13 +37109,13 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D190" s="23">
         <v>33</v>
@@ -35659,10 +37157,10 @@
         <v>25</v>
       </c>
       <c r="Q190" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="R190" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="S190" s="20">
         <v>7000</v>
@@ -35688,13 +37186,13 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D191" s="23">
         <v>33</v>
@@ -35736,10 +37234,10 @@
         <v>0</v>
       </c>
       <c r="Q191" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R191" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="S191" s="20">
         <v>7000</v>
@@ -35765,13 +37263,13 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D192" s="23">
         <v>32</v>
@@ -35813,10 +37311,10 @@
         <v>75</v>
       </c>
       <c r="Q192" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="R192" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="S192" s="20">
         <v>6000</v>
@@ -35842,13 +37340,13 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D193" s="23">
         <v>32</v>
@@ -35890,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="Q193" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="R193" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="S193" s="20">
         <v>6000</v>
@@ -35919,13 +37417,13 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D194" s="23">
         <v>32</v>
@@ -35967,10 +37465,10 @@
         <v>25</v>
       </c>
       <c r="Q194" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="R194" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="S194" s="20">
         <v>6000</v>
@@ -35996,13 +37494,13 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D195" s="23">
         <v>31</v>
@@ -36044,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="Q195" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="R195" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="S195" s="20">
         <v>5000</v>
@@ -36073,13 +37571,13 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D196" s="23">
         <v>31</v>
@@ -36121,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="Q196" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R196" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="S196" s="20">
         <v>5000</v>
@@ -36150,13 +37648,13 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D197" s="23">
         <v>31</v>
@@ -36198,10 +37696,10 @@
         <v>0</v>
       </c>
       <c r="Q197" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R197" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="S197" s="20">
         <v>5000</v>
@@ -36227,13 +37725,13 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D198" s="23">
         <v>35</v>
@@ -36275,7 +37773,7 @@
         <v>50</v>
       </c>
       <c r="Q198" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R198" t="s">
         <v>146</v>
@@ -36304,13 +37802,13 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D199" s="23">
         <v>35</v>
@@ -36352,7 +37850,7 @@
         <v>0</v>
       </c>
       <c r="Q199" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R199" t="s">
         <v>146</v>
@@ -36381,13 +37879,13 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D200" s="23">
         <v>36</v>
@@ -36429,10 +37927,10 @@
         <v>100</v>
       </c>
       <c r="Q200" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="R200" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="S200" s="20">
         <v>30000</v>
@@ -36447,7 +37945,7 @@
         <v>2</v>
       </c>
       <c r="W200" s="75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X200" s="57">
         <v>0</v>
@@ -36458,13 +37956,13 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D201" s="23">
         <v>36</v>
@@ -36506,10 +38004,10 @@
         <v>50</v>
       </c>
       <c r="Q201" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R201" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="S201" s="20">
         <v>30000</v>
@@ -36524,7 +38022,7 @@
         <v>2</v>
       </c>
       <c r="W201" s="75" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X201" s="57">
         <v>0</v>
@@ -36535,13 +38033,13 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D202" s="23">
         <v>37</v>
@@ -36583,7 +38081,7 @@
         <v>90</v>
       </c>
       <c r="Q202" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R202" t="s">
         <v>146</v>
@@ -36601,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="W202" s="75" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="X202" s="57">
         <v>0</v>
@@ -36612,13 +38110,13 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D203" s="23">
         <v>1</v>
@@ -36660,7 +38158,7 @@
         <v>0</v>
       </c>
       <c r="Q203" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="R203" t="s">
         <v>146</v>
@@ -36689,13 +38187,13 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D204" s="23">
         <v>20</v>
@@ -36767,13 +38265,13 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D205" s="23">
         <v>4</v>
@@ -36844,13 +38342,13 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D206" s="23">
         <v>30</v>
@@ -36892,10 +38390,10 @@
         <v>50</v>
       </c>
       <c r="Q206" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="R206" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="S206" s="20">
         <v>1700</v>
@@ -36921,13 +38419,13 @@
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B207" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C207" s="13" t="s">
         <v>1175</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>1176</v>
       </c>
       <c r="D207" s="23">
         <v>15</v>
@@ -36969,10 +38467,10 @@
         <v>100</v>
       </c>
       <c r="Q207" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="R207" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="S207" s="20">
         <v>550</v>
@@ -36998,13 +38496,13 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D208" s="23">
         <v>15</v>
@@ -37046,10 +38544,10 @@
         <v>100</v>
       </c>
       <c r="Q208" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="R208" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="S208" s="20">
         <v>550</v>
@@ -37075,13 +38573,13 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D209" s="23">
         <v>15</v>
@@ -37123,10 +38621,10 @@
         <v>100</v>
       </c>
       <c r="Q209" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="R209" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="S209" s="20">
         <v>550</v>
@@ -37152,13 +38650,13 @@
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D210" s="23">
         <v>20</v>
@@ -37200,10 +38698,10 @@
         <v>50</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R210" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S210" s="20">
         <v>800</v>
@@ -37229,13 +38727,13 @@
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D211" s="23">
         <v>21</v>
@@ -37277,7 +38775,7 @@
         <v>0</v>
       </c>
       <c r="Q211" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="R211" t="s">
         <v>146</v>
@@ -37306,13 +38804,13 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D212" s="23">
         <v>23</v>
@@ -37354,7 +38852,7 @@
         <v>0</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="R212" t="s">
         <v>146</v>
@@ -37383,13 +38881,13 @@
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D213" s="23">
         <v>24</v>
@@ -37431,7 +38929,7 @@
         <v>50</v>
       </c>
       <c r="Q213" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="R213" t="s">
         <v>146</v>
@@ -37460,13 +38958,13 @@
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D214" s="23">
         <v>26</v>
@@ -37508,10 +39006,10 @@
         <v>25</v>
       </c>
       <c r="Q214" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="R214" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="S214" s="20">
         <v>1200</v>
@@ -37537,13 +39035,13 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D215" s="23">
         <v>24</v>
@@ -37585,7 +39083,7 @@
         <v>50</v>
       </c>
       <c r="Q215" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="R215" t="s">
         <v>146</v>
@@ -37614,13 +39112,13 @@
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D216" s="23">
         <v>25</v>
@@ -37662,7 +39160,7 @@
         <v>0</v>
       </c>
       <c r="Q216" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="R216" t="s">
         <v>146</v>
@@ -37691,13 +39189,13 @@
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D217" s="23">
         <v>24</v>
@@ -37739,10 +39237,10 @@
         <v>0</v>
       </c>
       <c r="Q217" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R217" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="S217" s="20">
         <v>1000</v>
@@ -37768,13 +39266,13 @@
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D218" s="23">
         <v>26</v>
@@ -37816,7 +39314,7 @@
         <v>0</v>
       </c>
       <c r="Q218" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="R218" t="s">
         <v>146</v>
@@ -37845,13 +39343,13 @@
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D219" s="23">
         <v>27</v>
@@ -37893,10 +39391,10 @@
         <v>0</v>
       </c>
       <c r="Q219" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R219" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="S219" s="20">
         <v>1300</v>
@@ -37922,13 +39420,13 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D220" s="23">
         <v>30</v>
@@ -37970,10 +39468,10 @@
         <v>50</v>
       </c>
       <c r="Q220" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R220" t="s">
         <v>1275</v>
-      </c>
-      <c r="R220" t="s">
-        <v>1276</v>
       </c>
       <c r="S220" s="20">
         <v>1700</v>
@@ -37999,13 +39497,13 @@
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D221" s="23">
         <v>27</v>
@@ -38047,10 +39545,10 @@
         <v>25</v>
       </c>
       <c r="Q221" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R221" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="S221" s="20">
         <v>3000</v>
@@ -38076,13 +39574,13 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D222" s="23">
         <v>30</v>
@@ -38124,10 +39622,10 @@
         <v>100</v>
       </c>
       <c r="Q222" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="R222" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="S222" s="20">
         <v>4000</v>
@@ -38153,13 +39651,13 @@
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D223" s="23">
         <v>31</v>
@@ -38201,10 +39699,10 @@
         <v>50</v>
       </c>
       <c r="Q223" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="R223" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="S223" s="20">
         <v>5000</v>
@@ -38230,13 +39728,13 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D224" s="23">
         <v>35</v>
@@ -38278,10 +39776,10 @@
         <v>99</v>
       </c>
       <c r="Q224" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="R224" s="2" t="s">
         <v>1277</v>
-      </c>
-      <c r="R224" s="2" t="s">
-        <v>1278</v>
       </c>
       <c r="S224" s="20">
         <v>9000</v>
@@ -38307,13 +39805,13 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D225" s="23">
         <v>35</v>
@@ -38355,10 +39853,10 @@
         <v>0</v>
       </c>
       <c r="Q225" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="R225" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="S225" s="20">
         <v>100000</v>
@@ -38384,13 +39882,13 @@
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D226" s="23">
         <v>40</v>
@@ -38432,10 +39930,10 @@
         <v>0</v>
       </c>
       <c r="Q226" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="R226" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="S226" s="20">
         <v>200000</v>
@@ -38461,13 +39959,13 @@
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D227" s="23">
         <v>45</v>
@@ -38509,10 +40007,10 @@
         <v>0</v>
       </c>
       <c r="Q227" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="R227" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="S227" s="20">
         <v>300000</v>
@@ -38538,13 +40036,13 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B228" t="s">
         <v>429</v>
       </c>
       <c r="C228" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D228" s="23">
         <v>50</v>
@@ -38586,10 +40084,10 @@
         <v>25</v>
       </c>
       <c r="Q228" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="R228" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="S228" s="21">
         <v>500000</v>
@@ -38615,13 +40113,13 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D229" s="23">
         <v>60</v>
@@ -38663,7 +40161,7 @@
         <v>98</v>
       </c>
       <c r="Q229" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="R229" t="s">
         <v>146</v>
@@ -38681,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="W229" s="47" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="X229" s="57">
         <v>0</v>
@@ -38692,13 +40190,13 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D230" s="23">
         <v>35</v>
@@ -38743,7 +40241,7 @@
         <v>146</v>
       </c>
       <c r="R230" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S230" s="20">
         <v>0</v>
@@ -38769,13 +40267,13 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D231" s="23">
         <v>37</v>
@@ -38820,7 +40318,7 @@
         <v>146</v>
       </c>
       <c r="R231" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="S231" s="20">
         <v>0</v>
@@ -38846,13 +40344,13 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D232" s="23">
         <v>38</v>
@@ -38897,7 +40395,7 @@
         <v>146</v>
       </c>
       <c r="R232" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="S232" s="20">
         <v>0</v>
@@ -38923,13 +40421,13 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D233" s="23">
         <v>39</v>
@@ -38974,7 +40472,7 @@
         <v>146</v>
       </c>
       <c r="R233" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="S233" s="20">
         <v>0</v>
@@ -39000,13 +40498,13 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C234" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D234" s="23">
         <v>44</v>
@@ -39048,10 +40546,10 @@
         <v>0</v>
       </c>
       <c r="Q234" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="R234" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="S234" s="20">
         <v>0</v>
@@ -39077,13 +40575,13 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D235" s="23">
         <v>40</v>
@@ -39154,13 +40652,13 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D236" s="23">
         <v>41</v>
@@ -39205,7 +40703,7 @@
         <v>146</v>
       </c>
       <c r="R236" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="S236" s="20">
         <v>0</v>
@@ -39231,13 +40729,13 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D237" s="23">
         <v>42</v>
@@ -39282,7 +40780,7 @@
         <v>146</v>
       </c>
       <c r="R237" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="S237" s="20">
         <v>0</v>
@@ -39308,13 +40806,13 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D238" s="23">
         <v>43</v>
@@ -39359,7 +40857,7 @@
         <v>146</v>
       </c>
       <c r="R238" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="S238" s="20">
         <v>0</v>
@@ -39385,13 +40883,13 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D239" s="23">
         <v>44</v>
@@ -39436,7 +40934,7 @@
         <v>146</v>
       </c>
       <c r="R239" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="S239" s="20">
         <v>0</v>
@@ -39462,13 +40960,13 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D240" s="23">
         <v>45</v>
@@ -39513,7 +41011,7 @@
         <v>146</v>
       </c>
       <c r="R240" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="S240" s="20">
         <v>0</v>
@@ -39539,13 +41037,13 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D241" s="23">
         <v>45</v>
@@ -39590,7 +41088,7 @@
         <v>146</v>
       </c>
       <c r="R241" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="S241" s="20">
         <v>0</v>
@@ -39616,13 +41114,13 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D242" s="23">
         <v>45</v>
@@ -39667,7 +41165,7 @@
         <v>146</v>
       </c>
       <c r="R242" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="S242" s="20">
         <v>0</v>
@@ -39693,13 +41191,13 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D243" s="23">
         <v>46</v>
@@ -39744,7 +41242,7 @@
         <v>146</v>
       </c>
       <c r="R243" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="S243" s="20">
         <v>0</v>
@@ -39770,13 +41268,13 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D244" s="23">
         <v>72</v>
@@ -39821,7 +41319,7 @@
         <v>146</v>
       </c>
       <c r="R244" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="S244" s="20">
         <v>0</v>
@@ -39836,7 +41334,7 @@
         <v>0</v>
       </c>
       <c r="W244" s="47" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="X244" s="57">
         <v>1</v>
@@ -39847,13 +41345,13 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D245" s="23">
         <v>74</v>
@@ -39913,7 +41411,7 @@
         <v>0</v>
       </c>
       <c r="W245" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="X245" s="57">
         <v>1</v>
@@ -39924,13 +41422,13 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="12" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B246" s="12" t="s">
         <v>1312</v>
       </c>
-      <c r="B246" s="12" t="s">
-        <v>1313</v>
-      </c>
       <c r="C246" s="12" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D246" s="23">
         <v>24</v>
@@ -39972,10 +41470,10 @@
         <v>50</v>
       </c>
       <c r="Q246" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="R246" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="S246" s="20">
         <v>10</v>
@@ -40001,13 +41499,13 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="12" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D247" s="23">
         <v>22</v>
@@ -40049,10 +41547,10 @@
         <v>25</v>
       </c>
       <c r="Q247" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="R247" t="s">
         <v>1391</v>
-      </c>
-      <c r="R247" t="s">
-        <v>1393</v>
       </c>
       <c r="S247" s="20">
         <v>900</v>
@@ -40074,6 +41572,83 @@
       </c>
       <c r="Y247" s="43">
         <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A248" s="12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D248" s="23">
+        <v>6</v>
+      </c>
+      <c r="E248" s="33">
+        <v>150</v>
+      </c>
+      <c r="F248" s="35">
+        <v>150</v>
+      </c>
+      <c r="G248" s="41">
+        <v>0</v>
+      </c>
+      <c r="H248" s="25">
+        <v>100</v>
+      </c>
+      <c r="I248" s="24">
+        <v>0</v>
+      </c>
+      <c r="J248" s="34">
+        <v>200</v>
+      </c>
+      <c r="K248" s="26">
+        <v>0</v>
+      </c>
+      <c r="L248" s="27">
+        <v>0</v>
+      </c>
+      <c r="M248" s="17">
+        <v>-100</v>
+      </c>
+      <c r="N248" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O248" s="29">
+        <v>-100</v>
+      </c>
+      <c r="P248" s="18">
+        <v>-100</v>
+      </c>
+      <c r="Q248" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="R248" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="S248" s="21">
+        <v>100</v>
+      </c>
+      <c r="T248" s="32">
+        <v>2</v>
+      </c>
+      <c r="U248" s="39">
+        <v>1</v>
+      </c>
+      <c r="V248" s="37">
+        <v>0</v>
+      </c>
+      <c r="W248" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="X248" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y248" s="43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -4325,9 +4325,6 @@
     <t>{'Kills': ('Border Guard', 5)}</t>
   </si>
   <si>
-    <t>Kill 5 Border Guards for Bartender Zhang in Pristina.</t>
-  </si>
-  <si>
     <t>Business as Usual</t>
   </si>
   <si>
@@ -4772,15 +4769,6 @@
     <t>A Sword for an Oseku</t>
   </si>
   <si>
-    <t>Bring an Espadon to Qendresa in Pec.</t>
-  </si>
-  <si>
-    <t>Bring a Steel Cuirass to Qendresa in Pec.</t>
-  </si>
-  <si>
-    <t>Find and return the Oseku Shield to Qendresa in Pec.</t>
-  </si>
-  <si>
     <t>Suited in Steel</t>
   </si>
   <si>
@@ -4857,6 +4845,18 @@
   </si>
   <si>
     <t>{'No Criteria': True}</t>
+  </si>
+  <si>
+    <t>Kill 5 Rogue Guards for Bartender Zhang in Pristina.</t>
+  </si>
+  <si>
+    <t>Bring an Espadon to the woman in Pec.</t>
+  </si>
+  <si>
+    <t>Bring a Steel Cuirass to the woman in Pec.</t>
+  </si>
+  <si>
+    <t>Find the lost Oseku Shield somewhere in Albania and return it to the woman in Pec.</t>
   </si>
 </sst>
 </file>
@@ -6044,11 +6044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127630336"/>
-        <c:axId val="127660800"/>
+        <c:axId val="147122048"/>
+        <c:axId val="147123584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127630336"/>
+        <c:axId val="147122048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6058,7 +6058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127660800"/>
+        <c:crossAx val="147123584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6066,7 +6066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127660800"/>
+        <c:axId val="147123584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -6078,7 +6078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127630336"/>
+        <c:crossAx val="147122048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6769,11 +6769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128038016"/>
-        <c:axId val="128039936"/>
+        <c:axId val="146759680"/>
+        <c:axId val="146761600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128038016"/>
+        <c:axId val="146759680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6801,7 +6801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128039936"/>
+        <c:crossAx val="146761600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6811,7 +6811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128039936"/>
+        <c:axId val="146761600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6822,7 +6822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128038016"/>
+        <c:crossAx val="146759680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9456,7 +9456,7 @@
         <v>157</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D43" s="64">
         <v>10</v>
@@ -9552,7 +9552,7 @@
         <v>167</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D46" s="64">
         <v>15</v>
@@ -9648,7 +9648,7 @@
         <v>157</v>
       </c>
       <c r="C49" s="64" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D49" s="64">
         <v>30</v>
@@ -9712,7 +9712,7 @@
         <v>171</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D51" s="64">
         <v>50</v>
@@ -13066,7 +13066,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B156" s="12" t="s">
         <v>249</v>
@@ -13090,7 +13090,7 @@
         <v>146</v>
       </c>
       <c r="I156" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="J156" t="s">
         <v>155</v>
@@ -13098,13 +13098,13 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -13122,7 +13122,7 @@
         <v>146</v>
       </c>
       <c r="I157" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="J157" t="s">
         <v>155</v>
@@ -17467,7 +17467,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B16" s="43">
         <v>600</v>
@@ -18830,7 +18830,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B63" s="43">
         <v>1225</v>
@@ -18848,7 +18848,7 @@
         <v>125</v>
       </c>
       <c r="G63" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H63">
         <v>10</v>
@@ -20002,7 +20002,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="B57" s="43">
         <v>1225</v>
@@ -21099,13 +21099,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B8" s="43">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>1490</v>
-      </c>
-      <c r="B8" s="43">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>1491</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -21170,7 +21170,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -21297,7 +21297,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G49"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21327,10 +21327,10 @@
         <v>1363</v>
       </c>
       <c r="F1" s="98" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G1" s="98" t="s">
         <v>1558</v>
-      </c>
-      <c r="G1" s="98" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -21338,7 +21338,7 @@
         <v>1370</v>
       </c>
       <c r="B2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C2" t="s">
         <v>1372</v>
@@ -21361,7 +21361,7 @@
         <v>1371</v>
       </c>
       <c r="B3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C3" t="s">
         <v>1373</v>
@@ -21381,10 +21381,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C4" t="s">
         <v>1374</v>
@@ -21456,7 +21456,7 @@
         <v>1394</v>
       </c>
       <c r="C7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D7" t="s">
         <v>1397</v>
@@ -21542,10 +21542,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B11" t="s">
-        <v>1432</v>
+        <v>1606</v>
       </c>
       <c r="C11" t="s">
         <v>1431</v>
@@ -21565,13 +21565,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B12" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C12" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D12" t="s">
         <v>1427</v>
@@ -21588,13 +21588,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B13" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C13" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D13" t="s">
         <v>1429</v>
@@ -21611,19 +21611,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B14" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C14" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D14" t="s">
         <v>1369</v>
       </c>
       <c r="E14" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F14" s="98">
         <v>0</v>
@@ -21640,7 +21640,7 @@
         <v>1404</v>
       </c>
       <c r="C15" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D15" t="s">
         <v>411</v>
@@ -21657,19 +21657,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B16" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C16" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D16" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E16" t="s">
         <v>1462</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1463</v>
       </c>
       <c r="F16" s="98">
         <v>0</v>
@@ -21680,19 +21680,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B17" t="s">
         <v>1465</v>
       </c>
-      <c r="B17" t="s">
-        <v>1466</v>
-      </c>
       <c r="C17" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D17" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E17" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="F17" s="98">
         <v>0</v>
@@ -21703,19 +21703,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B18" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E18" t="s">
         <v>1469</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1470</v>
       </c>
       <c r="F18" s="98">
         <v>0</v>
@@ -21732,7 +21732,7 @@
         <v>1409</v>
       </c>
       <c r="C19" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D19" t="s">
         <v>1406</v>
@@ -21749,19 +21749,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B20" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C20" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D20" t="s">
         <v>1407</v>
       </c>
       <c r="E20" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F20" s="98">
         <v>0</v>
@@ -21772,19 +21772,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B21" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C21" t="s">
         <v>1452</v>
       </c>
-      <c r="C21" t="s">
-        <v>1453</v>
-      </c>
       <c r="D21" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E21" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F21" s="98">
         <v>0</v>
@@ -21795,19 +21795,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B22" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C22" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D22" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E22" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F22" s="98">
         <v>0</v>
@@ -21818,19 +21818,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E23" t="s">
         <v>1457</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1458</v>
       </c>
       <c r="F23" s="98">
         <v>0</v>
@@ -21841,19 +21841,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B24" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E24" t="s">
         <v>1475</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1476</v>
       </c>
       <c r="F24" s="98">
         <v>0</v>
@@ -21864,19 +21864,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B25" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C25" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D25" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E25" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F25" s="98">
         <v>0</v>
@@ -21887,19 +21887,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D26" t="s">
         <v>1483</v>
       </c>
-      <c r="B26" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1484</v>
-      </c>
       <c r="E26" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F26" s="98">
         <v>0</v>
@@ -21910,19 +21910,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B27" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C27" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D27" t="s">
         <v>1486</v>
       </c>
-      <c r="D27" t="s">
-        <v>1487</v>
-      </c>
       <c r="E27" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F27" s="98">
         <v>0</v>
@@ -21933,19 +21933,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C28" t="s">
         <v>1499</v>
       </c>
-      <c r="B28" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1500</v>
-      </c>
       <c r="D28" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E28" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F28" s="98">
         <v>0</v>
@@ -21956,19 +21956,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B29" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C29" t="s">
         <v>1495</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E29" t="s">
         <v>1496</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1497</v>
       </c>
       <c r="F29" s="98">
         <v>0</v>
@@ -21979,19 +21979,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B30" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C30" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D30" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E30" t="s">
         <v>1503</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1504</v>
       </c>
       <c r="F30" s="98">
         <v>0</v>
@@ -22002,19 +22002,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B31" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C31" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D31" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E31" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F31" s="98">
         <v>0</v>
@@ -22025,19 +22025,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B32" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C32" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D32" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E32" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F32" s="98">
         <v>0</v>
@@ -22048,19 +22048,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B33" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C33" t="s">
         <v>1382</v>
       </c>
       <c r="D33" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E33" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F33" s="98">
         <v>0</v>
@@ -22077,10 +22077,10 @@
         <v>1381</v>
       </c>
       <c r="C34" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D34" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E34" t="s">
         <v>1380</v>
@@ -22094,19 +22094,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B35" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C35" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D35" t="s">
         <v>1380</v>
       </c>
       <c r="E35" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F35" s="98">
         <v>0</v>
@@ -22117,19 +22117,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B36" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C36" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D36" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E36" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F36" s="98">
         <v>0</v>
@@ -22140,19 +22140,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B37" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C37" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D37" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E37" t="s">
         <v>1535</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1536</v>
       </c>
       <c r="F37" s="98">
         <v>0</v>
@@ -22163,19 +22163,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D38" t="s">
         <v>1540</v>
       </c>
-      <c r="B38" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>1541</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1542</v>
       </c>
       <c r="F38" s="98">
         <v>0</v>
@@ -22186,19 +22186,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D39" t="s">
         <v>1544</v>
       </c>
-      <c r="B39" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>1545</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1546</v>
       </c>
       <c r="F39" s="98">
         <v>0</v>
@@ -22209,19 +22209,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B40" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C40" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D40" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E40" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F40" s="98">
         <v>0</v>
@@ -22255,19 +22255,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B42" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="C42" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D42" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E42" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F42" s="98">
         <v>1</v>
@@ -22278,19 +22278,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D43" t="s">
         <v>1552</v>
       </c>
-      <c r="B43" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>1553</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1554</v>
       </c>
       <c r="F43" s="98">
         <v>1</v>
@@ -22301,19 +22301,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B44" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E44" t="s">
         <v>1560</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1561</v>
       </c>
       <c r="F44" s="98">
         <v>1</v>
@@ -22324,19 +22324,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="B45" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C45" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D45" t="s">
         <v>1565</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>1566</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1567</v>
       </c>
       <c r="F45" s="98">
         <v>1</v>
@@ -22347,19 +22347,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B46" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C46" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D46" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E46" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F46" s="98">
         <v>1</v>
@@ -22370,19 +22370,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B47" t="s">
-        <v>1581</v>
+        <v>1607</v>
       </c>
       <c r="C47" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D47" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E47" t="s">
         <v>1572</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1573</v>
       </c>
       <c r="F47" s="98">
         <v>0</v>
@@ -22393,19 +22393,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="B48" t="s">
-        <v>1582</v>
+        <v>1608</v>
       </c>
       <c r="C48" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D48" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E48" t="s">
         <v>1573</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1574</v>
       </c>
       <c r="F48" s="98">
         <v>0</v>
@@ -22416,19 +22416,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B49" t="s">
-        <v>1583</v>
+        <v>1609</v>
       </c>
       <c r="C49" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D49" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E49" t="s">
         <v>1574</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1575</v>
       </c>
       <c r="F49" s="98">
         <v>0</v>
@@ -22439,19 +22439,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B50" t="s">
         <v>1588</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D50" t="s">
         <v>1592</v>
       </c>
-      <c r="C50" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1596</v>
-      </c>
       <c r="E50" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="F50" s="98">
         <v>0</v>
@@ -22462,19 +22462,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="B51" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D51" t="s">
         <v>1593</v>
       </c>
-      <c r="C51" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1597</v>
-      </c>
       <c r="E51" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="F51" s="98">
         <v>0</v>
@@ -22485,19 +22485,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="B52" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D52" t="s">
         <v>1594</v>
       </c>
-      <c r="C52" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1598</v>
-      </c>
       <c r="E52" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="F52" s="98">
         <v>0</v>
@@ -22519,10 +22519,10 @@
   <dimension ref="A1:Y248"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A248" sqref="A248"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41576,13 +41576,13 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D248" s="23">
         <v>6</v>
@@ -41624,10 +41624,10 @@
         <v>-100</v>
       </c>
       <c r="Q248" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="R248" s="2" t="s">
         <v>1510</v>
-      </c>
-      <c r="R248" s="2" t="s">
-        <v>1511</v>
       </c>
       <c r="S248" s="21">
         <v>100</v>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="7"/>
+    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1611">
   <si>
     <t>Club</t>
   </si>
@@ -4604,9 +4604,6 @@
     <t>Search the Greek Fortress for clues about Macedonia.</t>
   </si>
   <si>
-    <t>Delve Into Darkness</t>
-  </si>
-  <si>
     <t>Liberation</t>
   </si>
   <si>
@@ -4766,18 +4763,12 @@
     <t>Coat of Arms</t>
   </si>
   <si>
-    <t>A Sword for an Oseku</t>
-  </si>
-  <si>
     <t>Suited in Steel</t>
   </si>
   <si>
     <t>Punched to Perfection</t>
   </si>
   <si>
-    <t>A Blade of Ice and Fire</t>
-  </si>
-  <si>
     <t>Moved Boulders</t>
   </si>
   <si>
@@ -4787,9 +4778,6 @@
     <t>Melted Ice</t>
   </si>
   <si>
-    <t>Ice Block</t>
-  </si>
-  <si>
     <t>Plugged Geyser</t>
   </si>
   <si>
@@ -4814,9 +4802,6 @@
     <t>IGNORE Oukkar Entrance Found</t>
   </si>
   <si>
-    <t>Crossing The Border</t>
-  </si>
-  <si>
     <t>Debonairiest Nowell Shirt</t>
   </si>
   <si>
@@ -4857,6 +4842,24 @@
   </si>
   <si>
     <t>Find the lost Oseku Shield somewhere in Albania and return it to the woman in Pec.</t>
+  </si>
+  <si>
+    <t>A Sword of Ice and Fire</t>
+  </si>
+  <si>
+    <t>Balrog</t>
+  </si>
+  <si>
+    <t>Delivery to an Oseku</t>
+  </si>
+  <si>
+    <t>Block of Ice</t>
+  </si>
+  <si>
+    <t>Alternate Plans</t>
+  </si>
+  <si>
+    <t>Delve into Darkness</t>
   </si>
 </sst>
 </file>
@@ -6044,11 +6047,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147122048"/>
-        <c:axId val="147123584"/>
+        <c:axId val="62356096"/>
+        <c:axId val="62361984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147122048"/>
+        <c:axId val="62356096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6058,7 +6061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147123584"/>
+        <c:crossAx val="62361984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6066,7 +6069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147123584"/>
+        <c:axId val="62361984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -6078,7 +6081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147122048"/>
+        <c:crossAx val="62356096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6769,11 +6772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146759680"/>
-        <c:axId val="146761600"/>
+        <c:axId val="62386944"/>
+        <c:axId val="62388864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146759680"/>
+        <c:axId val="62386944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6801,7 +6804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146761600"/>
+        <c:crossAx val="62388864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6811,7 +6814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146761600"/>
+        <c:axId val="62388864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6822,7 +6825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146759680"/>
+        <c:crossAx val="62386944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20002,7 +20005,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="B57" s="43">
         <v>1225</v>
@@ -20035,9 +20038,7 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21295,9 +21296,9 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="A1:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21327,10 +21328,10 @@
         <v>1363</v>
       </c>
       <c r="F1" s="98" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G1" s="98" t="s">
         <v>1557</v>
-      </c>
-      <c r="G1" s="98" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -21545,7 +21546,7 @@
         <v>1432</v>
       </c>
       <c r="B11" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="C11" t="s">
         <v>1431</v>
@@ -21617,7 +21618,7 @@
         <v>1436</v>
       </c>
       <c r="C14" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D14" t="s">
         <v>1369</v>
@@ -21640,7 +21641,7 @@
         <v>1404</v>
       </c>
       <c r="C15" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D15" t="s">
         <v>411</v>
@@ -21686,7 +21687,7 @@
         <v>1465</v>
       </c>
       <c r="C17" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D17" t="s">
         <v>1462</v>
@@ -21703,13 +21704,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1525</v>
+        <v>1610</v>
       </c>
       <c r="B18" t="s">
         <v>1468</v>
       </c>
       <c r="C18" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D18" t="s">
         <v>1467</v>
@@ -21732,7 +21733,7 @@
         <v>1409</v>
       </c>
       <c r="C19" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D19" t="s">
         <v>1406</v>
@@ -21755,7 +21756,7 @@
         <v>1448</v>
       </c>
       <c r="C20" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D20" t="s">
         <v>1407</v>
@@ -21801,7 +21802,7 @@
         <v>1455</v>
       </c>
       <c r="C22" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D22" t="s">
         <v>1450</v>
@@ -21824,7 +21825,7 @@
         <v>1459</v>
       </c>
       <c r="C23" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D23" t="s">
         <v>1458</v>
@@ -21893,7 +21894,7 @@
         <v>1484</v>
       </c>
       <c r="C26" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D26" t="s">
         <v>1483</v>
@@ -21936,7 +21937,7 @@
         <v>1498</v>
       </c>
       <c r="B28" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C28" t="s">
         <v>1499</v>
@@ -21956,7 +21957,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1595</v>
+        <v>1609</v>
       </c>
       <c r="B29" t="s">
         <v>1494</v>
@@ -22008,7 +22009,7 @@
         <v>1517</v>
       </c>
       <c r="C31" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D31" t="s">
         <v>1503</v>
@@ -22025,13 +22026,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B32" t="s">
         <v>1522</v>
       </c>
       <c r="C32" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D32" t="s">
         <v>1501</v>
@@ -22077,10 +22078,10 @@
         <v>1381</v>
       </c>
       <c r="C34" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D34" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E34" t="s">
         <v>1380</v>
@@ -22094,19 +22095,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B35" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C35" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D35" t="s">
         <v>1380</v>
       </c>
       <c r="E35" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F35" s="98">
         <v>0</v>
@@ -22117,19 +22118,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B36" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C36" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D36" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E36" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F36" s="98">
         <v>0</v>
@@ -22140,19 +22141,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B37" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C37" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="D37" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E37" t="s">
         <v>1534</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1535</v>
       </c>
       <c r="F37" s="98">
         <v>0</v>
@@ -22163,19 +22164,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D38" t="s">
         <v>1539</v>
       </c>
-      <c r="B38" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>1540</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1541</v>
       </c>
       <c r="F38" s="98">
         <v>0</v>
@@ -22186,19 +22187,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D39" t="s">
         <v>1543</v>
       </c>
-      <c r="B39" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>1544</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1545</v>
       </c>
       <c r="F39" s="98">
         <v>0</v>
@@ -22209,19 +22210,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B40" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C40" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="D40" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E40" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F40" s="98">
         <v>0</v>
@@ -22255,19 +22256,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B42" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="C42" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="D42" t="s">
         <v>1500</v>
       </c>
       <c r="E42" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F42" s="98">
         <v>1</v>
@@ -22278,19 +22279,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D43" t="s">
         <v>1551</v>
       </c>
-      <c r="B43" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>1552</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1553</v>
       </c>
       <c r="F43" s="98">
         <v>1</v>
@@ -22301,19 +22302,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B44" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E44" t="s">
         <v>1559</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1560</v>
       </c>
       <c r="F44" s="98">
         <v>1</v>
@@ -22324,19 +22325,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1582</v>
+        <v>1605</v>
       </c>
       <c r="B45" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C45" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D45" t="s">
         <v>1564</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>1565</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1566</v>
       </c>
       <c r="F45" s="98">
         <v>1</v>
@@ -22347,19 +22348,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B46" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C46" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="D46" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E46" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F46" s="98">
         <v>1</v>
@@ -22370,19 +22371,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1579</v>
+        <v>1607</v>
       </c>
       <c r="B47" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="C47" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D47" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E47" t="s">
         <v>1571</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1572</v>
       </c>
       <c r="F47" s="98">
         <v>0</v>
@@ -22393,19 +22394,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B48" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="C48" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D48" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E48" t="s">
         <v>1572</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1573</v>
       </c>
       <c r="F48" s="98">
         <v>0</v>
@@ -22416,19 +22417,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B49" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="C49" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D49" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E49" t="s">
         <v>1573</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1574</v>
       </c>
       <c r="F49" s="98">
         <v>0</v>
@@ -22439,19 +22440,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B50" t="s">
         <v>1584</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D50" t="s">
         <v>1588</v>
       </c>
-      <c r="C50" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1592</v>
-      </c>
       <c r="E50" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="F50" s="98">
         <v>0</v>
@@ -22462,19 +22463,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1586</v>
+        <v>1608</v>
       </c>
       <c r="B51" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D51" t="s">
         <v>1589</v>
       </c>
-      <c r="C51" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1593</v>
-      </c>
       <c r="E51" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="F51" s="98">
         <v>0</v>
@@ -22485,19 +22486,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="B52" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D52" t="s">
         <v>1590</v>
       </c>
-      <c r="C52" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1594</v>
-      </c>
       <c r="E52" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="F52" s="98">
         <v>0</v>
@@ -22519,10 +22520,10 @@
   <dimension ref="A1:Y248"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A248" sqref="A1:Y248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40732,7 +40733,7 @@
         <v>1305</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>1305</v>
+        <v>1606</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>1296</v>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="5"/>
+    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="1614">
   <si>
     <t>Club</t>
   </si>
@@ -3659,21 +3659,12 @@
     <t>{'Mighty Flange': 10, 'Giant Axe': 10}</t>
   </si>
   <si>
-    <t>{'Eucalyptus Bow': 4}</t>
-  </si>
-  <si>
-    <t>{'Glaive': 2}</t>
-  </si>
-  <si>
     <t>Glaive</t>
   </si>
   <si>
     <t>Phalanx Captain</t>
   </si>
   <si>
-    <t>{'Titanium Shield': 1}</t>
-  </si>
-  <si>
     <t>{'Guardian Plate': 25}</t>
   </si>
   <si>
@@ -3767,9 +3758,6 @@
     <t>falls asleep</t>
   </si>
   <si>
-    <t>{'Bolt': 15, 'Dive': 5, 'Derecho': 3, 'Healing Light': 2, 'Eruption': 2, 'Duststorm': 2, 'Fumarole': 1, 'Blizzard': 1, 'Swoop': 1}</t>
-  </si>
-  <si>
     <t>Prismatic Garb</t>
   </si>
   <si>
@@ -4010,9 +3998,6 @@
     <t>{'Luminescent Barrier': 50, 'Shamanic Robes': 50}</t>
   </si>
   <si>
-    <t>{'Shadow Mail': 9}</t>
-  </si>
-  <si>
     <t>{'Sacredvine Cloak': 1}</t>
   </si>
   <si>
@@ -4346,9 +4331,6 @@
     <t>Homeland Bound</t>
   </si>
   <si>
-    <t>Kill General Octavius for Bartender Zhang in Pristina. He can be found in a corner of Kosovo.</t>
-  </si>
-  <si>
     <t>Kill 2 Rumadan men for Bartender Daniel in Herceg Novi. They can be found in the Frolicking Fields nearby.</t>
   </si>
   <si>
@@ -4860,6 +4842,33 @@
   </si>
   <si>
     <t>Delve into Darkness</t>
+  </si>
+  <si>
+    <t>Kill General Octavius for Bartender Zhang in Pristina.</t>
+  </si>
+  <si>
+    <t>{'Eucalyptus Bow': 4, 'Sentinel Plate': 1}</t>
+  </si>
+  <si>
+    <t>{'Glaive': 2, 'Sentinel Plate': 1}</t>
+  </si>
+  <si>
+    <t>{'Titanium Shield': 1, 'Sentinel Plate': 1}</t>
+  </si>
+  <si>
+    <t>{'Bolt': 15, 'Dive': 5, 'Derecho': 5, 'Healing Light': 5, 'Eruption': 3, 'Duststorm': 3, 'Fumarole': 3, 'Blizzard': 2, 'Swoop': 1}</t>
+  </si>
+  <si>
+    <t>Dark Mail</t>
+  </si>
+  <si>
+    <t>{'Dark Mail': 7, 'Shadow Mail': 2}</t>
+  </si>
+  <si>
+    <t>Drink Potion</t>
+  </si>
+  <si>
+    <t>consumes a vial of life fluid</t>
   </si>
 </sst>
 </file>
@@ -6047,11 +6056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="62356096"/>
-        <c:axId val="62361984"/>
+        <c:axId val="127106048"/>
+        <c:axId val="129311488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62356096"/>
+        <c:axId val="127106048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6061,7 +6070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62361984"/>
+        <c:crossAx val="129311488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6069,7 +6078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62361984"/>
+        <c:axId val="129311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -6081,7 +6090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62356096"/>
+        <c:crossAx val="127106048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6772,11 +6781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="62386944"/>
-        <c:axId val="62388864"/>
+        <c:axId val="125797504"/>
+        <c:axId val="125799424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62386944"/>
+        <c:axId val="125797504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6804,7 +6813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62388864"/>
+        <c:crossAx val="125799424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6814,7 +6823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62388864"/>
+        <c:axId val="125799424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6825,7 +6834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62386944"/>
+        <c:crossAx val="125797504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7208,7 +7217,9 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8090,11 +8101,11 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="A1:J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9459,7 +9470,7 @@
         <v>157</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="D43" s="64">
         <v>10</v>
@@ -9555,7 +9566,7 @@
         <v>167</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="D46" s="64">
         <v>15</v>
@@ -9613,7 +9624,7 @@
     </row>
     <row r="48" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B48" s="64" t="s">
         <v>171</v>
@@ -9651,7 +9662,7 @@
         <v>157</v>
       </c>
       <c r="C49" s="64" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="D49" s="64">
         <v>30</v>
@@ -9715,7 +9726,7 @@
         <v>171</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="D51" s="64">
         <v>50</v>
@@ -10000,7 +10011,7 @@
         <v>347</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C60" s="58" t="s">
         <v>204</v>
@@ -10823,77 +10834,77 @@
       <c r="I85" s="96" t="s">
         <v>1044</v>
       </c>
-      <c r="J85" s="96" t="s">
-        <v>190</v>
+      <c r="J85" s="97" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="97" t="s">
-        <v>603</v>
-      </c>
-      <c r="B86" s="97" t="s">
-        <v>249</v>
-      </c>
-      <c r="C86" s="97" t="s">
+      <c r="A86" s="96" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B86" s="96" t="s">
+        <v>636</v>
+      </c>
+      <c r="C86" s="96" t="s">
         <v>159</v>
       </c>
       <c r="D86" s="97">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E86" s="97">
-        <v>0</v>
-      </c>
-      <c r="F86" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="G86" s="97" t="s">
-        <v>337</v>
-      </c>
-      <c r="H86" s="97" t="s">
+      <c r="G86" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="I86" s="97" t="s">
-        <v>235</v>
+      <c r="H86" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="I86" s="96" t="s">
+        <v>1613</v>
       </c>
       <c r="J86" s="97" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>231</v>
-      </c>
-      <c r="B87" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" t="s">
-        <v>204</v>
-      </c>
-      <c r="D87">
-        <v>20</v>
-      </c>
-      <c r="E87">
-        <v>500</v>
-      </c>
-      <c r="F87" t="s">
+    <row r="87" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="97" t="s">
+        <v>603</v>
+      </c>
+      <c r="B87" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="97">
+        <v>25</v>
+      </c>
+      <c r="E87" s="97">
+        <v>0</v>
+      </c>
+      <c r="F87" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="H87" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="H87" t="s">
-        <v>146</v>
-      </c>
-      <c r="I87" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J87" t="s">
+      <c r="I87" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="J87" s="97" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s">
         <v>232</v>
@@ -10902,10 +10913,10 @@
         <v>204</v>
       </c>
       <c r="D88">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F88" t="s">
         <v>124</v>
@@ -10917,7 +10928,7 @@
         <v>146</v>
       </c>
       <c r="I88" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J88" t="s">
         <v>155</v>
@@ -10925,7 +10936,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
         <v>232</v>
@@ -10934,10 +10945,10 @@
         <v>204</v>
       </c>
       <c r="D89">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E89">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="F89" t="s">
         <v>124</v>
@@ -10949,7 +10960,7 @@
         <v>146</v>
       </c>
       <c r="I89" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J89" t="s">
         <v>155</v>
@@ -10957,19 +10968,19 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C90" t="s">
         <v>204</v>
       </c>
       <c r="D90">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F90" t="s">
         <v>124</v>
@@ -10981,30 +10992,30 @@
         <v>146</v>
       </c>
       <c r="I90" t="s">
-        <v>357</v>
+        <v>1004</v>
       </c>
       <c r="J90" t="s">
-        <v>358</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>356</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C91" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E91">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="G91" t="s">
         <v>146</v>
@@ -11013,15 +11024,15 @@
         <v>146</v>
       </c>
       <c r="I91" t="s">
-        <v>158</v>
+        <v>357</v>
       </c>
       <c r="J91" t="s">
-        <v>155</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
         <v>157</v>
@@ -11033,10 +11044,10 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="G92" t="s">
         <v>146</v>
@@ -11045,7 +11056,7 @@
         <v>146</v>
       </c>
       <c r="I92" t="s">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="J92" t="s">
         <v>155</v>
@@ -11053,7 +11064,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B93" t="s">
         <v>157</v>
@@ -11065,10 +11076,10 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F93" t="s">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="G93" t="s">
         <v>146</v>
@@ -11077,7 +11088,7 @@
         <v>146</v>
       </c>
       <c r="I93" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="J93" t="s">
         <v>155</v>
@@ -11085,10 +11096,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s">
         <v>159</v>
@@ -11097,10 +11108,10 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F94" t="s">
-        <v>124</v>
+        <v>301</v>
       </c>
       <c r="G94" t="s">
         <v>146</v>
@@ -11109,7 +11120,7 @@
         <v>146</v>
       </c>
       <c r="I94" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J94" t="s">
         <v>155</v>
@@ -11117,10 +11128,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="B95" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
         <v>159</v>
@@ -11129,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F95" t="s">
         <v>124</v>
@@ -11141,7 +11152,7 @@
         <v>146</v>
       </c>
       <c r="I95" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="J95" t="s">
         <v>155</v>
@@ -11149,10 +11160,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>605</v>
+        <v>314</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C96" t="s">
         <v>159</v>
@@ -11161,10 +11172,10 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="G96" t="s">
         <v>146</v>
@@ -11173,7 +11184,7 @@
         <v>146</v>
       </c>
       <c r="I96" t="s">
-        <v>1090</v>
+        <v>315</v>
       </c>
       <c r="J96" t="s">
         <v>155</v>
@@ -11181,7 +11192,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>319</v>
+        <v>605</v>
       </c>
       <c r="B97" t="s">
         <v>157</v>
@@ -11193,10 +11204,10 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G97" t="s">
         <v>146</v>
@@ -11205,7 +11216,7 @@
         <v>146</v>
       </c>
       <c r="I97" t="s">
-        <v>320</v>
+        <v>1090</v>
       </c>
       <c r="J97" t="s">
         <v>155</v>
@@ -11213,22 +11224,22 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="B98" t="s">
         <v>157</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="D98">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G98" t="s">
         <v>146</v>
@@ -11237,7 +11248,7 @@
         <v>146</v>
       </c>
       <c r="I98" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="J98" t="s">
         <v>155</v>
@@ -11245,31 +11256,31 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>372</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="G99" t="s">
-        <v>374</v>
+        <v>146</v>
       </c>
       <c r="H99" t="s">
         <v>146</v>
       </c>
       <c r="I99" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="J99" t="s">
         <v>155</v>
@@ -11277,10 +11288,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C100" t="s">
         <v>159</v>
@@ -11289,19 +11300,19 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="G100" t="s">
-        <v>146</v>
+        <v>374</v>
       </c>
       <c r="H100" t="s">
         <v>146</v>
       </c>
       <c r="I100" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="J100" t="s">
         <v>155</v>
@@ -11309,7 +11320,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B101" t="s">
         <v>157</v>
@@ -11321,19 +11332,19 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>441</v>
+        <v>146</v>
       </c>
       <c r="H101" t="s">
-        <v>436</v>
+        <v>146</v>
       </c>
       <c r="I101" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J101" t="s">
         <v>155</v>
@@ -11341,10 +11352,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s">
         <v>159</v>
@@ -11353,19 +11364,19 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F102" t="s">
-        <v>124</v>
+        <v>301</v>
       </c>
       <c r="G102" t="s">
-        <v>146</v>
+        <v>441</v>
       </c>
       <c r="H102" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="I102" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="J102" t="s">
         <v>155</v>
@@ -11373,10 +11384,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="C103" t="s">
         <v>159</v>
@@ -11385,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F103" t="s">
         <v>124</v>
@@ -11397,7 +11408,7 @@
         <v>454</v>
       </c>
       <c r="I103" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="J103" t="s">
         <v>155</v>
@@ -11405,19 +11416,19 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C104" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F104" t="s">
         <v>124</v>
@@ -11426,10 +11437,10 @@
         <v>146</v>
       </c>
       <c r="H104" t="s">
-        <v>146</v>
+        <v>454</v>
       </c>
       <c r="I104" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="J104" t="s">
         <v>155</v>
@@ -11437,10 +11448,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C105" t="s">
         <v>181</v>
@@ -11449,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F105" t="s">
         <v>124</v>
@@ -11461,7 +11472,7 @@
         <v>146</v>
       </c>
       <c r="I105" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J105" t="s">
         <v>155</v>
@@ -11469,19 +11480,19 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="C106" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F106" t="s">
         <v>124</v>
@@ -11490,10 +11501,10 @@
         <v>146</v>
       </c>
       <c r="H106" t="s">
-        <v>492</v>
+        <v>146</v>
       </c>
       <c r="I106" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J106" t="s">
         <v>155</v>
@@ -11501,10 +11512,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B107" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
         <v>159</v>
@@ -11513,19 +11524,19 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="G107" t="s">
         <v>146</v>
       </c>
       <c r="H107" t="s">
-        <v>146</v>
+        <v>492</v>
       </c>
       <c r="I107" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="J107" t="s">
         <v>155</v>
@@ -11533,7 +11544,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B108" t="s">
         <v>157</v>
@@ -11548,7 +11559,7 @@
         <v>100</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G108" t="s">
         <v>146</v>
@@ -11557,7 +11568,7 @@
         <v>146</v>
       </c>
       <c r="I108" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J108" t="s">
         <v>155</v>
@@ -11565,10 +11576,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s">
         <v>159</v>
@@ -11577,10 +11588,10 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F109" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
         <v>146</v>
@@ -11589,7 +11600,7 @@
         <v>146</v>
       </c>
       <c r="I109" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="J109" t="s">
         <v>155</v>
@@ -11597,10 +11608,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
         <v>159</v>
@@ -11609,59 +11620,59 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F110" t="s">
         <v>124</v>
       </c>
       <c r="G110" t="s">
-        <v>602</v>
+        <v>146</v>
       </c>
       <c r="H110" t="s">
         <v>146</v>
       </c>
       <c r="I110" t="s">
+        <v>540</v>
+      </c>
+      <c r="J110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>570</v>
+      </c>
+      <c r="B111" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" t="s">
+        <v>159</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>124</v>
+      </c>
+      <c r="G111" t="s">
+        <v>602</v>
+      </c>
+      <c r="H111" t="s">
+        <v>146</v>
+      </c>
+      <c r="I111" t="s">
         <v>571</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J111" t="s">
         <v>837</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>300</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="J111" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>173</v>
@@ -11673,19 +11684,19 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>589</v>
+        <v>146</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J112" t="s">
         <v>155</v>
@@ -11693,10 +11704,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>159</v>
@@ -11705,19 +11716,19 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="J113" t="s">
         <v>155</v>
@@ -11725,7 +11736,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>708</v>
+        <v>600</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>157</v>
@@ -11737,27 +11748,27 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>710</v>
+        <v>598</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="J114" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="J114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>157</v>
@@ -11769,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>124</v>
@@ -11778,10 +11789,10 @@
         <v>146</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>436</v>
+        <v>710</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>155</v>
@@ -11789,31 +11800,31 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>146</v>
+        <v>436</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>155</v>
@@ -11821,22 +11832,22 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>1055</v>
+        <v>738</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E117">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>124</v>
+        <v>301</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>146</v>
@@ -11845,7 +11856,7 @@
         <v>146</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>158</v>
+        <v>739</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>155</v>
@@ -11853,7 +11864,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1041</v>
+        <v>1055</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>157</v>
@@ -11865,19 +11876,19 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118" t="s">
-        <v>301</v>
+        <v>200</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>1045</v>
+        <v>146</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>1042</v>
+        <v>158</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>155</v>
@@ -11885,10 +11896,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>176</v>
+        <v>1041</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>159</v>
@@ -11897,30 +11908,30 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>159</v>
@@ -11929,51 +11940,51 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F120" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>1054</v>
+        <v>146</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>146</v>
+        <v>1048</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F121" t="s">
         <v>124</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>146</v>
+        <v>1054</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>155</v>
@@ -11981,19 +11992,19 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="F122" t="s">
         <v>124</v>
@@ -12005,7 +12016,7 @@
         <v>146</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>155</v>
@@ -12013,10 +12024,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>159</v>
@@ -12025,10 +12036,10 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F123" t="s">
-        <v>1066</v>
+        <v>124</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>146</v>
@@ -12037,7 +12048,7 @@
         <v>146</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>155</v>
@@ -12045,10 +12056,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>159</v>
@@ -12060,24 +12071,24 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>124</v>
+        <v>1066</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>1072</v>
+        <v>146</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>1071</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>249</v>
@@ -12095,21 +12106,21 @@
         <v>124</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>249</v>
@@ -12127,21 +12138,21 @@
         <v>124</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>249</v>
@@ -12159,21 +12170,21 @@
         <v>124</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>249</v>
@@ -12191,24 +12202,24 @@
         <v>124</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>1152</v>
+        <v>1082</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>190</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>159</v>
@@ -12217,30 +12228,30 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="G129" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H129" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H129" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="I129" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>159</v>
@@ -12249,30 +12260,30 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F130" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>1119</v>
+        <v>146</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>146</v>
+        <v>640</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>1088</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>159</v>
@@ -12287,21 +12298,21 @@
         <v>124</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>146</v>
+        <v>1119</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>249</v>
@@ -12319,24 +12330,24 @@
         <v>124</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1156</v>
+        <v>146</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>159</v>
@@ -12351,21 +12362,21 @@
         <v>124</v>
       </c>
       <c r="G133" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H133" s="2" t="s">
-        <v>1108</v>
-      </c>
       <c r="I133" s="2" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>190</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>157</v>
@@ -12377,51 +12388,51 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>1116</v>
+        <v>124</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>146</v>
+        <v>1108</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="F135" t="s">
-        <v>1066</v>
+        <v>1116</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1127</v>
+        <v>146</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>155</v>
@@ -12429,10 +12440,10 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>181</v>
@@ -12441,19 +12452,19 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>1066</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1162</v>
+        <v>1127</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>155</v>
@@ -12461,9 +12472,9 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B137" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B137" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -12476,7 +12487,7 @@
         <v>100</v>
       </c>
       <c r="F137" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>1162</v>
@@ -12485,7 +12496,7 @@
         <v>146</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>155</v>
@@ -12493,7 +12504,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B138" t="s">
         <v>157</v>
@@ -12508,7 +12519,7 @@
         <v>100</v>
       </c>
       <c r="F138" t="s">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>1162</v>
@@ -12517,7 +12528,7 @@
         <v>146</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>155</v>
@@ -12525,10 +12536,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B139" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>181</v>
@@ -12537,19 +12548,19 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="F139" t="s">
-        <v>124</v>
+        <v>301</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>236</v>
+        <v>1162</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>155</v>
@@ -12557,10 +12568,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B140" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>181</v>
@@ -12569,51 +12580,51 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="F140" t="s">
         <v>124</v>
       </c>
-      <c r="G140" t="s">
-        <v>1126</v>
+      <c r="G140" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>1135</v>
+      <c r="A141" s="2" t="s">
+        <v>1125</v>
       </c>
       <c r="B141" t="s">
-        <v>249</v>
-      </c>
-      <c r="C141" t="s">
-        <v>159</v>
+        <v>176</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F141" t="s">
         <v>124</v>
       </c>
       <c r="G141" t="s">
-        <v>146</v>
+        <v>1126</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I141" t="s">
-        <v>1141</v>
+      <c r="I141" s="2" t="s">
+        <v>1130</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>155</v>
@@ -12621,7 +12632,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B142" t="s">
         <v>249</v>
@@ -12639,13 +12650,13 @@
         <v>124</v>
       </c>
       <c r="G142" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I142" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>155</v>
@@ -12653,10 +12664,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C143" t="s">
         <v>159</v>
@@ -12665,10 +12676,10 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G143" t="s">
         <v>196</v>
@@ -12677,7 +12688,7 @@
         <v>146</v>
       </c>
       <c r="I143" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>155</v>
@@ -12685,10 +12696,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B144" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C144" t="s">
         <v>159</v>
@@ -12697,19 +12708,19 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
       </c>
       <c r="G144" t="s">
-        <v>1147</v>
+        <v>196</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I144" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>155</v>
@@ -12717,7 +12728,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B145" t="s">
         <v>173</v>
@@ -12729,19 +12740,19 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F145" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G145" t="s">
-        <v>640</v>
+        <v>1147</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I145" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>155</v>
@@ -12749,10 +12760,10 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B146" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C146" t="s">
         <v>159</v>
@@ -12761,64 +12772,64 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G146" t="s">
-        <v>1147</v>
+        <v>640</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I146" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C147" s="2" t="s">
+      <c r="A147" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B147" t="s">
+        <v>171</v>
+      </c>
+      <c r="C147" t="s">
         <v>159</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>1168</v>
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>29</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1147</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I147" s="2" t="s">
-        <v>1161</v>
+      <c r="I147" t="s">
+        <v>1146</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>1160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B148" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D148">
@@ -12827,28 +12838,28 @@
       <c r="E148">
         <v>0</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H148" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>1189</v>
+        <v>1163</v>
       </c>
       <c r="B149" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="C149" t="s">
         <v>159</v>
@@ -12857,27 +12868,27 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1195</v>
+        <v>1165</v>
       </c>
       <c r="H149" t="s">
         <v>146</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>1228</v>
+        <v>1167</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>155</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B150" t="s">
         <v>173</v>
@@ -12892,7 +12903,7 @@
         <v>200</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>1195</v>
@@ -12901,7 +12912,7 @@
         <v>146</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>155</v>
@@ -12909,7 +12920,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B151" t="s">
         <v>173</v>
@@ -12924,7 +12935,7 @@
         <v>200</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>1195</v>
@@ -12933,7 +12944,7 @@
         <v>146</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>155</v>
@@ -12941,10 +12952,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>1226</v>
+        <v>1191</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -12953,30 +12964,30 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F152" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>146</v>
+        <v>1195</v>
       </c>
       <c r="H152" t="s">
         <v>146</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>1245</v>
+        <v>1225</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1225</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C153" t="s">
         <v>159</v>
@@ -12985,30 +12996,30 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>1234</v>
+        <v>124</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="H153" t="s">
         <v>146</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>155</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="B154" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
         <v>159</v>
@@ -13017,30 +13028,30 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F154" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G154" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H154" t="s">
-        <v>640</v>
-      </c>
-      <c r="I154" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J154" t="s">
+      <c r="H154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J154" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>1315</v>
+        <v>1230</v>
       </c>
       <c r="B155" t="s">
-        <v>1316</v>
+        <v>176</v>
       </c>
       <c r="C155" t="s">
         <v>159</v>
@@ -13049,19 +13060,19 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>124</v>
+        <v>1229</v>
       </c>
       <c r="G155" t="s">
         <v>146</v>
       </c>
       <c r="H155" t="s">
-        <v>146</v>
+        <v>640</v>
       </c>
       <c r="I155" t="s">
-        <v>1317</v>
+        <v>1226</v>
       </c>
       <c r="J155" t="s">
         <v>155</v>
@@ -13069,10 +13080,10 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>249</v>
+        <v>1311</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1312</v>
       </c>
       <c r="C156" t="s">
         <v>159</v>
@@ -13081,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F156" t="s">
         <v>124</v>
@@ -13093,7 +13104,7 @@
         <v>146</v>
       </c>
       <c r="I156" t="s">
-        <v>1512</v>
+        <v>1313</v>
       </c>
       <c r="J156" t="s">
         <v>155</v>
@@ -13101,19 +13112,19 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C157" t="s">
-        <v>1514</v>
+        <v>159</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F157" t="s">
         <v>124</v>
@@ -13125,9 +13136,41 @@
         <v>146</v>
       </c>
       <c r="I157" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="J157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>100</v>
+      </c>
+      <c r="F158" t="s">
+        <v>124</v>
+      </c>
+      <c r="G158" t="s">
+        <v>146</v>
+      </c>
+      <c r="H158" t="s">
+        <v>146</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J158" t="s">
         <v>155</v>
       </c>
     </row>
@@ -17025,7 +17068,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17470,7 +17513,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="B16" s="43">
         <v>600</v>
@@ -17882,7 +17925,7 @@
         <v>4000</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="D30">
         <v>45</v>
@@ -18369,7 +18412,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B47" s="43">
         <v>6000</v>
@@ -18427,7 +18470,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B49" s="43">
         <v>6000</v>
@@ -18688,7 +18731,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B58" s="43">
         <v>8000</v>
@@ -18746,7 +18789,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="B60" s="43">
         <v>7000</v>
@@ -18775,7 +18818,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="B61" s="43">
         <v>7500</v>
@@ -18804,7 +18847,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="B62" s="43">
         <v>7500</v>
@@ -18833,7 +18876,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="B63" s="43">
         <v>1225</v>
@@ -18851,7 +18894,7 @@
         <v>125</v>
       </c>
       <c r="G63" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="H63">
         <v>10</v>
@@ -18872,10 +18915,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F57"/>
+      <selection sqref="A1:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19645,7 +19688,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B39" s="43">
         <v>8000</v>
@@ -19660,7 +19703,7 @@
         <v>25</v>
       </c>
       <c r="F39">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -19845,7 +19888,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B49" s="43">
         <v>5000</v>
@@ -19865,7 +19908,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B50" s="43">
         <v>5000</v>
@@ -19885,7 +19928,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B51" s="43">
         <v>5000</v>
@@ -19905,7 +19948,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B52" s="43">
         <v>8000</v>
@@ -19925,7 +19968,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B53" s="43">
         <v>1225</v>
@@ -19945,7 +19988,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B54" s="43">
         <v>8000</v>
@@ -19965,7 +20008,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="B55" s="43">
         <v>8000</v>
@@ -19985,7 +20028,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="B56" s="43">
         <v>1225</v>
@@ -20005,7 +20048,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="B57" s="43">
         <v>1225</v>
@@ -20021,6 +20064,26 @@
       </c>
       <c r="F57">
         <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B58" s="43">
+        <v>7000</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58">
+        <v>35</v>
+      </c>
+      <c r="E58" s="27">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -20038,7 +20101,7 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20484,7 +20547,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B20" s="43">
         <v>3500</v>
@@ -20714,7 +20777,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B30" s="43">
         <v>8000</v>
@@ -20740,7 +20803,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="43">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C31" s="52" t="s">
         <v>10</v>
@@ -20763,7 +20826,7 @@
         <v>75</v>
       </c>
       <c r="B32" s="43">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>39</v>
@@ -20786,7 +20849,7 @@
         <v>76</v>
       </c>
       <c r="B33" s="43">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C33" s="46" t="s">
         <v>29</v>
@@ -20809,7 +20872,7 @@
         <v>117</v>
       </c>
       <c r="B34" s="43">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>118</v>
@@ -20944,7 +21007,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B40" s="43">
         <v>7000</v>
@@ -21100,13 +21163,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="B8" s="43">
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -21149,7 +21212,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -21171,7 +21234,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -21259,29 +21322,29 @@
         <v>0</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B22" s="43">
         <v>0</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B23" s="43">
         <v>0</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
   </sheetData>
@@ -21297,8 +21360,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="A1:G49"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21313,42 +21376,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="B1" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="C1" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="D1" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="E1" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="F1" s="98" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="G1" s="98" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="B2" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="C2" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="D2" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="E2" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="F2" s="98">
         <v>0</v>
@@ -21359,19 +21422,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="B3" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="C3" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="D3" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="E3" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="F3" s="98">
         <v>0</v>
@@ -21382,19 +21445,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="B4" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="C4" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="D4" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E4" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="F4" s="98">
         <v>0</v>
@@ -21405,19 +21468,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="B5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="C5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E5" t="s">
         <v>1393</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1398</v>
       </c>
       <c r="F5" s="98">
         <v>0</v>
@@ -21428,19 +21491,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="B6" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="C6" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="D6" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="E6" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="F6" s="98">
         <v>0</v>
@@ -21451,19 +21514,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="B7" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="C7" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="D7" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="E7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F7" s="98">
         <v>0</v>
@@ -21474,19 +21537,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="B8" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="C8" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="D8" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="E8" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="F8" s="98">
         <v>0</v>
@@ -21497,19 +21560,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="B9" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="C9" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="D9" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="E9" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="F9" s="98">
         <v>0</v>
@@ -21520,19 +21583,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="B10" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="C10" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="D10" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="E10" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="F10" s="98">
         <v>0</v>
@@ -21543,19 +21606,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="B11" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="C11" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="D11" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="E11" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="F11" s="98">
         <v>0</v>
@@ -21566,19 +21629,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="B12" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="C12" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="D12" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="E12" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="F12" s="98">
         <v>0</v>
@@ -21589,19 +21652,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="B13" t="s">
-        <v>1439</v>
+        <v>1605</v>
       </c>
       <c r="C13" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="D13" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="E13" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="F13" s="98">
         <v>0</v>
@@ -21612,19 +21675,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="B14" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="C14" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D14" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="E14" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="F14" s="98">
         <v>0</v>
@@ -21635,19 +21698,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="B15" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="C15" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D15" t="s">
         <v>411</v>
       </c>
       <c r="E15" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="F15" s="98">
         <v>0</v>
@@ -21658,19 +21721,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="B16" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="C16" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="D16" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="E16" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="F16" s="98">
         <v>0</v>
@@ -21681,19 +21744,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="B17" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="C17" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D17" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="E17" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="F17" s="98">
         <v>0</v>
@@ -21704,19 +21767,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="B18" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="C18" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D18" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="E18" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="F18" s="98">
         <v>0</v>
@@ -21727,19 +21790,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="B19" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="C19" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D19" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="E19" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="F19" s="98">
         <v>0</v>
@@ -21750,19 +21813,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="B20" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="C20" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D20" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="E20" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="F20" s="98">
         <v>0</v>
@@ -21773,19 +21836,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="B21" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="C21" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="D21" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="E21" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="F21" s="98">
         <v>0</v>
@@ -21796,19 +21859,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="B22" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="C22" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D22" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="E22" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="F22" s="98">
         <v>0</v>
@@ -21819,19 +21882,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="B23" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="C23" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D23" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="E23" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="F23" s="98">
         <v>0</v>
@@ -21842,19 +21905,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="B24" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="C24" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="D24" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="E24" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F24" s="98">
         <v>0</v>
@@ -21865,19 +21928,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="B25" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="C25" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="D25" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="E25" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="F25" s="98">
         <v>0</v>
@@ -21888,19 +21951,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="B26" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="C26" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D26" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="E26" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="F26" s="98">
         <v>0</v>
@@ -21911,19 +21974,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="B27" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="C27" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="D27" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="E27" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="F27" s="98">
         <v>0</v>
@@ -21934,19 +21997,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="B28" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="C28" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="D28" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="E28" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="F28" s="98">
         <v>0</v>
@@ -21957,19 +22020,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="B29" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="C29" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="D29" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="E29" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="F29" s="98">
         <v>0</v>
@@ -21980,19 +22043,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="B30" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="C30" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="D30" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="E30" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="F30" s="98">
         <v>0</v>
@@ -22003,19 +22066,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="B31" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="C31" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D31" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="E31" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="F31" s="98">
         <v>0</v>
@@ -22026,19 +22089,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="B32" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="C32" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D32" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="E32" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="F32" s="98">
         <v>0</v>
@@ -22049,19 +22112,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="B33" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="C33" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="D33" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="E33" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="F33" s="98">
         <v>0</v>
@@ -22075,16 +22138,16 @@
         <v>530</v>
       </c>
       <c r="B34" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="C34" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="D34" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="E34" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="F34" s="98">
         <v>0</v>
@@ -22095,19 +22158,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="B35" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="C35" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D35" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="E35" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="F35" s="98">
         <v>0</v>
@@ -22118,19 +22181,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="B36" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="C36" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="D36" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="E36" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="F36" s="98">
         <v>0</v>
@@ -22141,19 +22204,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="B37" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D37" t="s">
         <v>1527</v>
       </c>
-      <c r="C37" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1533</v>
-      </c>
       <c r="E37" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="F37" s="98">
         <v>0</v>
@@ -22164,19 +22227,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="B38" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="C38" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="D38" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="E38" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="F38" s="98">
         <v>0</v>
@@ -22187,19 +22250,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B39" t="s">
         <v>1542</v>
       </c>
-      <c r="B39" t="s">
-        <v>1548</v>
-      </c>
       <c r="C39" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="D39" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="E39" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="F39" s="98">
         <v>0</v>
@@ -22210,19 +22273,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="B40" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="C40" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="D40" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="E40" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="F40" s="98">
         <v>0</v>
@@ -22233,19 +22296,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="B41" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="C41" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="D41" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="E41" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="F41" s="98">
         <v>1</v>
@@ -22256,19 +22319,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="B42" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="C42" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="D42" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="E42" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="F42" s="98">
         <v>1</v>
@@ -22279,19 +22342,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="B43" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="C43" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="D43" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="E43" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="F43" s="98">
         <v>1</v>
@@ -22302,19 +22365,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="B44" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="C44" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="D44" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="E44" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="F44" s="98">
         <v>1</v>
@@ -22325,19 +22388,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="B45" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="C45" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="D45" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="E45" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="F45" s="98">
         <v>1</v>
@@ -22348,19 +22411,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="B46" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="C46" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="D46" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="E46" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="F46" s="98">
         <v>1</v>
@@ -22371,19 +22434,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="B47" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="C47" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="D47" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="E47" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="F47" s="98">
         <v>0</v>
@@ -22394,19 +22457,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="B48" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="C48" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="D48" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="E48" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="F48" s="98">
         <v>0</v>
@@ -22417,19 +22480,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="B49" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="C49" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="D49" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="E49" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="F49" s="98">
         <v>0</v>
@@ -22440,19 +22503,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="B50" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="C50" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D50" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="E50" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="F50" s="98">
         <v>0</v>
@@ -22463,19 +22526,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="B51" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="C51" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D51" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="E51" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="F51" s="98">
         <v>0</v>
@@ -22486,19 +22549,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="B52" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="C52" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D52" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="E52" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="F52" s="98">
         <v>0</v>
@@ -22520,10 +22583,10 @@
   <dimension ref="A1:Y248"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A248" sqref="A1:Y248"/>
+      <selection pane="bottomRight" activeCell="Y248" sqref="Y248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23686,7 +23749,7 @@
         <v>729</v>
       </c>
       <c r="R15" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="S15" s="20">
         <v>50</v>
@@ -23760,10 +23823,10 @@
         <v>80</v>
       </c>
       <c r="Q16" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="R16" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="S16" s="20">
         <v>3700</v>
@@ -24071,7 +24134,7 @@
         <v>362</v>
       </c>
       <c r="R20" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="S20" s="20">
         <v>75</v>
@@ -24225,7 +24288,7 @@
         <v>366</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="S22" s="20">
         <v>75</v>
@@ -24764,7 +24827,7 @@
         <v>997</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="S29" s="21">
         <v>150</v>
@@ -24992,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="R32" t="s">
         <v>620</v>
@@ -25380,7 +25443,7 @@
         <v>487</v>
       </c>
       <c r="R37" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="S37" s="20">
         <v>230</v>
@@ -25842,7 +25905,7 @@
         <v>1000</v>
       </c>
       <c r="R43" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="S43" s="21">
         <v>280</v>
@@ -26073,7 +26136,7 @@
         <v>488</v>
       </c>
       <c r="R46" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="S46" s="20">
         <v>310</v>
@@ -26224,7 +26287,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="R48" t="s">
         <v>485</v>
@@ -26381,7 +26444,7 @@
         <v>608</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="S50" s="21">
         <v>360</v>
@@ -28768,7 +28831,7 @@
         <v>564</v>
       </c>
       <c r="R81" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="S81" s="20">
         <v>730</v>
@@ -29538,7 +29601,7 @@
         <v>807</v>
       </c>
       <c r="R91" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="S91" s="20">
         <v>900</v>
@@ -30074,7 +30137,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="R98" t="s">
         <v>848</v>
@@ -30613,10 +30676,10 @@
         <v>10</v>
       </c>
       <c r="Q105" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>1210</v>
+        <v>1606</v>
       </c>
       <c r="S105" s="89">
         <v>1400</v>
@@ -30693,7 +30756,7 @@
         <v>843</v>
       </c>
       <c r="R106" t="s">
-        <v>1211</v>
+        <v>1607</v>
       </c>
       <c r="S106" s="89">
         <v>1500</v>
@@ -30770,7 +30833,7 @@
         <v>844</v>
       </c>
       <c r="R107" t="s">
-        <v>1214</v>
+        <v>1608</v>
       </c>
       <c r="S107" s="89">
         <v>1500</v>
@@ -30796,13 +30859,13 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="74" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B108" s="74" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C108" s="74" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D108" s="23">
         <v>30</v>
@@ -30844,10 +30907,10 @@
         <v>20</v>
       </c>
       <c r="Q108" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="R108" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="S108" s="20">
         <v>1700</v>
@@ -30924,7 +30987,7 @@
         <v>994</v>
       </c>
       <c r="R109" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="S109" s="20">
         <v>1500</v>
@@ -31768,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="Q120" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="R120" t="s">
         <v>146</v>
@@ -32736,7 +32799,7 @@
         <v>6000</v>
       </c>
       <c r="F133" s="35">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="G133" s="41">
         <v>25</v>
@@ -32775,7 +32838,7 @@
         <v>146</v>
       </c>
       <c r="S133" s="21">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T133" s="32">
         <v>0</v>
@@ -36622,7 +36685,7 @@
         <v>1102</v>
       </c>
       <c r="R183" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="S183" s="20">
         <v>9000</v>
@@ -36699,7 +36762,7 @@
         <v>1118</v>
       </c>
       <c r="R184" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="S184" s="20">
         <v>9000</v>
@@ -36776,7 +36839,7 @@
         <v>1096</v>
       </c>
       <c r="R185" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="S185" s="20">
         <v>9000</v>
@@ -36853,7 +36916,7 @@
         <v>1087</v>
       </c>
       <c r="R186" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="S186" s="20">
         <v>8000</v>
@@ -36930,7 +36993,7 @@
         <v>1073</v>
       </c>
       <c r="R187" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="S187" s="20">
         <v>8000</v>
@@ -37007,7 +37070,7 @@
         <v>1158</v>
       </c>
       <c r="R188" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="S188" s="20">
         <v>8000</v>
@@ -37084,7 +37147,7 @@
         <v>1069</v>
       </c>
       <c r="R189" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="S189" s="20">
         <v>7000</v>
@@ -37161,7 +37224,7 @@
         <v>1067</v>
       </c>
       <c r="R190" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="S190" s="20">
         <v>7000</v>
@@ -37238,7 +37301,7 @@
         <v>1091</v>
       </c>
       <c r="R191" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="S191" s="20">
         <v>7000</v>
@@ -37315,7 +37378,7 @@
         <v>1157</v>
       </c>
       <c r="R192" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="S192" s="20">
         <v>6000</v>
@@ -37392,7 +37455,7 @@
         <v>1068</v>
       </c>
       <c r="R193" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="S193" s="20">
         <v>6000</v>
@@ -37469,7 +37532,7 @@
         <v>1058</v>
       </c>
       <c r="R194" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="S194" s="20">
         <v>6000</v>
@@ -37546,7 +37609,7 @@
         <v>1051</v>
       </c>
       <c r="R195" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="S195" s="20">
         <v>5000</v>
@@ -37623,7 +37686,7 @@
         <v>1050</v>
       </c>
       <c r="R196" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="S196" s="20">
         <v>5000</v>
@@ -37700,7 +37763,7 @@
         <v>1046</v>
       </c>
       <c r="R197" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="S197" s="20">
         <v>5000</v>
@@ -37931,7 +37994,7 @@
         <v>1148</v>
       </c>
       <c r="R200" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="S200" s="20">
         <v>30000</v>
@@ -38008,7 +38071,7 @@
         <v>1149</v>
       </c>
       <c r="R201" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="S201" s="20">
         <v>30000</v>
@@ -38188,13 +38251,13 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="D204" s="23">
         <v>20</v>
@@ -38266,13 +38329,13 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="D205" s="23">
         <v>4</v>
@@ -38343,13 +38406,13 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="D206" s="23">
         <v>30</v>
@@ -38391,7 +38454,7 @@
         <v>50</v>
       </c>
       <c r="Q206" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="R206" t="s">
         <v>1006</v>
@@ -38468,7 +38531,7 @@
         <v>100</v>
       </c>
       <c r="Q207" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="R207" t="s">
         <v>1192</v>
@@ -38545,7 +38608,7 @@
         <v>100</v>
       </c>
       <c r="Q208" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="R208" t="s">
         <v>1193</v>
@@ -38622,7 +38685,7 @@
         <v>100</v>
       </c>
       <c r="Q209" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="R209" t="s">
         <v>1194</v>
@@ -38776,7 +38839,7 @@
         <v>0</v>
       </c>
       <c r="Q211" s="2" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="R211" t="s">
         <v>146</v>
@@ -38853,7 +38916,7 @@
         <v>0</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="R212" t="s">
         <v>146</v>
@@ -39007,7 +39070,7 @@
         <v>25</v>
       </c>
       <c r="Q214" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="R214" t="s">
         <v>1208</v>
@@ -39113,13 +39176,13 @@
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="D216" s="23">
         <v>25</v>
@@ -39161,7 +39224,7 @@
         <v>0</v>
       </c>
       <c r="Q216" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="R216" t="s">
         <v>146</v>
@@ -39238,10 +39301,10 @@
         <v>0</v>
       </c>
       <c r="Q217" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="R217" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="S217" s="20">
         <v>1000</v>
@@ -39315,7 +39378,7 @@
         <v>0</v>
       </c>
       <c r="Q218" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="R218" t="s">
         <v>146</v>
@@ -39392,10 +39455,10 @@
         <v>0</v>
       </c>
       <c r="Q219" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="R219" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="S219" s="20">
         <v>1300</v>
@@ -39421,13 +39484,13 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D220" s="23">
         <v>30</v>
@@ -39469,10 +39532,10 @@
         <v>50</v>
       </c>
       <c r="Q220" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="R220" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="S220" s="20">
         <v>1700</v>
@@ -39546,7 +39609,7 @@
         <v>25</v>
       </c>
       <c r="Q221" s="2" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="R221" t="s">
         <v>1203</v>
@@ -39575,13 +39638,13 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D222" s="23">
         <v>30</v>
@@ -39623,10 +39686,10 @@
         <v>100</v>
       </c>
       <c r="Q222" s="2" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="R222" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="S222" s="20">
         <v>4000</v>
@@ -39700,7 +39763,7 @@
         <v>50</v>
       </c>
       <c r="Q223" s="2" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="R223" t="s">
         <v>1204</v>
@@ -39729,13 +39792,13 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D224" s="23">
         <v>35</v>
@@ -39777,10 +39840,10 @@
         <v>99</v>
       </c>
       <c r="Q224" s="2" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="R224" s="2" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="S224" s="20">
         <v>9000</v>
@@ -39818,10 +39881,10 @@
         <v>35</v>
       </c>
       <c r="E225" s="33">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="F225" s="35">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="G225" s="41">
         <v>100</v>
@@ -39854,10 +39917,10 @@
         <v>0</v>
       </c>
       <c r="Q225" s="2" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="R225" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="S225" s="20">
         <v>100000</v>
@@ -39895,10 +39958,10 @@
         <v>40</v>
       </c>
       <c r="E226" s="33">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="F226" s="35">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="G226" s="41">
         <v>150</v>
@@ -39931,10 +39994,10 @@
         <v>0</v>
       </c>
       <c r="Q226" s="2" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="R226" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="S226" s="20">
         <v>200000</v>
@@ -39972,13 +40035,13 @@
         <v>45</v>
       </c>
       <c r="E227" s="33">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="F227" s="35">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="G227" s="41">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H227" s="25">
         <v>90</v>
@@ -40008,10 +40071,10 @@
         <v>0</v>
       </c>
       <c r="Q227" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R227" t="s">
         <v>1246</v>
-      </c>
-      <c r="R227" t="s">
-        <v>1250</v>
       </c>
       <c r="S227" s="20">
         <v>300000</v>
@@ -40037,25 +40100,25 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B228" t="s">
         <v>429</v>
       </c>
       <c r="C228" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="D228" s="23">
         <v>50</v>
       </c>
       <c r="E228" s="33">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="F228" s="35">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="G228" s="41">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H228" s="25">
         <v>90</v>
@@ -40085,13 +40148,13 @@
         <v>25</v>
       </c>
       <c r="Q228" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="R228" s="2" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="S228" s="21">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="T228" s="32">
         <v>0</v>
@@ -40114,13 +40177,13 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="D229" s="23">
         <v>60</v>
@@ -40162,7 +40225,7 @@
         <v>98</v>
       </c>
       <c r="Q229" s="2" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="R229" t="s">
         <v>146</v>
@@ -40180,7 +40243,7 @@
         <v>0</v>
       </c>
       <c r="W229" s="47" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="X229" s="57">
         <v>0</v>
@@ -40191,13 +40254,13 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D230" s="23">
         <v>35</v>
@@ -40242,10 +40305,10 @@
         <v>146</v>
       </c>
       <c r="R230" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="S230" s="20">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="T230" s="31">
         <v>0</v>
@@ -40268,13 +40331,13 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="D231" s="23">
         <v>37</v>
@@ -40319,10 +40382,10 @@
         <v>146</v>
       </c>
       <c r="R231" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="S231" s="20">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="T231" s="31">
         <v>0</v>
@@ -40345,13 +40408,13 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D232" s="23">
         <v>38</v>
@@ -40396,10 +40459,10 @@
         <v>146</v>
       </c>
       <c r="R232" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="S232" s="20">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="T232" s="31">
         <v>0</v>
@@ -40422,13 +40485,13 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D233" s="23">
         <v>39</v>
@@ -40473,10 +40536,10 @@
         <v>146</v>
       </c>
       <c r="R233" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="S233" s="20">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="T233" s="31">
         <v>0</v>
@@ -40499,13 +40562,13 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C234" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="D234" s="23">
         <v>44</v>
@@ -40547,13 +40610,13 @@
         <v>0</v>
       </c>
       <c r="Q234" s="2" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="R234" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="S234" s="20">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="T234" s="31">
         <v>0</v>
@@ -40576,13 +40639,13 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D235" s="23">
         <v>40</v>
@@ -40630,7 +40693,7 @@
         <v>146</v>
       </c>
       <c r="S235" s="20">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="T235" s="31">
         <v>0</v>
@@ -40653,13 +40716,13 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="D236" s="23">
         <v>41</v>
@@ -40704,10 +40767,10 @@
         <v>146</v>
       </c>
       <c r="R236" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="S236" s="20">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="T236" s="31">
         <v>0</v>
@@ -40730,13 +40793,13 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="D237" s="23">
         <v>42</v>
@@ -40781,10 +40844,10 @@
         <v>146</v>
       </c>
       <c r="R237" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="S237" s="20">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="T237" s="31">
         <v>0</v>
@@ -40807,13 +40870,13 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D238" s="23">
         <v>43</v>
@@ -40858,10 +40921,10 @@
         <v>146</v>
       </c>
       <c r="R238" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="S238" s="20">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="T238" s="31">
         <v>0</v>
@@ -40884,13 +40947,13 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="D239" s="23">
         <v>44</v>
@@ -40935,10 +40998,10 @@
         <v>146</v>
       </c>
       <c r="R239" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="S239" s="20">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="T239" s="31">
         <v>0</v>
@@ -40961,13 +41024,13 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D240" s="23">
         <v>45</v>
@@ -41012,10 +41075,10 @@
         <v>146</v>
       </c>
       <c r="R240" t="s">
-        <v>1327</v>
+        <v>1611</v>
       </c>
       <c r="S240" s="20">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="T240" s="31">
         <v>0</v>
@@ -41038,13 +41101,13 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="D241" s="23">
         <v>45</v>
@@ -41089,10 +41152,10 @@
         <v>146</v>
       </c>
       <c r="R241" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="S241" s="20">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="T241" s="31">
         <v>0</v>
@@ -41115,13 +41178,13 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D242" s="23">
         <v>45</v>
@@ -41166,10 +41229,10 @@
         <v>146</v>
       </c>
       <c r="R242" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="S242" s="20">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="T242" s="31">
         <v>0</v>
@@ -41192,13 +41255,13 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="D243" s="23">
         <v>46</v>
@@ -41243,10 +41306,10 @@
         <v>146</v>
       </c>
       <c r="R243" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="S243" s="20">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="T243" s="31">
         <v>0</v>
@@ -41269,13 +41332,13 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="D244" s="23">
         <v>72</v>
@@ -41320,10 +41383,10 @@
         <v>146</v>
       </c>
       <c r="R244" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="S244" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T244" s="31">
         <v>0</v>
@@ -41335,7 +41398,7 @@
         <v>0</v>
       </c>
       <c r="W244" s="47" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="X244" s="57">
         <v>1</v>
@@ -41346,13 +41409,13 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D245" s="23">
         <v>74</v>
@@ -41400,10 +41463,10 @@
         <v>146</v>
       </c>
       <c r="S245" s="20">
-        <v>0</v>
+        <v>999999</v>
       </c>
       <c r="T245" s="31">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="U245" s="38">
         <v>0</v>
@@ -41423,13 +41486,13 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="12" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="D246" s="23">
         <v>24</v>
@@ -41471,10 +41534,10 @@
         <v>50</v>
       </c>
       <c r="Q246" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="R246" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="S246" s="20">
         <v>10</v>
@@ -41500,13 +41563,13 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="12" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="D247" s="23">
         <v>22</v>
@@ -41548,10 +41611,10 @@
         <v>25</v>
       </c>
       <c r="Q247" s="2" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="R247" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="S247" s="20">
         <v>900</v>
@@ -41577,13 +41640,13 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="D248" s="23">
         <v>6</v>
@@ -41625,10 +41688,10 @@
         <v>-100</v>
       </c>
       <c r="Q248" s="2" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="R248" s="2" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="S248" s="21">
         <v>100</v>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -6056,11 +6056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127106048"/>
-        <c:axId val="129311488"/>
+        <c:axId val="108104704"/>
+        <c:axId val="124850944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127106048"/>
+        <c:axId val="108104704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6070,7 +6070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129311488"/>
+        <c:crossAx val="124850944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6078,7 +6078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129311488"/>
+        <c:axId val="124850944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -6090,7 +6090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127106048"/>
+        <c:crossAx val="108104704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6781,11 +6781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125797504"/>
-        <c:axId val="125799424"/>
+        <c:axId val="125195392"/>
+        <c:axId val="125197312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125797504"/>
+        <c:axId val="125195392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6813,7 +6813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125799424"/>
+        <c:crossAx val="125197312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6823,7 +6823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125799424"/>
+        <c:axId val="125197312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6834,7 +6834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125797504"/>
+        <c:crossAx val="125195392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8105,7 +8105,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="A1:J158"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10843,7 +10843,7 @@
         <v>1612</v>
       </c>
       <c r="B86" s="96" t="s">
-        <v>636</v>
+        <v>249</v>
       </c>
       <c r="C86" s="96" t="s">
         <v>159</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="97">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F86" s="96" t="s">
         <v>124</v>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="1614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="1616">
   <si>
     <t>Club</t>
   </si>
@@ -2510,21 +2510,6 @@
     <t>Magical Mushroom</t>
   </si>
   <si>
-    <t>Restores all EP.*Consumed when HP is below 50%.</t>
-  </si>
-  <si>
-    <t>Multiplies damage by 2.*Consumed when HP is below 50%.</t>
-  </si>
-  <si>
-    <t>Increases crit chance by 25%.*Consumed when HP is below 50%.</t>
-  </si>
-  <si>
-    <t>Multiplies defence by 2.*Consumed when HP is below 50%.</t>
-  </si>
-  <si>
-    <t>Increases all reductions by 15%.*Consumed when HP is below 50%.</t>
-  </si>
-  <si>
     <t>Formula 3</t>
   </si>
   <si>
@@ -2534,9 +2519,6 @@
     <t>Crayon Battle</t>
   </si>
   <si>
-    <t>Restores all HP.*Consumed when HP is below 50%.</t>
-  </si>
-  <si>
     <t>Nutritious Mushroom</t>
   </si>
   <si>
@@ -3290,9 +3272,6 @@
     <t>breathes poisonous gas onto</t>
   </si>
   <si>
-    <t>{'Floodtide': 50, 'Torrent Funnel': 20, 'Tsunami': 10, 'Poisonbreath': 15, 'Grow Heads': 5}</t>
-  </si>
-  <si>
     <t>Homing</t>
   </si>
   <si>
@@ -3665,9 +3644,6 @@
     <t>Phalanx Captain</t>
   </si>
   <si>
-    <t>{'Guardian Plate': 25}</t>
-  </si>
-  <si>
     <t>{'Deep Thrust': 30, 'Helix Swing': 15, 'Steadfast Slash': 15, 'Restore': 10}</t>
   </si>
   <si>
@@ -4028,27 +4004,6 @@
     <t>{'Fortified Kite Shield': 1}</t>
   </si>
   <si>
-    <t>{'Guardian Plate': 1}</t>
-  </si>
-  <si>
-    <t>{'Helm Splitter': 1}</t>
-  </si>
-  <si>
-    <t>{'J Bow': 1}</t>
-  </si>
-  <si>
-    <t>{'Ornate Halberd': 1}</t>
-  </si>
-  <si>
-    <t>{'Khabir\'s Shaft': 1}</t>
-  </si>
-  <si>
-    <t>{'Golden Sun': 1}</t>
-  </si>
-  <si>
-    <t>{'Gyroscopic Flange': 1}</t>
-  </si>
-  <si>
     <t>{'Avadavra Wand': 1}</t>
   </si>
   <si>
@@ -4869,6 +4824,57 @@
   </si>
   <si>
     <t>consumes a vial of life fluid</t>
+  </si>
+  <si>
+    <t>{'Brummo Mint': 10, 'Golden Sun': 1}</t>
+  </si>
+  <si>
+    <t>{'Brummo Mint': 10, 'Helm Splitter': 1}</t>
+  </si>
+  <si>
+    <t>{'Brummo Mint': 10, 'Guardian Plate': 1}</t>
+  </si>
+  <si>
+    <t>{'Brummo Mint': 10, 'Gyroscopic Flange': 1}</t>
+  </si>
+  <si>
+    <t>{'Brummo Mint': 10, 'J Bow': 1}</t>
+  </si>
+  <si>
+    <t>{'Brummo Mint': 10, 'Ornate Halberd': 1}</t>
+  </si>
+  <si>
+    <t>{'Brummo Mint': 10, 'Khabir\'s Shaft': 1}</t>
+  </si>
+  <si>
+    <t>{'Floodtide': 50, 'Torrent Funnel': 20, 'Tsunami': 10, 'Poisonbreath': 15, 'Grow Heads': 3}</t>
+  </si>
+  <si>
+    <t>Restores all HP.*Consumed during an important battle.</t>
+  </si>
+  <si>
+    <t>Restores all EP.*Consumed during an important battle.</t>
+  </si>
+  <si>
+    <t>Multiplies damage by 2.*Consumed during an important battle.</t>
+  </si>
+  <si>
+    <t>Increases crit chance by 25%.*Consumed during an important battle.</t>
+  </si>
+  <si>
+    <t>Multiplies defence by 2.*Consumed during an important battle.</t>
+  </si>
+  <si>
+    <t>Increases all reductions by 25%.*Consumed during an important battle.</t>
+  </si>
+  <si>
+    <t>Aspis</t>
+  </si>
+  <si>
+    <t>{'Guardian Plate': 50, 'Aspis': 50}</t>
+  </si>
+  <si>
+    <t>{'Khabir\'s Shaft': 2, 'J Bow': 2, 'Guardian Plate': 1, 'Ornate Halberd': 1, 'Helm Splitter': 1, 'Gyroscopic Flange': 1, 'Golden Sun': 1}</t>
   </si>
 </sst>
 </file>
@@ -5684,6 +5690,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6056,11 +6063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108104704"/>
-        <c:axId val="124850944"/>
+        <c:axId val="127044608"/>
+        <c:axId val="129573632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108104704"/>
+        <c:axId val="127044608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6070,7 +6077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124850944"/>
+        <c:crossAx val="129573632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6078,7 +6085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124850944"/>
+        <c:axId val="129573632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -6090,13 +6097,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108104704"/>
+        <c:crossAx val="127044608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6781,11 +6789,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125195392"/>
-        <c:axId val="125197312"/>
+        <c:axId val="129651840"/>
+        <c:axId val="129653760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125195392"/>
+        <c:axId val="129651840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6813,7 +6821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125197312"/>
+        <c:crossAx val="129653760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6823,7 +6831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125197312"/>
+        <c:axId val="129653760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6834,7 +6842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125195392"/>
+        <c:crossAx val="129651840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7234,7 +7242,7 @@
         <v>670</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8104,8 +8112,8 @@
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9470,7 +9478,7 @@
         <v>157</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="D43" s="64">
         <v>10</v>
@@ -9566,7 +9574,7 @@
         <v>167</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="D46" s="64">
         <v>15</v>
@@ -9624,7 +9632,7 @@
     </row>
     <row r="48" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="B48" s="64" t="s">
         <v>171</v>
@@ -9662,7 +9670,7 @@
         <v>157</v>
       </c>
       <c r="C49" s="64" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="D49" s="64">
         <v>30</v>
@@ -9726,7 +9734,7 @@
         <v>171</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="D51" s="64">
         <v>50</v>
@@ -10221,7 +10229,7 @@
         <v>146</v>
       </c>
       <c r="H66" s="58" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="I66" s="58" t="s">
         <v>656</v>
@@ -10736,7 +10744,7 @@
         <v>146</v>
       </c>
       <c r="I82" s="73" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="J82" s="73" t="s">
         <v>190</v>
@@ -10768,7 +10776,7 @@
         <v>146</v>
       </c>
       <c r="I83" s="73" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="J83" s="73" t="s">
         <v>190</v>
@@ -10800,7 +10808,7 @@
         <v>146</v>
       </c>
       <c r="I84" s="73" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="J84" s="73" t="s">
         <v>190</v>
@@ -10808,7 +10816,7 @@
     </row>
     <row r="85" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="96" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="B85" s="96" t="s">
         <v>249</v>
@@ -10832,7 +10840,7 @@
         <v>146</v>
       </c>
       <c r="I85" s="96" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="J85" s="97" t="s">
         <v>155</v>
@@ -10840,7 +10848,7 @@
     </row>
     <row r="86" spans="1:10" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="96" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="B86" s="96" t="s">
         <v>249</v>
@@ -10864,7 +10872,7 @@
         <v>146</v>
       </c>
       <c r="I86" s="96" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
       <c r="J86" s="97" t="s">
         <v>155</v>
@@ -10928,7 +10936,7 @@
         <v>146</v>
       </c>
       <c r="I88" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="J88" t="s">
         <v>155</v>
@@ -10960,7 +10968,7 @@
         <v>146</v>
       </c>
       <c r="I89" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="J89" t="s">
         <v>155</v>
@@ -10992,7 +11000,7 @@
         <v>146</v>
       </c>
       <c r="I90" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="J90" t="s">
         <v>155</v>
@@ -11216,7 +11224,7 @@
         <v>146</v>
       </c>
       <c r="I97" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="J97" t="s">
         <v>155</v>
@@ -11667,7 +11675,7 @@
         <v>571</v>
       </c>
       <c r="J111" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
@@ -11864,7 +11872,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>157</v>
@@ -11896,7 +11904,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>157</v>
@@ -11917,10 +11925,10 @@
         <v>146</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>155</v>
@@ -11928,7 +11936,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>176</v>
@@ -11949,10 +11957,10 @@
         <v>146</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>190</v>
@@ -11960,7 +11968,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>249</v>
@@ -11978,13 +11986,13 @@
         <v>124</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>155</v>
@@ -11992,7 +12000,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>173</v>
@@ -12016,7 +12024,7 @@
         <v>146</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>155</v>
@@ -12024,7 +12032,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>169</v>
@@ -12048,7 +12056,7 @@
         <v>146</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>155</v>
@@ -12056,7 +12064,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>157</v>
@@ -12071,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>146</v>
@@ -12080,7 +12088,7 @@
         <v>146</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>155</v>
@@ -12088,7 +12096,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>249</v>
@@ -12106,21 +12114,21 @@
         <v>124</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>249</v>
@@ -12138,21 +12146,21 @@
         <v>124</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>249</v>
@@ -12170,21 +12178,21 @@
         <v>124</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>249</v>
@@ -12202,21 +12210,21 @@
         <v>124</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>249</v>
@@ -12234,13 +12242,13 @@
         <v>124</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>190</v>
@@ -12248,7 +12256,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>176</v>
@@ -12272,7 +12280,7 @@
         <v>640</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>155</v>
@@ -12280,7 +12288,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>157</v>
@@ -12298,21 +12306,21 @@
         <v>124</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>249</v>
@@ -12336,15 +12344,15 @@
         <v>146</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>249</v>
@@ -12362,21 +12370,21 @@
         <v>124</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>157</v>
@@ -12397,10 +12405,10 @@
         <v>146</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>190</v>
@@ -12408,7 +12416,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>157</v>
@@ -12423,7 +12431,7 @@
         <v>200</v>
       </c>
       <c r="F135" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>146</v>
@@ -12432,7 +12440,7 @@
         <v>146</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>155</v>
@@ -12440,7 +12448,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>169</v>
@@ -12455,16 +12463,16 @@
         <v>3000</v>
       </c>
       <c r="F136" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>155</v>
@@ -12472,7 +12480,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>157</v>
@@ -12490,13 +12498,13 @@
         <v>29</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>155</v>
@@ -12504,7 +12512,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="B138" t="s">
         <v>157</v>
@@ -12522,13 +12530,13 @@
         <v>198</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>155</v>
@@ -12536,7 +12544,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B139" t="s">
         <v>157</v>
@@ -12554,13 +12562,13 @@
         <v>301</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>155</v>
@@ -12568,7 +12576,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="B140" t="s">
         <v>173</v>
@@ -12592,7 +12600,7 @@
         <v>146</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>155</v>
@@ -12600,7 +12608,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="B141" t="s">
         <v>176</v>
@@ -12618,13 +12626,13 @@
         <v>124</v>
       </c>
       <c r="G141" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>155</v>
@@ -12632,7 +12640,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="B142" t="s">
         <v>249</v>
@@ -12656,7 +12664,7 @@
         <v>146</v>
       </c>
       <c r="I142" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>155</v>
@@ -12664,7 +12672,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="B143" t="s">
         <v>249</v>
@@ -12688,7 +12696,7 @@
         <v>146</v>
       </c>
       <c r="I143" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>155</v>
@@ -12696,7 +12704,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="B144" t="s">
         <v>157</v>
@@ -12720,7 +12728,7 @@
         <v>146</v>
       </c>
       <c r="I144" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>155</v>
@@ -12728,7 +12736,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="B145" t="s">
         <v>173</v>
@@ -12746,13 +12754,13 @@
         <v>10</v>
       </c>
       <c r="G145" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I145" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>155</v>
@@ -12760,7 +12768,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="B146" t="s">
         <v>173</v>
@@ -12784,7 +12792,7 @@
         <v>146</v>
       </c>
       <c r="I146" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>155</v>
@@ -12792,7 +12800,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="B147" t="s">
         <v>171</v>
@@ -12810,13 +12818,13 @@
         <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I147" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>155</v>
@@ -12824,7 +12832,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>249</v>
@@ -12842,21 +12850,21 @@
         <v>124</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B149" t="s">
         <v>249</v>
@@ -12874,21 +12882,21 @@
         <v>124</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="H149" t="s">
         <v>146</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="B150" t="s">
         <v>173</v>
@@ -12906,13 +12914,13 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="H150" t="s">
         <v>146</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>155</v>
@@ -12920,7 +12928,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B151" t="s">
         <v>173</v>
@@ -12938,13 +12946,13 @@
         <v>39</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="H151" t="s">
         <v>146</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>155</v>
@@ -12952,7 +12960,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="B152" t="s">
         <v>173</v>
@@ -12970,13 +12978,13 @@
         <v>29</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="H152" t="s">
         <v>146</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>155</v>
@@ -12984,7 +12992,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="B153" t="s">
         <v>249</v>
@@ -13008,15 +13016,15 @@
         <v>146</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="B154" t="s">
         <v>157</v>
@@ -13031,7 +13039,7 @@
         <v>200</v>
       </c>
       <c r="F154" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>146</v>
@@ -13040,7 +13048,7 @@
         <v>146</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>155</v>
@@ -13048,7 +13056,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="B155" t="s">
         <v>176</v>
@@ -13063,7 +13071,7 @@
         <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="G155" t="s">
         <v>146</v>
@@ -13072,7 +13080,7 @@
         <v>640</v>
       </c>
       <c r="I155" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="J155" t="s">
         <v>155</v>
@@ -13080,10 +13088,10 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="B156" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="C156" t="s">
         <v>159</v>
@@ -13092,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F156" t="s">
         <v>124</v>
@@ -13104,7 +13112,7 @@
         <v>146</v>
       </c>
       <c r="I156" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="J156" t="s">
         <v>155</v>
@@ -13112,7 +13120,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>1505</v>
+        <v>1490</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>249</v>
@@ -13136,7 +13144,7 @@
         <v>146</v>
       </c>
       <c r="I157" t="s">
-        <v>1506</v>
+        <v>1491</v>
       </c>
       <c r="J157" t="s">
         <v>155</v>
@@ -13144,13 +13152,13 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -13168,7 +13176,7 @@
         <v>146</v>
       </c>
       <c r="I158" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
       <c r="J158" t="s">
         <v>155</v>
@@ -13576,279 +13584,279 @@
         <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B2" s="70">
         <v>1</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="71" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B3" s="71">
         <v>1</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B4" s="59">
         <v>0</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B5" s="72">
         <v>1</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B6" s="58">
         <v>0</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B7" s="58">
         <v>0</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B8" s="58">
         <v>0</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B9" s="69">
         <v>0</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B10" s="59">
         <v>0</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="67" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B11" s="67">
         <v>1</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B12" s="65">
         <v>1</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="61" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B13" s="61">
         <v>0</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B14" s="62">
         <v>0</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="58" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B15" s="58">
         <v>0</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B16" s="63">
         <v>1</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="60" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B17" s="60">
         <v>0</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B18" s="59">
         <v>0</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="64" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B19" s="64">
         <v>0</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B20" s="47">
         <v>0</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B21" s="66">
         <v>0</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B22" s="47">
         <v>0</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="68" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B23" s="68">
         <v>0</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="68" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B24" s="68">
         <v>1</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B25" s="47">
         <v>0</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -13876,196 +13884,196 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -17068,7 +17076,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17513,7 +17521,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1437</v>
+        <v>1422</v>
       </c>
       <c r="B16" s="43">
         <v>600</v>
@@ -17925,7 +17933,7 @@
         <v>4000</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="D30">
         <v>45</v>
@@ -18122,7 +18130,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="B37" s="43">
         <v>4699</v>
@@ -18209,7 +18217,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="B40" s="43">
         <v>4699</v>
@@ -18267,7 +18275,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="B42" s="43">
         <v>4699</v>
@@ -18412,7 +18420,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="B47" s="43">
         <v>6000</v>
@@ -18470,7 +18478,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="B49" s="43">
         <v>6000</v>
@@ -18644,7 +18652,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B55" s="43">
         <v>7000</v>
@@ -18731,7 +18739,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B58" s="43">
         <v>8000</v>
@@ -18789,7 +18797,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="B60" s="43">
         <v>7000</v>
@@ -18818,7 +18826,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="B61" s="43">
         <v>7500</v>
@@ -18847,7 +18855,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="B62" s="43">
         <v>7500</v>
@@ -18876,7 +18884,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1501</v>
+        <v>1486</v>
       </c>
       <c r="B63" s="43">
         <v>1225</v>
@@ -18894,7 +18902,7 @@
         <v>125</v>
       </c>
       <c r="G63" t="s">
-        <v>1500</v>
+        <v>1485</v>
       </c>
       <c r="H63">
         <v>10</v>
@@ -18918,7 +18926,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F58"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19648,7 +19656,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="B37" s="43">
         <v>8000</v>
@@ -19688,7 +19696,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="B39" s="43">
         <v>8000</v>
@@ -19768,7 +19776,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B43" s="43">
         <v>1</v>
@@ -19788,7 +19796,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B44" s="43">
         <v>1</v>
@@ -19848,7 +19856,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B47" s="43">
         <v>10000</v>
@@ -19868,7 +19876,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B48" s="43">
         <v>10000</v>
@@ -19888,7 +19896,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="B49" s="43">
         <v>5000</v>
@@ -19908,7 +19916,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="B50" s="43">
         <v>5000</v>
@@ -19928,7 +19936,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="B51" s="43">
         <v>5000</v>
@@ -19948,7 +19956,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="B52" s="43">
         <v>8000</v>
@@ -19968,7 +19976,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="B53" s="43">
         <v>1225</v>
@@ -19988,7 +19996,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="B54" s="43">
         <v>8000</v>
@@ -20008,7 +20016,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1350</v>
+        <v>1335</v>
       </c>
       <c r="B55" s="43">
         <v>8000</v>
@@ -20028,7 +20036,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1378</v>
+        <v>1363</v>
       </c>
       <c r="B56" s="43">
         <v>1225</v>
@@ -20048,7 +20056,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1585</v>
+        <v>1570</v>
       </c>
       <c r="B57" s="43">
         <v>1225</v>
@@ -20068,7 +20076,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="B58" s="43">
         <v>7000</v>
@@ -20099,9 +20107,11 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20547,7 +20557,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="B20" s="43">
         <v>3500</v>
@@ -20777,7 +20787,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="B30" s="43">
         <v>8000</v>
@@ -21007,7 +21017,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="B40" s="43">
         <v>7000</v>
@@ -21026,6 +21036,29 @@
       </c>
       <c r="G40" s="26">
         <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B41" s="43">
+        <v>7000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+      <c r="E41" s="27">
+        <v>35</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="26">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -21042,7 +21075,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21163,13 +21198,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="B8" s="43">
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -21212,7 +21247,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -21234,7 +21269,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -21250,13 +21285,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B15" s="43">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>835</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -21264,10 +21299,10 @@
         <v>822</v>
       </c>
       <c r="B16" s="43">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>827</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -21275,10 +21310,10 @@
         <v>823</v>
       </c>
       <c r="B17" s="43">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>828</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -21286,10 +21321,10 @@
         <v>824</v>
       </c>
       <c r="B18" s="43">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>829</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -21297,10 +21332,10 @@
         <v>825</v>
       </c>
       <c r="B19" s="43">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>830</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -21308,43 +21343,43 @@
         <v>826</v>
       </c>
       <c r="B20" s="43">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>831</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="B21" s="43">
         <v>0</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="B22" s="43">
         <v>0</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="B23" s="43">
         <v>0</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -21376,42 +21411,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="B1" t="s">
-        <v>1355</v>
+        <v>1340</v>
       </c>
       <c r="C1" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
       <c r="D1" t="s">
-        <v>1357</v>
+        <v>1342</v>
       </c>
       <c r="E1" t="s">
-        <v>1358</v>
+        <v>1343</v>
       </c>
       <c r="F1" s="98" t="s">
-        <v>1550</v>
+        <v>1535</v>
       </c>
       <c r="G1" s="98" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1365</v>
+        <v>1350</v>
       </c>
       <c r="B2" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="C2" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="D2" t="s">
-        <v>1359</v>
+        <v>1344</v>
       </c>
       <c r="E2" t="s">
-        <v>1360</v>
+        <v>1345</v>
       </c>
       <c r="F2" s="98">
         <v>0</v>
@@ -21422,19 +21457,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1366</v>
+        <v>1351</v>
       </c>
       <c r="B3" t="s">
-        <v>1435</v>
+        <v>1420</v>
       </c>
       <c r="C3" t="s">
-        <v>1368</v>
+        <v>1353</v>
       </c>
       <c r="D3" t="s">
-        <v>1361</v>
+        <v>1346</v>
       </c>
       <c r="E3" t="s">
-        <v>1363</v>
+        <v>1348</v>
       </c>
       <c r="F3" s="98">
         <v>0</v>
@@ -21445,19 +21480,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1514</v>
+        <v>1499</v>
       </c>
       <c r="B4" t="s">
-        <v>1436</v>
+        <v>1421</v>
       </c>
       <c r="C4" t="s">
-        <v>1369</v>
+        <v>1354</v>
       </c>
       <c r="D4" t="s">
-        <v>1362</v>
+        <v>1347</v>
       </c>
       <c r="E4" t="s">
-        <v>1364</v>
+        <v>1349</v>
       </c>
       <c r="F4" s="98">
         <v>0</v>
@@ -21468,19 +21503,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="B5" t="s">
-        <v>1379</v>
+        <v>1364</v>
       </c>
       <c r="C5" t="s">
-        <v>1388</v>
+        <v>1373</v>
       </c>
       <c r="D5" t="s">
-        <v>1391</v>
+        <v>1376</v>
       </c>
       <c r="E5" t="s">
-        <v>1393</v>
+        <v>1378</v>
       </c>
       <c r="F5" s="98">
         <v>0</v>
@@ -21491,19 +21526,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1397</v>
+        <v>1382</v>
       </c>
       <c r="B6" t="s">
-        <v>1380</v>
+        <v>1365</v>
       </c>
       <c r="C6" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="D6" t="s">
-        <v>1390</v>
+        <v>1375</v>
       </c>
       <c r="E6" t="s">
-        <v>1394</v>
+        <v>1379</v>
       </c>
       <c r="F6" s="98">
         <v>0</v>
@@ -21514,19 +21549,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1396</v>
+        <v>1381</v>
       </c>
       <c r="B7" t="s">
-        <v>1389</v>
+        <v>1374</v>
       </c>
       <c r="C7" t="s">
-        <v>1438</v>
+        <v>1423</v>
       </c>
       <c r="D7" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
       <c r="E7" t="s">
-        <v>1395</v>
+        <v>1380</v>
       </c>
       <c r="F7" s="98">
         <v>0</v>
@@ -21537,19 +21572,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1411</v>
+        <v>1396</v>
       </c>
       <c r="B8" t="s">
-        <v>1414</v>
+        <v>1399</v>
       </c>
       <c r="C8" t="s">
-        <v>1412</v>
+        <v>1397</v>
       </c>
       <c r="D8" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
       <c r="E8" t="s">
-        <v>1408</v>
+        <v>1393</v>
       </c>
       <c r="F8" s="98">
         <v>0</v>
@@ -21560,19 +21595,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1419</v>
+        <v>1404</v>
       </c>
       <c r="B9" t="s">
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="C9" t="s">
-        <v>1413</v>
+        <v>1398</v>
       </c>
       <c r="D9" t="s">
-        <v>1406</v>
+        <v>1391</v>
       </c>
       <c r="E9" t="s">
-        <v>1409</v>
+        <v>1394</v>
       </c>
       <c r="F9" s="98">
         <v>0</v>
@@ -21583,19 +21618,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1418</v>
+        <v>1403</v>
       </c>
       <c r="B10" t="s">
-        <v>1416</v>
+        <v>1401</v>
       </c>
       <c r="C10" t="s">
-        <v>1417</v>
+        <v>1402</v>
       </c>
       <c r="D10" t="s">
-        <v>1407</v>
+        <v>1392</v>
       </c>
       <c r="E10" t="s">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="F10" s="98">
         <v>0</v>
@@ -21606,19 +21641,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1427</v>
+        <v>1412</v>
       </c>
       <c r="B11" t="s">
-        <v>1595</v>
+        <v>1580</v>
       </c>
       <c r="C11" t="s">
-        <v>1426</v>
+        <v>1411</v>
       </c>
       <c r="D11" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
       <c r="E11" t="s">
-        <v>1421</v>
+        <v>1406</v>
       </c>
       <c r="F11" s="98">
         <v>0</v>
@@ -21629,19 +21664,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1440</v>
+        <v>1425</v>
       </c>
       <c r="B12" t="s">
-        <v>1429</v>
+        <v>1414</v>
       </c>
       <c r="C12" t="s">
-        <v>1428</v>
+        <v>1413</v>
       </c>
       <c r="D12" t="s">
-        <v>1422</v>
+        <v>1407</v>
       </c>
       <c r="E12" t="s">
-        <v>1423</v>
+        <v>1408</v>
       </c>
       <c r="F12" s="98">
         <v>0</v>
@@ -21652,19 +21687,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1439</v>
+        <v>1424</v>
       </c>
       <c r="B13" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="C13" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="D13" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
       <c r="E13" t="s">
-        <v>1425</v>
+        <v>1410</v>
       </c>
       <c r="F13" s="98">
         <v>0</v>
@@ -21675,19 +21710,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1433</v>
+        <v>1418</v>
       </c>
       <c r="B14" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="C14" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D14" t="s">
-        <v>1364</v>
+        <v>1349</v>
       </c>
       <c r="E14" t="s">
-        <v>1432</v>
+        <v>1417</v>
       </c>
       <c r="F14" s="98">
         <v>0</v>
@@ -21698,19 +21733,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1400</v>
+        <v>1385</v>
       </c>
       <c r="B15" t="s">
-        <v>1399</v>
+        <v>1384</v>
       </c>
       <c r="C15" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D15" t="s">
         <v>411</v>
       </c>
       <c r="E15" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="F15" s="98">
         <v>0</v>
@@ -21721,19 +21756,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="B16" t="s">
-        <v>1465</v>
+        <v>1450</v>
       </c>
       <c r="C16" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="D16" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="E16" t="s">
-        <v>1456</v>
+        <v>1441</v>
       </c>
       <c r="F16" s="98">
         <v>0</v>
@@ -21744,19 +21779,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1458</v>
+        <v>1443</v>
       </c>
       <c r="B17" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="C17" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D17" t="s">
-        <v>1456</v>
+        <v>1441</v>
       </c>
       <c r="E17" t="s">
-        <v>1461</v>
+        <v>1446</v>
       </c>
       <c r="F17" s="98">
         <v>0</v>
@@ -21767,19 +21802,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
       <c r="B18" t="s">
-        <v>1462</v>
+        <v>1447</v>
       </c>
       <c r="C18" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D18" t="s">
-        <v>1461</v>
+        <v>1446</v>
       </c>
       <c r="E18" t="s">
-        <v>1463</v>
+        <v>1448</v>
       </c>
       <c r="F18" s="98">
         <v>0</v>
@@ -21790,19 +21825,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1403</v>
+        <v>1388</v>
       </c>
       <c r="B19" t="s">
-        <v>1404</v>
+        <v>1389</v>
       </c>
       <c r="C19" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D19" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="E19" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="F19" s="98">
         <v>0</v>
@@ -21813,19 +21848,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1443</v>
+        <v>1428</v>
       </c>
       <c r="B20" t="s">
-        <v>1442</v>
+        <v>1427</v>
       </c>
       <c r="C20" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D20" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="E20" t="s">
-        <v>1441</v>
+        <v>1426</v>
       </c>
       <c r="F20" s="98">
         <v>0</v>
@@ -21836,19 +21871,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1447</v>
+        <v>1432</v>
       </c>
       <c r="B21" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="C21" t="s">
-        <v>1446</v>
+        <v>1431</v>
       </c>
       <c r="D21" t="s">
-        <v>1441</v>
+        <v>1426</v>
       </c>
       <c r="E21" t="s">
-        <v>1444</v>
+        <v>1429</v>
       </c>
       <c r="F21" s="98">
         <v>0</v>
@@ -21859,19 +21894,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1454</v>
+        <v>1439</v>
       </c>
       <c r="B22" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
       <c r="C22" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D22" t="s">
-        <v>1444</v>
+        <v>1429</v>
       </c>
       <c r="E22" t="s">
-        <v>1448</v>
+        <v>1433</v>
       </c>
       <c r="F22" s="98">
         <v>0</v>
@@ -21882,19 +21917,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1450</v>
+        <v>1435</v>
       </c>
       <c r="B23" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="C23" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D23" t="s">
-        <v>1452</v>
+        <v>1437</v>
       </c>
       <c r="E23" t="s">
-        <v>1451</v>
+        <v>1436</v>
       </c>
       <c r="F23" s="98">
         <v>0</v>
@@ -21905,19 +21940,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="B24" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="C24" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="D24" t="s">
-        <v>1466</v>
+        <v>1451</v>
       </c>
       <c r="E24" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="F24" s="98">
         <v>0</v>
@@ -21928,19 +21963,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="B25" t="s">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="C25" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="D25" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="E25" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="F25" s="98">
         <v>0</v>
@@ -21951,19 +21986,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="B26" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="C26" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D26" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="E26" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="F26" s="98">
         <v>0</v>
@@ -21974,19 +22009,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1482</v>
+        <v>1467</v>
       </c>
       <c r="B27" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="C27" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="D27" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="E27" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="F27" s="98">
         <v>0</v>
@@ -21997,19 +22032,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="B28" t="s">
-        <v>1548</v>
+        <v>1533</v>
       </c>
       <c r="C28" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="D28" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="E28" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="F28" s="98">
         <v>0</v>
@@ -22020,19 +22055,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1603</v>
+        <v>1588</v>
       </c>
       <c r="B29" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="C29" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="D29" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="E29" t="s">
-        <v>1490</v>
+        <v>1475</v>
       </c>
       <c r="F29" s="98">
         <v>0</v>
@@ -22043,19 +22078,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1513</v>
+        <v>1498</v>
       </c>
       <c r="B30" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="C30" t="s">
-        <v>1498</v>
+        <v>1483</v>
       </c>
       <c r="D30" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="E30" t="s">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="F30" s="98">
         <v>0</v>
@@ -22066,19 +22101,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1512</v>
+        <v>1497</v>
       </c>
       <c r="B31" t="s">
-        <v>1511</v>
+        <v>1496</v>
       </c>
       <c r="C31" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D31" t="s">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="E31" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="F31" s="98">
         <v>0</v>
@@ -22089,19 +22124,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1529</v>
+        <v>1514</v>
       </c>
       <c r="B32" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="C32" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D32" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="E32" t="s">
-        <v>1515</v>
+        <v>1500</v>
       </c>
       <c r="F32" s="98">
         <v>0</v>
@@ -22112,19 +22147,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1464</v>
+        <v>1449</v>
       </c>
       <c r="B33" t="s">
-        <v>1518</v>
+        <v>1503</v>
       </c>
       <c r="C33" t="s">
-        <v>1377</v>
+        <v>1362</v>
       </c>
       <c r="D33" t="s">
-        <v>1515</v>
+        <v>1500</v>
       </c>
       <c r="E33" t="s">
-        <v>1517</v>
+        <v>1502</v>
       </c>
       <c r="F33" s="98">
         <v>0</v>
@@ -22138,16 +22173,16 @@
         <v>530</v>
       </c>
       <c r="B34" t="s">
-        <v>1376</v>
+        <v>1361</v>
       </c>
       <c r="C34" t="s">
-        <v>1523</v>
+        <v>1508</v>
       </c>
       <c r="D34" t="s">
-        <v>1522</v>
+        <v>1507</v>
       </c>
       <c r="E34" t="s">
-        <v>1375</v>
+        <v>1360</v>
       </c>
       <c r="F34" s="98">
         <v>0</v>
@@ -22158,19 +22193,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1520</v>
+        <v>1505</v>
       </c>
       <c r="B35" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
       <c r="C35" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D35" t="s">
-        <v>1375</v>
+        <v>1360</v>
       </c>
       <c r="E35" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
       <c r="F35" s="98">
         <v>0</v>
@@ -22181,19 +22216,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1549</v>
+        <v>1534</v>
       </c>
       <c r="B36" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="C36" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="D36" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
       <c r="E36" t="s">
-        <v>1524</v>
+        <v>1509</v>
       </c>
       <c r="F36" s="98">
         <v>0</v>
@@ -22204,19 +22239,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1519</v>
+        <v>1504</v>
       </c>
       <c r="B37" t="s">
-        <v>1521</v>
+        <v>1506</v>
       </c>
       <c r="C37" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D37" t="s">
-        <v>1527</v>
+        <v>1512</v>
       </c>
       <c r="E37" t="s">
-        <v>1528</v>
+        <v>1513</v>
       </c>
       <c r="F37" s="98">
         <v>0</v>
@@ -22227,19 +22262,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="B38" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="C38" t="s">
-        <v>1586</v>
+        <v>1571</v>
       </c>
       <c r="D38" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="E38" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
       <c r="F38" s="98">
         <v>0</v>
@@ -22250,19 +22285,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="B39" t="s">
-        <v>1542</v>
+        <v>1527</v>
       </c>
       <c r="C39" t="s">
-        <v>1590</v>
+        <v>1575</v>
       </c>
       <c r="D39" t="s">
-        <v>1537</v>
+        <v>1522</v>
       </c>
       <c r="E39" t="s">
-        <v>1538</v>
+        <v>1523</v>
       </c>
       <c r="F39" s="98">
         <v>0</v>
@@ -22273,19 +22308,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="B40" t="s">
-        <v>1543</v>
+        <v>1528</v>
       </c>
       <c r="C40" t="s">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="D40" t="s">
-        <v>1540</v>
+        <v>1525</v>
       </c>
       <c r="E40" t="s">
-        <v>1539</v>
+        <v>1524</v>
       </c>
       <c r="F40" s="98">
         <v>0</v>
@@ -22296,19 +22331,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="B41" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="C41" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="D41" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="E41" t="s">
-        <v>1370</v>
+        <v>1355</v>
       </c>
       <c r="F41" s="98">
         <v>1</v>
@@ -22319,19 +22354,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
       <c r="B42" t="s">
-        <v>1593</v>
+        <v>1578</v>
       </c>
       <c r="C42" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="D42" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="E42" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="F42" s="98">
         <v>1</v>
@@ -22342,19 +22377,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1544</v>
+        <v>1529</v>
       </c>
       <c r="B43" t="s">
-        <v>1588</v>
+        <v>1573</v>
       </c>
       <c r="C43" t="s">
-        <v>1591</v>
+        <v>1576</v>
       </c>
       <c r="D43" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="E43" t="s">
-        <v>1546</v>
+        <v>1531</v>
       </c>
       <c r="F43" s="98">
         <v>1</v>
@@ -22365,19 +22400,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1556</v>
+        <v>1541</v>
       </c>
       <c r="B44" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
       <c r="C44" t="s">
-        <v>1555</v>
+        <v>1540</v>
       </c>
       <c r="D44" t="s">
-        <v>1554</v>
+        <v>1539</v>
       </c>
       <c r="E44" t="s">
-        <v>1553</v>
+        <v>1538</v>
       </c>
       <c r="F44" s="98">
         <v>1</v>
@@ -22388,19 +22423,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="B45" t="s">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="C45" t="s">
-        <v>1557</v>
+        <v>1542</v>
       </c>
       <c r="D45" t="s">
-        <v>1558</v>
+        <v>1543</v>
       </c>
       <c r="E45" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
       <c r="F45" s="98">
         <v>1</v>
@@ -22411,19 +22446,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1573</v>
+        <v>1558</v>
       </c>
       <c r="B46" t="s">
-        <v>1563</v>
+        <v>1548</v>
       </c>
       <c r="C46" t="s">
-        <v>1592</v>
+        <v>1577</v>
       </c>
       <c r="D46" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
       <c r="E46" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
       <c r="F46" s="98">
         <v>1</v>
@@ -22434,19 +22469,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
       <c r="B47" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="C47" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="D47" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="E47" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
       <c r="F47" s="98">
         <v>0</v>
@@ -22457,19 +22492,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1572</v>
+        <v>1557</v>
       </c>
       <c r="B48" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="C48" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
       <c r="D48" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
       <c r="E48" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="F48" s="98">
         <v>0</v>
@@ -22480,19 +22515,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1571</v>
+        <v>1556</v>
       </c>
       <c r="B49" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
       <c r="C49" t="s">
-        <v>1570</v>
+        <v>1555</v>
       </c>
       <c r="D49" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="E49" t="s">
-        <v>1567</v>
+        <v>1552</v>
       </c>
       <c r="F49" s="98">
         <v>0</v>
@@ -22503,19 +22538,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="B50" t="s">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="C50" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D50" t="s">
-        <v>1582</v>
+        <v>1567</v>
       </c>
       <c r="E50" t="s">
-        <v>1574</v>
+        <v>1559</v>
       </c>
       <c r="F50" s="98">
         <v>0</v>
@@ -22526,19 +22561,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1602</v>
+        <v>1587</v>
       </c>
       <c r="B51" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C51" t="s">
         <v>1579</v>
       </c>
-      <c r="C51" t="s">
-        <v>1594</v>
-      </c>
       <c r="D51" t="s">
-        <v>1583</v>
+        <v>1568</v>
       </c>
       <c r="E51" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="F51" s="98">
         <v>0</v>
@@ -22549,19 +22584,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1581</v>
+        <v>1566</v>
       </c>
       <c r="B52" t="s">
-        <v>1580</v>
+        <v>1565</v>
       </c>
       <c r="C52" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D52" t="s">
-        <v>1584</v>
+        <v>1569</v>
       </c>
       <c r="E52" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="F52" s="98">
         <v>0</v>
@@ -22583,10 +22618,10 @@
   <dimension ref="A1:Y248"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y248" sqref="Y248"/>
+      <selection pane="bottomRight" activeCell="Q230" sqref="Q230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22689,10 +22724,10 @@
         <v>664</v>
       </c>
       <c r="X1" s="57" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="Y1" s="43" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -22763,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="47" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="X2" s="57">
         <v>0</v>
@@ -23749,7 +23784,7 @@
         <v>729</v>
       </c>
       <c r="R15" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="S15" s="20">
         <v>50</v>
@@ -23775,13 +23810,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B16" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C16" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D16" s="23">
         <v>40</v>
@@ -23823,10 +23858,10 @@
         <v>80</v>
       </c>
       <c r="Q16" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="R16" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="S16" s="20">
         <v>3700</v>
@@ -24134,7 +24169,7 @@
         <v>362</v>
       </c>
       <c r="R20" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="S20" s="20">
         <v>75</v>
@@ -24288,7 +24323,7 @@
         <v>366</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="S22" s="20">
         <v>75</v>
@@ -24824,10 +24859,10 @@
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="S29" s="21">
         <v>150</v>
@@ -25055,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="R32" t="s">
         <v>620</v>
@@ -25363,7 +25398,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="R36" t="s">
         <v>582</v>
@@ -25443,7 +25478,7 @@
         <v>487</v>
       </c>
       <c r="R37" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="S37" s="20">
         <v>230</v>
@@ -25671,7 +25706,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="R40" t="s">
         <v>791</v>
@@ -25902,10 +25937,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="R43" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="S43" s="21">
         <v>280</v>
@@ -26136,7 +26171,7 @@
         <v>488</v>
       </c>
       <c r="R46" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="S46" s="20">
         <v>310</v>
@@ -26287,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="R48" t="s">
         <v>485</v>
@@ -26444,7 +26479,7 @@
         <v>608</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="S50" s="21">
         <v>360</v>
@@ -27519,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="R64" s="2" t="s">
         <v>763</v>
@@ -28626,13 +28661,13 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="74" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B79" s="74" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C79" s="74" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D79" s="23">
         <v>18</v>
@@ -28674,10 +28709,10 @@
         <v>50</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="S79" s="20">
         <v>5000</v>
@@ -28831,7 +28866,7 @@
         <v>564</v>
       </c>
       <c r="R81" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="S81" s="20">
         <v>730</v>
@@ -29601,7 +29636,7 @@
         <v>807</v>
       </c>
       <c r="R91" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="S91" s="20">
         <v>900</v>
@@ -30137,10 +30172,10 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="R98" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="S98" s="20">
         <v>1000</v>
@@ -30214,10 +30249,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="R99" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="S99" s="20">
         <v>1100</v>
@@ -30291,10 +30326,10 @@
         <v>0</v>
       </c>
       <c r="Q100" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="R100" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="S100" s="20">
         <v>1100</v>
@@ -30368,10 +30403,10 @@
         <v>0</v>
       </c>
       <c r="Q101" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="R101" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="S101" s="20">
         <v>1100</v>
@@ -30445,10 +30480,10 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="R102" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="S102" s="20">
         <v>1200</v>
@@ -30474,13 +30509,13 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D103" s="23">
         <v>27</v>
@@ -30522,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="Q103" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="R103" t="s">
         <v>146</v>
@@ -30551,13 +30586,13 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D104" s="23">
         <v>27</v>
@@ -30599,7 +30634,7 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="R104" t="s">
         <v>146</v>
@@ -30628,10 +30663,10 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="76" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B105" s="76" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C105" s="76" t="s">
         <v>817</v>
@@ -30676,10 +30711,10 @@
         <v>10</v>
       </c>
       <c r="Q105" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="S105" s="89">
         <v>1400</v>
@@ -30705,10 +30740,10 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="76" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B106" s="76" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C106" s="76" t="s">
         <v>818</v>
@@ -30753,10 +30788,10 @@
         <v>20</v>
       </c>
       <c r="Q106" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="R106" t="s">
-        <v>1607</v>
+        <v>1592</v>
       </c>
       <c r="S106" s="89">
         <v>1500</v>
@@ -30782,10 +30817,10 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="76" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B107" s="76" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C107" s="76" t="s">
         <v>819</v>
@@ -30830,10 +30865,10 @@
         <v>20</v>
       </c>
       <c r="Q107" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="R107" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
       <c r="S107" s="89">
         <v>1500</v>
@@ -30859,13 +30894,13 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="74" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B108" s="74" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="C108" s="74" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D108" s="23">
         <v>30</v>
@@ -30907,10 +30942,10 @@
         <v>20</v>
       </c>
       <c r="Q108" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="R108" t="s">
-        <v>1212</v>
+        <v>1614</v>
       </c>
       <c r="S108" s="20">
         <v>1700</v>
@@ -30936,10 +30971,10 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="74" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B109" s="74" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C109" s="74" t="s">
         <v>820</v>
@@ -30984,10 +31019,10 @@
         <v>25</v>
       </c>
       <c r="Q109" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="R109" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="S109" s="20">
         <v>1500</v>
@@ -31013,13 +31048,13 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D110" s="23">
         <v>30</v>
@@ -31061,10 +31096,10 @@
         <v>50</v>
       </c>
       <c r="Q110" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="R110" t="s">
-        <v>1006</v>
+        <v>1615</v>
       </c>
       <c r="S110" s="20">
         <v>1700</v>
@@ -31141,7 +31176,7 @@
         <v>747</v>
       </c>
       <c r="R111" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="S111" s="20">
         <v>1</v>
@@ -31387,7 +31422,7 @@
         <v>0</v>
       </c>
       <c r="W114" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X114" s="57">
         <v>0</v>
@@ -31464,7 +31499,7 @@
         <v>0</v>
       </c>
       <c r="W115" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X115" s="57">
         <v>0</v>
@@ -31618,7 +31653,7 @@
         <v>0</v>
       </c>
       <c r="W117" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X117" s="57">
         <v>0</v>
@@ -31695,7 +31730,7 @@
         <v>0</v>
       </c>
       <c r="W118" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X118" s="57">
         <v>0</v>
@@ -31772,7 +31807,7 @@
         <v>0</v>
       </c>
       <c r="W119" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X119" s="57">
         <v>0</v>
@@ -31831,7 +31866,7 @@
         <v>0</v>
       </c>
       <c r="Q120" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="R120" t="s">
         <v>146</v>
@@ -31849,7 +31884,7 @@
         <v>0</v>
       </c>
       <c r="W120" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X120" s="57">
         <v>0</v>
@@ -31985,7 +32020,7 @@
         <v>50</v>
       </c>
       <c r="Q122" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="R122" t="s">
         <v>432</v>
@@ -32003,7 +32038,7 @@
         <v>0</v>
       </c>
       <c r="W122" s="75" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="X122" s="57">
         <v>1</v>
@@ -32080,7 +32115,7 @@
         <v>0</v>
       </c>
       <c r="W123" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X123" s="57">
         <v>0</v>
@@ -32157,7 +32192,7 @@
         <v>0</v>
       </c>
       <c r="W124" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X124" s="57">
         <v>0</v>
@@ -32216,7 +32251,7 @@
         <v>0</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="R125" s="2" t="s">
         <v>146</v>
@@ -32234,7 +32269,7 @@
         <v>0</v>
       </c>
       <c r="W125" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X125" s="57">
         <v>0</v>
@@ -32293,7 +32328,7 @@
         <v>0</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="R126" s="2" t="s">
         <v>146</v>
@@ -32311,7 +32346,7 @@
         <v>0</v>
       </c>
       <c r="W126" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X126" s="57">
         <v>0</v>
@@ -32388,7 +32423,7 @@
         <v>0</v>
       </c>
       <c r="W127" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X127" s="57">
         <v>0</v>
@@ -32447,7 +32482,7 @@
         <v>0</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="R128" s="2" t="s">
         <v>146</v>
@@ -32465,7 +32500,7 @@
         <v>0</v>
       </c>
       <c r="W128" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X128" s="57">
         <v>0</v>
@@ -32601,7 +32636,7 @@
         <v>0</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="R130" s="2" t="s">
         <v>146</v>
@@ -33140,7 +33175,7 @@
         <v>0</v>
       </c>
       <c r="Q137" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="R137" t="s">
         <v>146</v>
@@ -33235,7 +33270,7 @@
         <v>0</v>
       </c>
       <c r="W138" s="75" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="X138" s="57">
         <v>1</v>
@@ -33389,7 +33424,7 @@
         <v>0</v>
       </c>
       <c r="W140" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X140" s="57">
         <v>0</v>
@@ -33466,7 +33501,7 @@
         <v>0</v>
       </c>
       <c r="W141" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X141" s="57">
         <v>0</v>
@@ -33543,7 +33578,7 @@
         <v>0</v>
       </c>
       <c r="W142" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X142" s="57">
         <v>0</v>
@@ -33620,7 +33655,7 @@
         <v>0</v>
       </c>
       <c r="W143" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X143" s="57">
         <v>0</v>
@@ -33679,7 +33714,7 @@
         <v>0</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="R144" s="2" t="s">
         <v>763</v>
@@ -33697,7 +33732,7 @@
         <v>0</v>
       </c>
       <c r="W144" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X144" s="57">
         <v>0</v>
@@ -33774,7 +33809,7 @@
         <v>0</v>
       </c>
       <c r="W145" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X145" s="57">
         <v>0</v>
@@ -34005,7 +34040,7 @@
         <v>6250</v>
       </c>
       <c r="W148" s="75" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="X148" s="57">
         <v>0</v>
@@ -34093,13 +34128,13 @@
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>296</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D150" s="23">
         <v>26</v>
@@ -34141,7 +34176,7 @@
         <v>90</v>
       </c>
       <c r="Q150" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="R150" t="s">
         <v>146</v>
@@ -34170,13 +34205,13 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D151" s="23">
         <v>30</v>
@@ -34218,10 +34253,10 @@
         <v>25</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="R151" s="2" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="S151" s="20">
         <v>20000</v>
@@ -34236,7 +34271,7 @@
         <v>50</v>
       </c>
       <c r="W151" s="75" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="X151" s="57">
         <v>1</v>
@@ -34247,13 +34282,13 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="D152" s="23">
         <v>30</v>
@@ -34295,7 +34330,7 @@
         <v>10</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="R152" t="s">
         <v>146</v>
@@ -34324,13 +34359,13 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D153" s="23">
         <v>30</v>
@@ -34372,7 +34407,7 @@
         <v>0</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="R153" t="s">
         <v>146</v>
@@ -34401,13 +34436,13 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D154" s="23">
         <v>30</v>
@@ -34449,7 +34484,7 @@
         <v>0</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="R154" t="s">
         <v>146</v>
@@ -34478,13 +34513,13 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D155" s="23">
         <v>30</v>
@@ -34526,7 +34561,7 @@
         <v>0</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="R155" t="s">
         <v>146</v>
@@ -34555,13 +34590,13 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="D156" s="23">
         <v>30</v>
@@ -34603,7 +34638,7 @@
         <v>0</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="R156" t="s">
         <v>146</v>
@@ -34632,13 +34667,13 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="D157" s="23">
         <v>30</v>
@@ -34680,7 +34715,7 @@
         <v>0</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="R157" t="s">
         <v>146</v>
@@ -34709,13 +34744,13 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D158" s="23">
         <v>30</v>
@@ -34757,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="R158" t="s">
         <v>146</v>
@@ -34786,13 +34821,13 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="D159" s="23">
         <v>30</v>
@@ -34834,7 +34869,7 @@
         <v>0</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="R159" t="s">
         <v>146</v>
@@ -34863,13 +34898,13 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="D160" s="23">
         <v>30</v>
@@ -34911,7 +34946,7 @@
         <v>0</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="R160" t="s">
         <v>146</v>
@@ -34940,10 +34975,10 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>607</v>
@@ -35006,7 +35041,7 @@
         <v>100</v>
       </c>
       <c r="W161" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X161" s="57">
         <v>0</v>
@@ -35017,13 +35052,13 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="D162" s="23">
         <v>27</v>
@@ -35065,7 +35100,7 @@
         <v>0</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="R162" s="2" t="s">
         <v>146</v>
@@ -35083,7 +35118,7 @@
         <v>100</v>
       </c>
       <c r="W162" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X162" s="57">
         <v>0</v>
@@ -35094,13 +35129,13 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="D163" s="23">
         <v>27</v>
@@ -35142,7 +35177,7 @@
         <v>0</v>
       </c>
       <c r="Q163" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="R163" s="2" t="s">
         <v>146</v>
@@ -35160,7 +35195,7 @@
         <v>100</v>
       </c>
       <c r="W163" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X163" s="57">
         <v>0</v>
@@ -35171,10 +35206,10 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>577</v>
@@ -35237,7 +35272,7 @@
         <v>100</v>
       </c>
       <c r="W164" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X164" s="57">
         <v>0</v>
@@ -35248,13 +35283,13 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="D165" s="23">
         <v>28</v>
@@ -35296,7 +35331,7 @@
         <v>10</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="R165" s="2" t="s">
         <v>146</v>
@@ -35314,7 +35349,7 @@
         <v>100</v>
       </c>
       <c r="W165" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X165" s="57">
         <v>0</v>
@@ -35325,13 +35360,13 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D166" s="23">
         <v>33</v>
@@ -35373,7 +35408,7 @@
         <v>10</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="R166" s="2" t="s">
         <v>146</v>
@@ -35391,7 +35426,7 @@
         <v>100</v>
       </c>
       <c r="W166" s="75" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="X166" s="57">
         <v>0</v>
@@ -35402,13 +35437,13 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D167" s="23">
         <v>33</v>
@@ -35450,7 +35485,7 @@
         <v>10</v>
       </c>
       <c r="Q167" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="R167" s="2" t="s">
         <v>146</v>
@@ -35468,7 +35503,7 @@
         <v>100</v>
       </c>
       <c r="W167" s="75" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="X167" s="57">
         <v>0</v>
@@ -35479,13 +35514,13 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="D168" s="23">
         <v>33</v>
@@ -35527,7 +35562,7 @@
         <v>10</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="R168" s="2" t="s">
         <v>146</v>
@@ -35545,7 +35580,7 @@
         <v>100</v>
       </c>
       <c r="W168" s="75" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="X168" s="57">
         <v>0</v>
@@ -35556,13 +35591,13 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D169" s="23">
         <v>33</v>
@@ -35604,7 +35639,7 @@
         <v>10</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="R169" s="2" t="s">
         <v>146</v>
@@ -35622,7 +35657,7 @@
         <v>100</v>
       </c>
       <c r="W169" s="75" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="X169" s="57">
         <v>0</v>
@@ -35633,7 +35668,7 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B170" t="s">
         <v>342</v>
@@ -35699,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="W170" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X170" s="57">
         <v>0</v>
@@ -35710,7 +35745,7 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B171" t="s">
         <v>312</v>
@@ -35776,7 +35811,7 @@
         <v>0</v>
       </c>
       <c r="W171" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X171" s="57">
         <v>0</v>
@@ -35787,7 +35822,7 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B172" t="s">
         <v>367</v>
@@ -35853,7 +35888,7 @@
         <v>0</v>
       </c>
       <c r="W172" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X172" s="57">
         <v>0</v>
@@ -35864,7 +35899,7 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B173" t="s">
         <v>306</v>
@@ -35930,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="W173" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X173" s="57">
         <v>0</v>
@@ -35941,7 +35976,7 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="B174" t="s">
         <v>512</v>
@@ -36007,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="W174" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X174" s="57">
         <v>0</v>
@@ -36018,7 +36053,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B175" t="s">
         <v>542</v>
@@ -36084,7 +36119,7 @@
         <v>0</v>
       </c>
       <c r="W175" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X175" s="57">
         <v>0</v>
@@ -36095,7 +36130,7 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B176" s="12" t="s">
         <v>578</v>
@@ -36161,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="W176" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X176" s="57">
         <v>0</v>
@@ -36172,7 +36207,7 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B177" s="12" t="s">
         <v>806</v>
@@ -36238,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="W177" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X177" s="57">
         <v>0</v>
@@ -36249,7 +36284,7 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B178" s="12" t="s">
         <v>574</v>
@@ -36315,7 +36350,7 @@
         <v>0</v>
       </c>
       <c r="W178" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X178" s="57">
         <v>0</v>
@@ -36326,7 +36361,7 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="B179" s="12" t="s">
         <v>735</v>
@@ -36392,7 +36427,7 @@
         <v>0</v>
       </c>
       <c r="W179" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X179" s="57">
         <v>0</v>
@@ -36403,7 +36438,7 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B180" s="12" t="s">
         <v>808</v>
@@ -36469,7 +36504,7 @@
         <v>0</v>
       </c>
       <c r="W180" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X180" s="57">
         <v>0</v>
@@ -36546,7 +36581,7 @@
         <v>0</v>
       </c>
       <c r="W181" s="47" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X181" s="57">
         <v>0</v>
@@ -36557,13 +36592,13 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D182" s="23">
         <v>27</v>
@@ -36605,10 +36640,10 @@
         <v>25</v>
       </c>
       <c r="Q182" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="S182" s="20">
         <v>1300</v>
@@ -36634,13 +36669,13 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D183" s="23">
         <v>35</v>
@@ -36682,10 +36717,10 @@
         <v>0</v>
       </c>
       <c r="Q183" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="R183" t="s">
-        <v>1338</v>
+        <v>1599</v>
       </c>
       <c r="S183" s="20">
         <v>9000</v>
@@ -36711,13 +36746,13 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D184" s="23">
         <v>35</v>
@@ -36759,10 +36794,10 @@
         <v>50</v>
       </c>
       <c r="Q184" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="R184" t="s">
-        <v>1338</v>
+        <v>1599</v>
       </c>
       <c r="S184" s="20">
         <v>9000</v>
@@ -36788,13 +36823,13 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D185" s="23">
         <v>35</v>
@@ -36836,10 +36871,10 @@
         <v>50</v>
       </c>
       <c r="Q185" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="R185" t="s">
-        <v>1338</v>
+        <v>1599</v>
       </c>
       <c r="S185" s="20">
         <v>9000</v>
@@ -36865,13 +36900,13 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D186" s="23">
         <v>34</v>
@@ -36913,10 +36948,10 @@
         <v>50</v>
       </c>
       <c r="Q186" t="s">
-        <v>1087</v>
+        <v>1606</v>
       </c>
       <c r="R186" t="s">
-        <v>1334</v>
+        <v>1600</v>
       </c>
       <c r="S186" s="20">
         <v>8000</v>
@@ -36942,13 +36977,13 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D187" s="23">
         <v>34</v>
@@ -36990,10 +37025,10 @@
         <v>25</v>
       </c>
       <c r="Q187" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="R187" t="s">
-        <v>1334</v>
+        <v>1600</v>
       </c>
       <c r="S187" s="20">
         <v>8000</v>
@@ -37019,13 +37054,13 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D188" s="23">
         <v>34</v>
@@ -37067,10 +37102,10 @@
         <v>25</v>
       </c>
       <c r="Q188" s="2" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="R188" t="s">
-        <v>1334</v>
+        <v>1600</v>
       </c>
       <c r="S188" s="20">
         <v>8000</v>
@@ -37096,13 +37131,13 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D189" s="23">
         <v>33</v>
@@ -37144,10 +37179,10 @@
         <v>50</v>
       </c>
       <c r="Q189" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="R189" t="s">
-        <v>1333</v>
+        <v>1601</v>
       </c>
       <c r="S189" s="20">
         <v>7000</v>
@@ -37173,13 +37208,13 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D190" s="23">
         <v>33</v>
@@ -37221,10 +37256,10 @@
         <v>25</v>
       </c>
       <c r="Q190" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="R190" t="s">
-        <v>1333</v>
+        <v>1601</v>
       </c>
       <c r="S190" s="20">
         <v>7000</v>
@@ -37250,13 +37285,13 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D191" s="23">
         <v>33</v>
@@ -37298,10 +37333,10 @@
         <v>0</v>
       </c>
       <c r="Q191" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="R191" t="s">
-        <v>1339</v>
+        <v>1602</v>
       </c>
       <c r="S191" s="20">
         <v>7000</v>
@@ -37327,13 +37362,13 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="D192" s="23">
         <v>32</v>
@@ -37375,10 +37410,10 @@
         <v>75</v>
       </c>
       <c r="Q192" s="2" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="R192" t="s">
-        <v>1335</v>
+        <v>1603</v>
       </c>
       <c r="S192" s="20">
         <v>6000</v>
@@ -37404,13 +37439,13 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D193" s="23">
         <v>32</v>
@@ -37452,10 +37487,10 @@
         <v>0</v>
       </c>
       <c r="Q193" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="R193" t="s">
-        <v>1339</v>
+        <v>1602</v>
       </c>
       <c r="S193" s="20">
         <v>6000</v>
@@ -37481,13 +37516,13 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D194" s="23">
         <v>32</v>
@@ -37529,10 +37564,10 @@
         <v>25</v>
       </c>
       <c r="Q194" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="R194" t="s">
-        <v>1336</v>
+        <v>1604</v>
       </c>
       <c r="S194" s="20">
         <v>6000</v>
@@ -37558,13 +37593,13 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D195" s="23">
         <v>31</v>
@@ -37606,10 +37641,10 @@
         <v>0</v>
       </c>
       <c r="Q195" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="R195" t="s">
-        <v>1335</v>
+        <v>1603</v>
       </c>
       <c r="S195" s="20">
         <v>5000</v>
@@ -37635,13 +37670,13 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D196" s="23">
         <v>31</v>
@@ -37683,10 +37718,10 @@
         <v>0</v>
       </c>
       <c r="Q196" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="R196" t="s">
-        <v>1337</v>
+        <v>1605</v>
       </c>
       <c r="S196" s="20">
         <v>5000</v>
@@ -37712,13 +37747,13 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D197" s="23">
         <v>31</v>
@@ -37760,10 +37795,10 @@
         <v>0</v>
       </c>
       <c r="Q197" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="R197" t="s">
-        <v>1337</v>
+        <v>1605</v>
       </c>
       <c r="S197" s="20">
         <v>5000</v>
@@ -37789,13 +37824,13 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="D198" s="23">
         <v>35</v>
@@ -37837,7 +37872,7 @@
         <v>50</v>
       </c>
       <c r="Q198" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="R198" t="s">
         <v>146</v>
@@ -37866,13 +37901,13 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="D199" s="23">
         <v>35</v>
@@ -37914,7 +37949,7 @@
         <v>0</v>
       </c>
       <c r="Q199" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="R199" t="s">
         <v>146</v>
@@ -37943,13 +37978,13 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="D200" s="23">
         <v>36</v>
@@ -37991,10 +38026,10 @@
         <v>100</v>
       </c>
       <c r="Q200" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="R200" t="s">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="S200" s="20">
         <v>30000</v>
@@ -38009,7 +38044,7 @@
         <v>2</v>
       </c>
       <c r="W200" s="75" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="X200" s="57">
         <v>0</v>
@@ -38020,13 +38055,13 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="D201" s="23">
         <v>36</v>
@@ -38068,10 +38103,10 @@
         <v>50</v>
       </c>
       <c r="Q201" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="R201" t="s">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="S201" s="20">
         <v>30000</v>
@@ -38086,7 +38121,7 @@
         <v>2</v>
       </c>
       <c r="W201" s="75" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="X201" s="57">
         <v>0</v>
@@ -38097,13 +38132,13 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="B202" s="13" t="s">
         <v>787</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="D202" s="23">
         <v>37</v>
@@ -38145,7 +38180,7 @@
         <v>90</v>
       </c>
       <c r="Q202" s="2" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="R202" t="s">
         <v>146</v>
@@ -38163,7 +38198,7 @@
         <v>0</v>
       </c>
       <c r="W202" s="75" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="X202" s="57">
         <v>0</v>
@@ -38174,13 +38209,13 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="D203" s="23">
         <v>1</v>
@@ -38222,7 +38257,7 @@
         <v>0</v>
       </c>
       <c r="Q203" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="R203" t="s">
         <v>146</v>
@@ -38251,13 +38286,13 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="D204" s="23">
         <v>20</v>
@@ -38329,13 +38364,13 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="D205" s="23">
         <v>4</v>
@@ -38406,13 +38441,13 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>1382</v>
+        <v>1367</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="D206" s="23">
         <v>30</v>
@@ -38454,10 +38489,10 @@
         <v>50</v>
       </c>
       <c r="Q206" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="R206" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="S206" s="20">
         <v>1700</v>
@@ -38483,13 +38518,13 @@
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="D207" s="23">
         <v>15</v>
@@ -38531,10 +38566,10 @@
         <v>100</v>
       </c>
       <c r="Q207" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="R207" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="S207" s="20">
         <v>550</v>
@@ -38560,13 +38595,13 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="D208" s="23">
         <v>15</v>
@@ -38608,10 +38643,10 @@
         <v>100</v>
       </c>
       <c r="Q208" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="R208" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="S208" s="20">
         <v>550</v>
@@ -38637,13 +38672,13 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="D209" s="23">
         <v>15</v>
@@ -38685,10 +38720,10 @@
         <v>100</v>
       </c>
       <c r="Q209" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="R209" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="S209" s="20">
         <v>550</v>
@@ -38714,13 +38749,13 @@
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D210" s="23">
         <v>20</v>
@@ -38762,10 +38797,10 @@
         <v>50</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="R210" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="S210" s="20">
         <v>800</v>
@@ -38791,13 +38826,13 @@
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="D211" s="23">
         <v>21</v>
@@ -38839,7 +38874,7 @@
         <v>0</v>
       </c>
       <c r="Q211" s="2" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="R211" t="s">
         <v>146</v>
@@ -38868,13 +38903,13 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="D212" s="23">
         <v>23</v>
@@ -38916,7 +38951,7 @@
         <v>0</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="R212" t="s">
         <v>146</v>
@@ -38945,13 +38980,13 @@
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="D213" s="23">
         <v>24</v>
@@ -38993,7 +39028,7 @@
         <v>50</v>
       </c>
       <c r="Q213" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="R213" t="s">
         <v>146</v>
@@ -39022,13 +39057,13 @@
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="D214" s="23">
         <v>26</v>
@@ -39070,10 +39105,10 @@
         <v>25</v>
       </c>
       <c r="Q214" t="s">
-        <v>1383</v>
+        <v>1368</v>
       </c>
       <c r="R214" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="S214" s="20">
         <v>1200</v>
@@ -39099,13 +39134,13 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="D215" s="23">
         <v>24</v>
@@ -39147,7 +39182,7 @@
         <v>50</v>
       </c>
       <c r="Q215" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="R215" t="s">
         <v>146</v>
@@ -39176,13 +39211,13 @@
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="D216" s="23">
         <v>25</v>
@@ -39224,7 +39259,7 @@
         <v>0</v>
       </c>
       <c r="Q216" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="R216" t="s">
         <v>146</v>
@@ -39253,13 +39288,13 @@
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="D217" s="23">
         <v>24</v>
@@ -39301,10 +39336,10 @@
         <v>0</v>
       </c>
       <c r="Q217" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="R217" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="S217" s="20">
         <v>1000</v>
@@ -39330,13 +39365,13 @@
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="D218" s="23">
         <v>26</v>
@@ -39378,7 +39413,7 @@
         <v>0</v>
       </c>
       <c r="Q218" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="R218" t="s">
         <v>146</v>
@@ -39407,13 +39442,13 @@
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="D219" s="23">
         <v>27</v>
@@ -39455,10 +39490,10 @@
         <v>0</v>
       </c>
       <c r="Q219" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="R219" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="S219" s="20">
         <v>1300</v>
@@ -39484,13 +39519,13 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="D220" s="23">
         <v>30</v>
@@ -39532,10 +39567,10 @@
         <v>50</v>
       </c>
       <c r="Q220" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="R220" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="S220" s="20">
         <v>1700</v>
@@ -39561,13 +39596,13 @@
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="D221" s="23">
         <v>27</v>
@@ -39609,10 +39644,10 @@
         <v>25</v>
       </c>
       <c r="Q221" s="2" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="R221" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="S221" s="20">
         <v>3000</v>
@@ -39638,13 +39673,13 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="D222" s="23">
         <v>30</v>
@@ -39686,10 +39721,10 @@
         <v>100</v>
       </c>
       <c r="Q222" s="2" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="R222" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="S222" s="20">
         <v>4000</v>
@@ -39715,13 +39750,13 @@
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="D223" s="23">
         <v>31</v>
@@ -39763,10 +39798,10 @@
         <v>50</v>
       </c>
       <c r="Q223" s="2" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="R223" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="S223" s="20">
         <v>5000</v>
@@ -39792,13 +39827,13 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="D224" s="23">
         <v>35</v>
@@ -39840,10 +39875,10 @@
         <v>99</v>
       </c>
       <c r="Q224" s="2" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="R224" s="2" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="S224" s="20">
         <v>9000</v>
@@ -39869,13 +39904,13 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="D225" s="23">
         <v>35</v>
@@ -39917,10 +39952,10 @@
         <v>0</v>
       </c>
       <c r="Q225" s="2" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="R225" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="S225" s="20">
         <v>100000</v>
@@ -39946,13 +39981,13 @@
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="D226" s="23">
         <v>40</v>
@@ -39994,10 +40029,10 @@
         <v>0</v>
       </c>
       <c r="Q226" s="2" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="R226" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="S226" s="20">
         <v>200000</v>
@@ -40023,13 +40058,13 @@
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="D227" s="23">
         <v>45</v>
@@ -40071,10 +40106,10 @@
         <v>0</v>
       </c>
       <c r="Q227" s="2" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="R227" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="S227" s="20">
         <v>300000</v>
@@ -40100,13 +40135,13 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="B228" t="s">
         <v>429</v>
       </c>
       <c r="C228" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="D228" s="23">
         <v>50</v>
@@ -40148,10 +40183,10 @@
         <v>25</v>
       </c>
       <c r="Q228" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="R228" s="2" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="S228" s="21">
         <v>400000</v>
@@ -40177,13 +40212,13 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="D229" s="23">
         <v>60</v>
@@ -40225,7 +40260,7 @@
         <v>98</v>
       </c>
       <c r="Q229" s="2" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="R229" t="s">
         <v>146</v>
@@ -40243,7 +40278,7 @@
         <v>0</v>
       </c>
       <c r="W229" s="47" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="X229" s="57">
         <v>0</v>
@@ -40254,13 +40289,13 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="D230" s="23">
         <v>35</v>
@@ -40305,7 +40340,7 @@
         <v>146</v>
       </c>
       <c r="R230" t="s">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="S230" s="20">
         <v>2700</v>
@@ -40331,13 +40366,13 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>1349</v>
+        <v>1334</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="D231" s="23">
         <v>37</v>
@@ -40382,7 +40417,7 @@
         <v>146</v>
       </c>
       <c r="R231" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="S231" s="20">
         <v>3100</v>
@@ -40408,13 +40443,13 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="D232" s="23">
         <v>38</v>
@@ -40459,7 +40494,7 @@
         <v>146</v>
       </c>
       <c r="R232" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="S232" s="20">
         <v>3300</v>
@@ -40485,13 +40520,13 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="D233" s="23">
         <v>39</v>
@@ -40536,7 +40571,7 @@
         <v>146</v>
       </c>
       <c r="R233" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="S233" s="20">
         <v>3500</v>
@@ -40562,13 +40597,13 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="C234" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="D234" s="23">
         <v>44</v>
@@ -40610,10 +40645,10 @@
         <v>0</v>
       </c>
       <c r="Q234" s="2" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="R234" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
       <c r="S234" s="20">
         <v>5000</v>
@@ -40639,13 +40674,13 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="D235" s="23">
         <v>40</v>
@@ -40716,13 +40751,13 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="D236" s="23">
         <v>41</v>
@@ -40767,7 +40802,7 @@
         <v>146</v>
       </c>
       <c r="R236" t="s">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="S236" s="20">
         <v>4100</v>
@@ -40793,13 +40828,13 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="D237" s="23">
         <v>42</v>
@@ -40844,7 +40879,7 @@
         <v>146</v>
       </c>
       <c r="R237" t="s">
-        <v>1344</v>
+        <v>1329</v>
       </c>
       <c r="S237" s="20">
         <v>4400</v>
@@ -40870,13 +40905,13 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="D238" s="23">
         <v>43</v>
@@ -40921,7 +40956,7 @@
         <v>146</v>
       </c>
       <c r="R238" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="S238" s="20">
         <v>4700</v>
@@ -40947,13 +40982,13 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="D239" s="23">
         <v>44</v>
@@ -40998,7 +41033,7 @@
         <v>146</v>
       </c>
       <c r="R239" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="S239" s="20">
         <v>5000</v>
@@ -41024,13 +41059,13 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="D240" s="23">
         <v>45</v>
@@ -41075,7 +41110,7 @@
         <v>146</v>
       </c>
       <c r="R240" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="S240" s="20">
         <v>5400</v>
@@ -41101,13 +41136,13 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="D241" s="23">
         <v>45</v>
@@ -41152,7 +41187,7 @@
         <v>146</v>
       </c>
       <c r="R241" t="s">
-        <v>1347</v>
+        <v>1332</v>
       </c>
       <c r="S241" s="20">
         <v>5400</v>
@@ -41178,13 +41213,13 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="D242" s="23">
         <v>45</v>
@@ -41229,7 +41264,7 @@
         <v>146</v>
       </c>
       <c r="R242" t="s">
-        <v>1348</v>
+        <v>1333</v>
       </c>
       <c r="S242" s="20">
         <v>5400</v>
@@ -41255,13 +41290,13 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="D243" s="23">
         <v>46</v>
@@ -41306,7 +41341,7 @@
         <v>146</v>
       </c>
       <c r="R243" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="S243" s="20">
         <v>5800</v>
@@ -41332,13 +41367,13 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="D244" s="23">
         <v>72</v>
@@ -41383,7 +41418,7 @@
         <v>146</v>
       </c>
       <c r="R244" t="s">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="S244" s="20">
         <v>1</v>
@@ -41398,7 +41433,7 @@
         <v>0</v>
       </c>
       <c r="W244" s="47" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="X244" s="57">
         <v>1</v>
@@ -41409,13 +41444,13 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="D245" s="23">
         <v>74</v>
@@ -41475,7 +41510,7 @@
         <v>0</v>
       </c>
       <c r="W245" s="47" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="X245" s="57">
         <v>1</v>
@@ -41486,13 +41521,13 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="12" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="D246" s="23">
         <v>24</v>
@@ -41534,10 +41569,10 @@
         <v>50</v>
       </c>
       <c r="Q246" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="R246" t="s">
-        <v>1385</v>
+        <v>1370</v>
       </c>
       <c r="S246" s="20">
         <v>10</v>
@@ -41563,13 +41598,13 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="12" t="s">
-        <v>1381</v>
+        <v>1366</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>1381</v>
+        <v>1366</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>1381</v>
+        <v>1366</v>
       </c>
       <c r="D247" s="23">
         <v>22</v>
@@ -41611,10 +41646,10 @@
         <v>25</v>
       </c>
       <c r="Q247" s="2" t="s">
-        <v>1384</v>
+        <v>1369</v>
       </c>
       <c r="R247" t="s">
-        <v>1386</v>
+        <v>1371</v>
       </c>
       <c r="S247" s="20">
         <v>900</v>
@@ -41640,13 +41675,13 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="D248" s="23">
         <v>6</v>
@@ -41688,10 +41723,10 @@
         <v>-100</v>
       </c>
       <c r="Q248" s="2" t="s">
-        <v>1503</v>
+        <v>1488</v>
       </c>
       <c r="R248" s="2" t="s">
-        <v>1504</v>
+        <v>1489</v>
       </c>
       <c r="S248" s="21">
         <v>100</v>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="9"/>
+    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="1616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="1618">
   <si>
     <t>Club</t>
   </si>
@@ -4875,6 +4875,12 @@
   </si>
   <si>
     <t>{'Khabir\'s Shaft': 2, 'J Bow': 2, 'Guardian Plate': 1, 'Ornate Halberd': 1, 'Helm Splitter': 1, 'Gyroscopic Flange': 1, 'Golden Sun': 1}</t>
+  </si>
+  <si>
+    <t>Chasmic Rucksack</t>
+  </si>
+  <si>
+    <t>You could even fit a Telamon Shield in this thing.</t>
   </si>
 </sst>
 </file>
@@ -5690,7 +5696,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6063,11 +6068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127044608"/>
-        <c:axId val="129573632"/>
+        <c:axId val="81504128"/>
+        <c:axId val="81505664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127044608"/>
+        <c:axId val="81504128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6077,7 +6082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129573632"/>
+        <c:crossAx val="81505664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6085,7 +6090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129573632"/>
+        <c:axId val="81505664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -6097,14 +6102,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127044608"/>
+        <c:crossAx val="81504128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6789,11 +6793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129651840"/>
-        <c:axId val="129653760"/>
+        <c:axId val="70660096"/>
+        <c:axId val="70662016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129651840"/>
+        <c:axId val="70660096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6821,7 +6825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129653760"/>
+        <c:crossAx val="70662016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6831,7 +6835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129653760"/>
+        <c:axId val="70662016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6842,7 +6846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129651840"/>
+        <c:crossAx val="70660096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8111,7 +8115,7 @@
   </sheetPr>
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
     </sheetView>
@@ -21073,11 +21077,9 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21380,6 +21382,17 @@
       </c>
       <c r="C23" s="13" t="s">
         <v>1274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B24" s="43">
+        <v>15000</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>1617</v>
       </c>
     </row>
   </sheetData>
@@ -22618,10 +22631,10 @@
   <dimension ref="A1:Y248"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E200" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q230" sqref="Q230"/>
+      <selection pane="bottomRight" activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36918,7 +36931,7 @@
         <v>70000</v>
       </c>
       <c r="G186" s="41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H186" s="25">
         <v>20</v>
@@ -37072,7 +37085,7 @@
         <v>30000</v>
       </c>
       <c r="G188" s="41">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H188" s="25">
         <v>50</v>
@@ -37226,10 +37239,10 @@
         <v>25000</v>
       </c>
       <c r="G190" s="41">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H190" s="25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I190" s="24">
         <v>10</v>

--- a/data/Data Spreadsheet.xlsx
+++ b/data/Data Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="7"/>
+    <workbookView xWindow="9750" yWindow="345" windowWidth="15810" windowHeight="12825" tabRatio="621" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="1391">
   <si>
     <t>Club</t>
   </si>
@@ -4197,6 +4197,9 @@
   </si>
   <si>
     <t>{'Items': {'Key Mold': 1}}</t>
+  </si>
+  <si>
+    <t>Hopalong Boots</t>
   </si>
 </sst>
 </file>
@@ -5383,11 +5386,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124673024"/>
-        <c:axId val="124707584"/>
+        <c:axId val="127036416"/>
+        <c:axId val="127992576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124673024"/>
+        <c:axId val="127036416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5397,7 +5400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124707584"/>
+        <c:crossAx val="127992576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5405,7 +5408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124707584"/>
+        <c:axId val="127992576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250000"/>
@@ -5417,7 +5420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124673024"/>
+        <c:crossAx val="127036416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6108,11 +6111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126465152"/>
-        <c:axId val="126467072"/>
+        <c:axId val="128038016"/>
+        <c:axId val="128039936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126465152"/>
+        <c:axId val="128038016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6140,7 +6143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126467072"/>
+        <c:crossAx val="128039936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6150,7 +6153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126467072"/>
+        <c:axId val="128039936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6161,7 +6164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126465152"/>
+        <c:crossAx val="128038016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18086,11 +18089,9 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:F55"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19195,6 +19196,26 @@
       </c>
       <c r="F55">
         <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B56" s="43">
+        <v>1225</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="27">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -20461,7 +20482,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
